--- a/static/documentos/chequeo_2017.xlsx
+++ b/static/documentos/chequeo_2017.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SISTEMAS\Documents\PycharmProjects\sican\static\documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SISTEMAS\PycharmProjects\sican_2017\static\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355" xr2:uid="{8CBB1552-A8E8-456D-9753-EEF3C368F3D3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355" activeTab="4" xr2:uid="{8CBB1552-A8E8-456D-9753-EEF3C368F3D3}"/>
   </bookViews>
   <sheets>
     <sheet name="InnovaTIC" sheetId="1" r:id="rId1"/>
     <sheet name="TecnoTIC" sheetId="2" r:id="rId2"/>
     <sheet name="DirecTIC" sheetId="3" r:id="rId3"/>
     <sheet name="EscuelaTIC" sheetId="4" r:id="rId4"/>
+    <sheet name="PuenteAranda" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,8 +27,33 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>JSMITH</author>
+  </authors>
+  <commentList>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{4E8E189E-4F9D-4431-8D57-98ADC0EE91E8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>JSMITH:
+SE DEBE INGRESAR EL CODIGO DANE DE LA SEDE EDUCATIVA EN DONDE SE ENCUENTRA ADSCRITO EL DOCENTE FORMADO</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="369">
   <si>
     <t>REGION</t>
   </si>
@@ -1083,6 +1109,87 @@
   </si>
   <si>
     <t>2. Conformación de la Escuela TIC para la familia en el Municipio.</t>
+  </si>
+  <si>
+    <t>COMPUTADORES PARA EDUCAR</t>
+  </si>
+  <si>
+    <t>Subdirección de Formacion Educativa</t>
+  </si>
+  <si>
+    <t>MATRIZ LISTA DE CHEQUEO DE PRODUCTOS ASOCIADOS A LA ESCUELA TIC PARA DOCENTES INNOVADORES</t>
+  </si>
+  <si>
+    <t>MODULO</t>
+  </si>
+  <si>
+    <t>MODULO 1</t>
+  </si>
+  <si>
+    <t>MODULO 2</t>
+  </si>
+  <si>
+    <t>MODULO 3</t>
+  </si>
+  <si>
+    <t>MODULO 4</t>
+  </si>
+  <si>
+    <t>PRUEBA FINAL</t>
+  </si>
+  <si>
+    <t>ACTA DE COMPROMISO</t>
+  </si>
+  <si>
+    <t>Tarea:Actividad 3. El Coaching como estrategia de liderazgo docente.</t>
+  </si>
+  <si>
+    <t>Cuestionario:Prueba Módulo 1 “Conocimientos adquiridos”</t>
+  </si>
+  <si>
+    <t>Cuestionario:Prueba Módulo 2 Conocimientos adquiridos</t>
+  </si>
+  <si>
+    <t>Cuestionario:Prueba Módulo 3 “Evaluando y potenciando proyectos educativos, unidades didácticas y experiencias como Líder Tic.”</t>
+  </si>
+  <si>
+    <t>Cuestionario:Prueba Módulo 4 “Conocimientos adquiridos”</t>
+  </si>
+  <si>
+    <t>Tarea:Actividad 13. Construyendo Comunidades de Práctica como estrategia de innovación que fortalece el intercambio de saberes y experiencias entre pares.</t>
+  </si>
+  <si>
+    <t>Cuestionario:Prueba Final. “Presentación de la prueba final”</t>
+  </si>
+  <si>
+    <t>DOCENTES CON ESCUELA TIC DOCENTES APROBADOS</t>
+  </si>
+  <si>
+    <t>FORO EN LA PLATAFORMA</t>
+  </si>
+  <si>
+    <t>*Documento Word con las características
+esenciales de los procesos de desarrollo
+profesional docente.
+*Puzzle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documento PDF, rúbrica de Categorización.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foro Wiki en la plataforma.
+</t>
+  </si>
+  <si>
+    <t>Pantallazo de Polígono.</t>
+  </si>
+  <si>
+    <t>Pantallazo de Facebook en la cual se vea reflejado el proceso de capacitación.</t>
+  </si>
+  <si>
+    <t>Mapa Mental Digital realizado en Mindmeister
+(jpg/pdf)</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1200,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1213,8 +1320,28 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="26">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1365,8 +1492,44 @@
         <bgColor rgb="FFCFE7F5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor rgb="FFBDD7EE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1667,6 +1830,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1676,7 +1879,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1836,22 +2039,82 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1860,167 +2123,140 @@
     <xf numFmtId="0" fontId="12" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="22" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2047,37 +2283,98 @@
     <xf numFmtId="0" fontId="18" fillId="24" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="26" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="26" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="26" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2399,7 +2696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AA5E57-F210-4AB8-BD1D-1A708E7BCDFF}">
   <dimension ref="A1:CZ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -2439,61 +2736,61 @@
       <c r="AW1" s="11"/>
       <c r="AX1" s="11"/>
       <c r="AY1" s="12"/>
-      <c r="AZ1" s="76" t="s">
+      <c r="AZ1" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="BA1" s="77"/>
-      <c r="BB1" s="77"/>
-      <c r="BC1" s="77"/>
-      <c r="BD1" s="77"/>
-      <c r="BE1" s="77"/>
-      <c r="BF1" s="77"/>
-      <c r="BG1" s="77"/>
-      <c r="BH1" s="77"/>
-      <c r="BI1" s="77"/>
-      <c r="BJ1" s="77"/>
-      <c r="BK1" s="77"/>
-      <c r="BL1" s="77"/>
-      <c r="BM1" s="77"/>
-      <c r="BN1" s="77"/>
-      <c r="BO1" s="77"/>
-      <c r="BP1" s="77"/>
-      <c r="BQ1" s="77"/>
-      <c r="BR1" s="77"/>
-      <c r="BS1" s="77"/>
-      <c r="BT1" s="77"/>
-      <c r="BU1" s="77"/>
-      <c r="BV1" s="78" t="s">
+      <c r="BA1" s="55"/>
+      <c r="BB1" s="55"/>
+      <c r="BC1" s="55"/>
+      <c r="BD1" s="55"/>
+      <c r="BE1" s="55"/>
+      <c r="BF1" s="55"/>
+      <c r="BG1" s="55"/>
+      <c r="BH1" s="55"/>
+      <c r="BI1" s="55"/>
+      <c r="BJ1" s="55"/>
+      <c r="BK1" s="55"/>
+      <c r="BL1" s="55"/>
+      <c r="BM1" s="55"/>
+      <c r="BN1" s="55"/>
+      <c r="BO1" s="55"/>
+      <c r="BP1" s="55"/>
+      <c r="BQ1" s="55"/>
+      <c r="BR1" s="55"/>
+      <c r="BS1" s="55"/>
+      <c r="BT1" s="55"/>
+      <c r="BU1" s="55"/>
+      <c r="BV1" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="BW1" s="77"/>
-      <c r="BX1" s="77"/>
-      <c r="BY1" s="77"/>
-      <c r="BZ1" s="77"/>
-      <c r="CA1" s="77"/>
-      <c r="CB1" s="77"/>
-      <c r="CC1" s="77"/>
-      <c r="CD1" s="77"/>
-      <c r="CE1" s="77"/>
-      <c r="CF1" s="77"/>
-      <c r="CG1" s="77"/>
-      <c r="CH1" s="77"/>
-      <c r="CI1" s="77"/>
-      <c r="CJ1" s="77"/>
-      <c r="CK1" s="77"/>
-      <c r="CL1" s="77"/>
-      <c r="CM1" s="77"/>
-      <c r="CN1" s="77"/>
-      <c r="CO1" s="79" t="s">
+      <c r="BW1" s="55"/>
+      <c r="BX1" s="55"/>
+      <c r="BY1" s="55"/>
+      <c r="BZ1" s="55"/>
+      <c r="CA1" s="55"/>
+      <c r="CB1" s="55"/>
+      <c r="CC1" s="55"/>
+      <c r="CD1" s="55"/>
+      <c r="CE1" s="55"/>
+      <c r="CF1" s="55"/>
+      <c r="CG1" s="55"/>
+      <c r="CH1" s="55"/>
+      <c r="CI1" s="55"/>
+      <c r="CJ1" s="55"/>
+      <c r="CK1" s="55"/>
+      <c r="CL1" s="55"/>
+      <c r="CM1" s="55"/>
+      <c r="CN1" s="55"/>
+      <c r="CO1" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="CP1" s="77"/>
-      <c r="CQ1" s="77"/>
-      <c r="CR1" s="77"/>
-      <c r="CS1" s="77"/>
-      <c r="CT1" s="77"/>
-      <c r="CU1" s="77"/>
-      <c r="CV1" s="77"/>
+      <c r="CP1" s="55"/>
+      <c r="CQ1" s="55"/>
+      <c r="CR1" s="55"/>
+      <c r="CS1" s="55"/>
+      <c r="CT1" s="55"/>
+      <c r="CU1" s="55"/>
+      <c r="CV1" s="55"/>
     </row>
     <row r="2" spans="1:104" ht="16.5">
       <c r="Y2" s="5" t="s">
@@ -2512,44 +2809,44 @@
       <c r="AF2" s="13"/>
       <c r="AG2" s="13"/>
       <c r="AH2" s="14"/>
-      <c r="AI2" s="80" t="s">
+      <c r="AI2" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="AJ2" s="81"/>
-      <c r="AK2" s="81"/>
-      <c r="AL2" s="81"/>
-      <c r="AM2" s="82"/>
-      <c r="AN2" s="80" t="s">
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59"/>
+      <c r="AM2" s="60"/>
+      <c r="AN2" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="AO2" s="81"/>
-      <c r="AP2" s="81"/>
-      <c r="AQ2" s="81"/>
-      <c r="AR2" s="81"/>
-      <c r="AS2" s="81"/>
-      <c r="AT2" s="82"/>
-      <c r="AU2" s="80" t="s">
+      <c r="AO2" s="59"/>
+      <c r="AP2" s="59"/>
+      <c r="AQ2" s="59"/>
+      <c r="AR2" s="59"/>
+      <c r="AS2" s="59"/>
+      <c r="AT2" s="60"/>
+      <c r="AU2" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="AV2" s="81"/>
-      <c r="AW2" s="81"/>
-      <c r="AX2" s="81"/>
-      <c r="AY2" s="82"/>
-      <c r="AZ2" s="74" t="s">
+      <c r="AV2" s="59"/>
+      <c r="AW2" s="59"/>
+      <c r="AX2" s="59"/>
+      <c r="AY2" s="60"/>
+      <c r="AZ2" s="61" t="s">
         <v>107</v>
       </c>
       <c r="BA2" s="53"/>
       <c r="BB2" s="53"/>
       <c r="BC2" s="53"/>
       <c r="BD2" s="53"/>
-      <c r="BE2" s="74" t="s">
+      <c r="BE2" s="61" t="s">
         <v>108</v>
       </c>
       <c r="BF2" s="53"/>
       <c r="BG2" s="53"/>
       <c r="BH2" s="53"/>
       <c r="BI2" s="53"/>
-      <c r="BJ2" s="74" t="s">
+      <c r="BJ2" s="61" t="s">
         <v>109</v>
       </c>
       <c r="BK2" s="53"/>
@@ -2558,41 +2855,41 @@
       <c r="BN2" s="53"/>
       <c r="BO2" s="53"/>
       <c r="BP2" s="53"/>
-      <c r="BQ2" s="74" t="s">
+      <c r="BQ2" s="61" t="s">
         <v>110</v>
       </c>
       <c r="BR2" s="53"/>
       <c r="BS2" s="53"/>
       <c r="BT2" s="53"/>
       <c r="BU2" s="53"/>
-      <c r="BV2" s="74" t="s">
+      <c r="BV2" s="61" t="s">
         <v>107</v>
       </c>
       <c r="BW2" s="53"/>
       <c r="BX2" s="53"/>
       <c r="BY2" s="53"/>
       <c r="BZ2" s="53"/>
-      <c r="CA2" s="74" t="s">
+      <c r="CA2" s="61" t="s">
         <v>108</v>
       </c>
       <c r="CB2" s="53"/>
       <c r="CC2" s="53"/>
       <c r="CD2" s="53"/>
-      <c r="CE2" s="75" t="s">
+      <c r="CE2" s="52" t="s">
         <v>109</v>
       </c>
       <c r="CF2" s="53"/>
       <c r="CG2" s="53"/>
       <c r="CH2" s="53"/>
       <c r="CI2" s="53"/>
-      <c r="CJ2" s="75" t="s">
+      <c r="CJ2" s="52" t="s">
         <v>110</v>
       </c>
       <c r="CK2" s="53"/>
       <c r="CL2" s="53"/>
       <c r="CM2" s="53"/>
       <c r="CN2" s="53"/>
-      <c r="CO2" s="75" t="s">
+      <c r="CO2" s="52" t="s">
         <v>107</v>
       </c>
       <c r="CP2" s="53"/>
@@ -2600,7 +2897,7 @@
       <c r="CR2" s="53"/>
       <c r="CS2" s="53"/>
       <c r="CT2" s="53"/>
-      <c r="CU2" s="75" t="s">
+      <c r="CU2" s="52" t="s">
         <v>108</v>
       </c>
       <c r="CV2" s="53"/>
@@ -2609,57 +2906,57 @@
       <c r="Y3" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="Z3" s="71">
+      <c r="Z3" s="62">
         <v>0</v>
       </c>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="71"/>
-      <c r="AC3" s="71">
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62">
         <v>1</v>
       </c>
-      <c r="AD3" s="69"/>
+      <c r="AD3" s="63"/>
       <c r="AE3" s="15">
         <v>2</v>
       </c>
       <c r="AF3" s="16">
         <v>3</v>
       </c>
-      <c r="AG3" s="72">
+      <c r="AG3" s="64">
         <v>4</v>
       </c>
-      <c r="AH3" s="73"/>
+      <c r="AH3" s="65"/>
       <c r="AI3" s="16">
         <v>5</v>
       </c>
       <c r="AJ3" s="15">
         <v>6</v>
       </c>
-      <c r="AK3" s="68">
+      <c r="AK3" s="66">
         <v>7</v>
       </c>
-      <c r="AL3" s="69"/>
+      <c r="AL3" s="63"/>
       <c r="AM3" s="15">
         <v>8</v>
       </c>
-      <c r="AN3" s="68">
+      <c r="AN3" s="66">
         <v>9</v>
       </c>
-      <c r="AO3" s="71"/>
-      <c r="AP3" s="69"/>
+      <c r="AO3" s="62"/>
+      <c r="AP3" s="63"/>
       <c r="AQ3" s="15">
         <v>10</v>
       </c>
-      <c r="AR3" s="68">
+      <c r="AR3" s="66">
         <v>11</v>
       </c>
-      <c r="AS3" s="69"/>
+      <c r="AS3" s="63"/>
       <c r="AT3" s="15">
         <v>12</v>
       </c>
-      <c r="AU3" s="68">
+      <c r="AU3" s="66">
         <v>13</v>
       </c>
-      <c r="AV3" s="69"/>
+      <c r="AV3" s="63"/>
       <c r="AW3" s="15">
         <v>14</v>
       </c>
@@ -2669,7 +2966,7 @@
       <c r="AY3" s="15">
         <v>16</v>
       </c>
-      <c r="AZ3" s="70">
+      <c r="AZ3" s="72">
         <v>17</v>
       </c>
       <c r="BA3" s="53"/>
@@ -2682,23 +2979,23 @@
       <c r="BD3" s="15">
         <v>20</v>
       </c>
-      <c r="BE3" s="70">
+      <c r="BE3" s="72">
         <v>21</v>
       </c>
       <c r="BF3" s="53"/>
-      <c r="BG3" s="65">
+      <c r="BG3" s="70">
         <v>22</v>
       </c>
       <c r="BH3" s="53"/>
       <c r="BI3" s="16">
         <v>23</v>
       </c>
-      <c r="BJ3" s="65">
+      <c r="BJ3" s="70">
         <v>24</v>
       </c>
       <c r="BK3" s="53"/>
       <c r="BL3" s="53"/>
-      <c r="BM3" s="70">
+      <c r="BM3" s="72">
         <v>25</v>
       </c>
       <c r="BN3" s="53"/>
@@ -2708,7 +3005,7 @@
       <c r="BP3" s="16">
         <v>27</v>
       </c>
-      <c r="BQ3" s="64">
+      <c r="BQ3" s="69">
         <v>28</v>
       </c>
       <c r="BR3" s="53"/>
@@ -2721,18 +3018,18 @@
       <c r="BU3" s="17">
         <v>31</v>
       </c>
-      <c r="BV3" s="65">
+      <c r="BV3" s="70">
         <v>32</v>
       </c>
       <c r="BW3" s="53"/>
       <c r="BX3" s="16">
         <v>33</v>
       </c>
-      <c r="BY3" s="65">
+      <c r="BY3" s="70">
         <v>34</v>
       </c>
       <c r="BZ3" s="53"/>
-      <c r="CA3" s="66">
+      <c r="CA3" s="71">
         <v>35</v>
       </c>
       <c r="CB3" s="53"/>
@@ -2742,18 +3039,18 @@
       <c r="CD3" s="20">
         <v>37</v>
       </c>
-      <c r="CE3" s="67">
+      <c r="CE3" s="80">
         <v>38</v>
       </c>
       <c r="CF3" s="53"/>
       <c r="CG3" s="21">
         <v>39</v>
       </c>
-      <c r="CH3" s="67">
+      <c r="CH3" s="80">
         <v>40</v>
       </c>
       <c r="CI3" s="53"/>
-      <c r="CJ3" s="58">
+      <c r="CJ3" s="78">
         <v>41</v>
       </c>
       <c r="CK3" s="53"/>
@@ -2766,21 +3063,21 @@
       <c r="CN3" s="22">
         <v>44</v>
       </c>
-      <c r="CO3" s="58">
+      <c r="CO3" s="78">
         <v>45</v>
       </c>
       <c r="CP3" s="53"/>
       <c r="CQ3" s="22">
         <v>46</v>
       </c>
-      <c r="CR3" s="59">
+      <c r="CR3" s="79">
         <v>47</v>
       </c>
       <c r="CS3" s="53"/>
       <c r="CT3" s="21">
         <v>48</v>
       </c>
-      <c r="CU3" s="59">
+      <c r="CU3" s="79">
         <v>49</v>
       </c>
       <c r="CV3" s="53"/>
@@ -2789,57 +3086,57 @@
       <c r="Y4" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="Z4" s="60" t="s">
+      <c r="Z4" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="AA4" s="60"/>
-      <c r="AB4" s="60"/>
-      <c r="AC4" s="60" t="s">
+      <c r="AA4" s="73"/>
+      <c r="AB4" s="73"/>
+      <c r="AC4" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="AD4" s="60"/>
+      <c r="AD4" s="73"/>
       <c r="AE4" s="23" t="s">
         <v>115</v>
       </c>
       <c r="AF4" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="AG4" s="61" t="s">
+      <c r="AG4" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="AH4" s="62"/>
+      <c r="AH4" s="75"/>
       <c r="AI4" s="20" t="s">
         <v>118</v>
       </c>
       <c r="AJ4" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="AK4" s="56" t="s">
+      <c r="AK4" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="AL4" s="57"/>
+      <c r="AL4" s="68"/>
       <c r="AM4" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AN4" s="56" t="s">
+      <c r="AN4" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="AO4" s="63"/>
-      <c r="AP4" s="57"/>
+      <c r="AO4" s="76"/>
+      <c r="AP4" s="68"/>
       <c r="AQ4" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="AR4" s="56" t="s">
+      <c r="AR4" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="AS4" s="57"/>
+      <c r="AS4" s="68"/>
       <c r="AT4" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="AU4" s="56" t="s">
+      <c r="AU4" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="AV4" s="57"/>
+      <c r="AV4" s="68"/>
       <c r="AW4" s="19" t="s">
         <v>127</v>
       </c>
@@ -2849,7 +3146,7 @@
       <c r="AY4" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="AZ4" s="52" t="s">
+      <c r="AZ4" s="77" t="s">
         <v>130</v>
       </c>
       <c r="BA4" s="53"/>
@@ -2862,23 +3159,23 @@
       <c r="BD4" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="BE4" s="52" t="s">
+      <c r="BE4" s="77" t="s">
         <v>134</v>
       </c>
       <c r="BF4" s="53"/>
-      <c r="BG4" s="55" t="s">
+      <c r="BG4" s="81" t="s">
         <v>135</v>
       </c>
       <c r="BH4" s="53"/>
       <c r="BI4" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="BJ4" s="55" t="s">
+      <c r="BJ4" s="81" t="s">
         <v>137</v>
       </c>
       <c r="BK4" s="53"/>
       <c r="BL4" s="53"/>
-      <c r="BM4" s="52" t="s">
+      <c r="BM4" s="77" t="s">
         <v>138</v>
       </c>
       <c r="BN4" s="53"/>
@@ -2888,7 +3185,7 @@
       <c r="BP4" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="BQ4" s="55" t="s">
+      <c r="BQ4" s="81" t="s">
         <v>141</v>
       </c>
       <c r="BR4" s="53"/>
@@ -2901,18 +3198,18 @@
       <c r="BU4" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="BV4" s="55" t="s">
+      <c r="BV4" s="81" t="s">
         <v>143</v>
       </c>
       <c r="BW4" s="53"/>
       <c r="BX4" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="BY4" s="55" t="s">
+      <c r="BY4" s="81" t="s">
         <v>145</v>
       </c>
       <c r="BZ4" s="53"/>
-      <c r="CA4" s="52" t="s">
+      <c r="CA4" s="77" t="s">
         <v>146</v>
       </c>
       <c r="CB4" s="53"/>
@@ -2922,18 +3219,18 @@
       <c r="CD4" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="CE4" s="55" t="s">
+      <c r="CE4" s="81" t="s">
         <v>149</v>
       </c>
       <c r="CF4" s="53"/>
       <c r="CG4" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="CH4" s="55" t="s">
+      <c r="CH4" s="81" t="s">
         <v>151</v>
       </c>
       <c r="CI4" s="53"/>
-      <c r="CJ4" s="52" t="s">
+      <c r="CJ4" s="77" t="s">
         <v>152</v>
       </c>
       <c r="CK4" s="53"/>
@@ -2946,21 +3243,21 @@
       <c r="CN4" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="CO4" s="52" t="s">
+      <c r="CO4" s="77" t="s">
         <v>153</v>
       </c>
       <c r="CP4" s="53"/>
       <c r="CQ4" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="CR4" s="54" t="s">
+      <c r="CR4" s="82" t="s">
         <v>155</v>
       </c>
       <c r="CS4" s="53"/>
       <c r="CT4" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="CU4" s="54" t="s">
+      <c r="CU4" s="82" t="s">
         <v>157</v>
       </c>
       <c r="CV4" s="53"/>
@@ -3281,6 +3578,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="CU4:CV4"/>
+    <mergeCell ref="BQ4:BR4"/>
+    <mergeCell ref="BV4:BW4"/>
+    <mergeCell ref="BY4:BZ4"/>
+    <mergeCell ref="CA4:CB4"/>
+    <mergeCell ref="CE4:CF4"/>
+    <mergeCell ref="CH4:CI4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="BJ4:BL4"/>
+    <mergeCell ref="CJ4:CK4"/>
+    <mergeCell ref="CO4:CP4"/>
+    <mergeCell ref="CR4:CS4"/>
+    <mergeCell ref="CJ3:CK3"/>
+    <mergeCell ref="CO3:CP3"/>
+    <mergeCell ref="CR3:CS3"/>
+    <mergeCell ref="CU3:CV3"/>
+    <mergeCell ref="CE3:CF3"/>
+    <mergeCell ref="CH3:CI3"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BV3:BW3"/>
+    <mergeCell ref="BY3:BZ3"/>
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AZ3:BA3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BJ3:BL3"/>
+    <mergeCell ref="BM3:BN3"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="CU2:CV2"/>
     <mergeCell ref="AZ1:BU1"/>
     <mergeCell ref="BV1:CN1"/>
@@ -3297,50 +3638,6 @@
     <mergeCell ref="CE2:CI2"/>
     <mergeCell ref="CJ2:CN2"/>
     <mergeCell ref="CO2:CT2"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BV3:BW3"/>
-    <mergeCell ref="BY3:BZ3"/>
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AZ3:BA3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BJ3:BL3"/>
-    <mergeCell ref="BM3:BN3"/>
-    <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AN4:AP4"/>
-    <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="CJ3:CK3"/>
-    <mergeCell ref="CO3:CP3"/>
-    <mergeCell ref="CR3:CS3"/>
-    <mergeCell ref="CU3:CV3"/>
-    <mergeCell ref="CE3:CF3"/>
-    <mergeCell ref="CH3:CI3"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="BJ4:BL4"/>
-    <mergeCell ref="CJ4:CK4"/>
-    <mergeCell ref="CO4:CP4"/>
-    <mergeCell ref="CR4:CS4"/>
-    <mergeCell ref="CU4:CV4"/>
-    <mergeCell ref="BQ4:BR4"/>
-    <mergeCell ref="BV4:BW4"/>
-    <mergeCell ref="BY4:BZ4"/>
-    <mergeCell ref="CA4:CB4"/>
-    <mergeCell ref="CE4:CF4"/>
-    <mergeCell ref="CH4:CI4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3365,7 +3662,7 @@
       </c>
       <c r="AA1" s="11"/>
       <c r="AB1" s="11"/>
-      <c r="AC1" s="91" t="s">
+      <c r="AC1" s="83" t="s">
         <v>102</v>
       </c>
       <c r="AD1" s="84"/>
@@ -3387,7 +3684,7 @@
       <c r="AT1" s="84"/>
       <c r="AU1" s="84"/>
       <c r="AV1" s="84"/>
-      <c r="AW1" s="92" t="s">
+      <c r="AW1" s="85" t="s">
         <v>103</v>
       </c>
       <c r="AX1" s="84"/>
@@ -3404,7 +3701,7 @@
       <c r="BI1" s="84"/>
       <c r="BJ1" s="84"/>
       <c r="BK1" s="84"/>
-      <c r="BL1" s="93" t="s">
+      <c r="BL1" s="86" t="s">
         <v>104</v>
       </c>
       <c r="BM1" s="84"/>
@@ -3423,7 +3720,7 @@
       <c r="BZ1" s="84"/>
       <c r="CA1" s="84"/>
       <c r="CB1" s="84"/>
-      <c r="CC1" s="94" t="s">
+      <c r="CC1" s="87" t="s">
         <v>206</v>
       </c>
       <c r="CD1" s="84"/>
@@ -3445,27 +3742,27 @@
       </c>
       <c r="AA2" s="13"/>
       <c r="AB2" s="13"/>
-      <c r="AC2" s="95" t="s">
+      <c r="AC2" s="88" t="s">
         <v>107</v>
       </c>
       <c r="AD2" s="84"/>
       <c r="AE2" s="84"/>
       <c r="AF2" s="84"/>
       <c r="AG2" s="84"/>
-      <c r="AH2" s="90" t="s">
+      <c r="AH2" s="89" t="s">
         <v>108</v>
       </c>
       <c r="AI2" s="84"/>
       <c r="AJ2" s="84"/>
       <c r="AK2" s="84"/>
-      <c r="AL2" s="90" t="s">
+      <c r="AL2" s="89" t="s">
         <v>109</v>
       </c>
       <c r="AM2" s="84"/>
       <c r="AN2" s="84"/>
       <c r="AO2" s="84"/>
       <c r="AP2" s="84"/>
-      <c r="AQ2" s="90" t="s">
+      <c r="AQ2" s="89" t="s">
         <v>207</v>
       </c>
       <c r="AR2" s="84"/>
@@ -3473,55 +3770,55 @@
       <c r="AT2" s="84"/>
       <c r="AU2" s="84"/>
       <c r="AV2" s="84"/>
-      <c r="AW2" s="90" t="s">
+      <c r="AW2" s="89" t="s">
         <v>208</v>
       </c>
       <c r="AX2" s="84"/>
       <c r="AY2" s="84"/>
       <c r="AZ2" s="84"/>
       <c r="BA2" s="84"/>
-      <c r="BB2" s="90" t="s">
+      <c r="BB2" s="89" t="s">
         <v>209</v>
       </c>
       <c r="BC2" s="84"/>
       <c r="BD2" s="84"/>
-      <c r="BE2" s="90" t="s">
+      <c r="BE2" s="89" t="s">
         <v>109</v>
       </c>
       <c r="BF2" s="84"/>
-      <c r="BG2" s="90" t="s">
+      <c r="BG2" s="89" t="s">
         <v>110</v>
       </c>
       <c r="BH2" s="84"/>
       <c r="BI2" s="84"/>
       <c r="BJ2" s="84"/>
       <c r="BK2" s="84"/>
-      <c r="BL2" s="90" t="s">
+      <c r="BL2" s="89" t="s">
         <v>210</v>
       </c>
       <c r="BM2" s="84"/>
       <c r="BN2" s="84"/>
       <c r="BO2" s="84"/>
-      <c r="BP2" s="90" t="s">
+      <c r="BP2" s="89" t="s">
         <v>209</v>
       </c>
       <c r="BQ2" s="84"/>
       <c r="BR2" s="84"/>
       <c r="BS2" s="84"/>
-      <c r="BT2" s="90" t="s">
+      <c r="BT2" s="89" t="s">
         <v>211</v>
       </c>
       <c r="BU2" s="84"/>
       <c r="BV2" s="84"/>
       <c r="BW2" s="84"/>
-      <c r="BX2" s="90" t="s">
+      <c r="BX2" s="89" t="s">
         <v>212</v>
       </c>
       <c r="BY2" s="84"/>
       <c r="BZ2" s="84"/>
       <c r="CA2" s="84"/>
       <c r="CB2" s="84"/>
-      <c r="CC2" s="90" t="s">
+      <c r="CC2" s="89" t="s">
         <v>107</v>
       </c>
       <c r="CD2" s="84"/>
@@ -3530,7 +3827,7 @@
       <c r="CG2" s="84"/>
       <c r="CH2" s="84"/>
       <c r="CI2" s="84"/>
-      <c r="CJ2" s="90" t="s">
+      <c r="CJ2" s="89" t="s">
         <v>209</v>
       </c>
       <c r="CK2" s="84"/>
@@ -3540,11 +3837,11 @@
       <c r="Y3" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="Z3" s="71">
+      <c r="Z3" s="62">
         <v>0</v>
       </c>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="71"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
       <c r="AC3" s="26">
         <v>1</v>
       </c>
@@ -3560,7 +3857,7 @@
       <c r="AG3" s="27">
         <v>5</v>
       </c>
-      <c r="AH3" s="88">
+      <c r="AH3" s="90">
         <v>6</v>
       </c>
       <c r="AI3" s="84"/>
@@ -3570,11 +3867,11 @@
       <c r="AK3" s="27">
         <v>8</v>
       </c>
-      <c r="AL3" s="88">
+      <c r="AL3" s="90">
         <v>9</v>
       </c>
       <c r="AM3" s="84"/>
-      <c r="AN3" s="88">
+      <c r="AN3" s="90">
         <v>10</v>
       </c>
       <c r="AO3" s="84"/>
@@ -3584,7 +3881,7 @@
       <c r="AQ3" s="27">
         <v>12</v>
       </c>
-      <c r="AR3" s="88">
+      <c r="AR3" s="90">
         <v>13</v>
       </c>
       <c r="AS3" s="84"/>
@@ -3600,7 +3897,7 @@
       <c r="AW3" s="27">
         <v>17</v>
       </c>
-      <c r="AX3" s="88">
+      <c r="AX3" s="90">
         <v>18</v>
       </c>
       <c r="AY3" s="84"/>
@@ -3610,7 +3907,7 @@
       <c r="BA3" s="27">
         <v>20</v>
       </c>
-      <c r="BB3" s="88">
+      <c r="BB3" s="90">
         <v>21</v>
       </c>
       <c r="BC3" s="84"/>
@@ -3623,7 +3920,7 @@
       <c r="BF3" s="27">
         <v>24</v>
       </c>
-      <c r="BG3" s="88">
+      <c r="BG3" s="90">
         <v>25</v>
       </c>
       <c r="BH3" s="84"/>
@@ -3636,15 +3933,15 @@
       <c r="BK3" s="27">
         <v>28</v>
       </c>
-      <c r="BL3" s="88">
+      <c r="BL3" s="90">
         <v>29</v>
       </c>
       <c r="BM3" s="84"/>
-      <c r="BN3" s="88">
+      <c r="BN3" s="90">
         <v>30</v>
       </c>
       <c r="BO3" s="84"/>
-      <c r="BP3" s="88">
+      <c r="BP3" s="90">
         <v>31</v>
       </c>
       <c r="BQ3" s="84"/>
@@ -3652,15 +3949,15 @@
       <c r="BS3" s="27">
         <v>32</v>
       </c>
-      <c r="BT3" s="88">
+      <c r="BT3" s="90">
         <v>33</v>
       </c>
       <c r="BU3" s="84"/>
-      <c r="BV3" s="88">
+      <c r="BV3" s="90">
         <v>34</v>
       </c>
       <c r="BW3" s="84"/>
-      <c r="BX3" s="88">
+      <c r="BX3" s="90">
         <v>35</v>
       </c>
       <c r="BY3" s="84"/>
@@ -3673,7 +3970,7 @@
       <c r="CB3" s="27">
         <v>38</v>
       </c>
-      <c r="CC3" s="88">
+      <c r="CC3" s="90">
         <v>39</v>
       </c>
       <c r="CD3" s="84"/>
@@ -3684,11 +3981,11 @@
       <c r="CG3" s="27">
         <v>41</v>
       </c>
-      <c r="CH3" s="88">
+      <c r="CH3" s="90">
         <v>42</v>
       </c>
       <c r="CI3" s="84"/>
-      <c r="CJ3" s="88">
+      <c r="CJ3" s="90">
         <v>43</v>
       </c>
       <c r="CK3" s="84"/>
@@ -3698,11 +3995,11 @@
       <c r="Y4" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="Z4" s="60" t="s">
+      <c r="Z4" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="AA4" s="60"/>
-      <c r="AB4" s="60"/>
+      <c r="AA4" s="73"/>
+      <c r="AB4" s="73"/>
       <c r="AC4" s="28" t="s">
         <v>213</v>
       </c>
@@ -3718,7 +4015,7 @@
       <c r="AG4" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="AH4" s="86" t="s">
+      <c r="AH4" s="91" t="s">
         <v>218</v>
       </c>
       <c r="AI4" s="84"/>
@@ -3728,11 +4025,11 @@
       <c r="AK4" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="AL4" s="85" t="s">
+      <c r="AL4" s="92" t="s">
         <v>221</v>
       </c>
       <c r="AM4" s="84"/>
-      <c r="AN4" s="86" t="s">
+      <c r="AN4" s="91" t="s">
         <v>222</v>
       </c>
       <c r="AO4" s="84"/>
@@ -3742,7 +4039,7 @@
       <c r="AQ4" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="AR4" s="89" t="s">
+      <c r="AR4" s="93" t="s">
         <v>126</v>
       </c>
       <c r="AS4" s="84"/>
@@ -3758,7 +4055,7 @@
       <c r="AW4" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="AX4" s="86" t="s">
+      <c r="AX4" s="91" t="s">
         <v>229</v>
       </c>
       <c r="AY4" s="84"/>
@@ -3768,7 +4065,7 @@
       <c r="BA4" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="BB4" s="85" t="s">
+      <c r="BB4" s="92" t="s">
         <v>232</v>
       </c>
       <c r="BC4" s="84"/>
@@ -3781,7 +4078,7 @@
       <c r="BF4" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="BG4" s="83" t="s">
+      <c r="BG4" s="94" t="s">
         <v>236</v>
       </c>
       <c r="BH4" s="84"/>
@@ -3794,15 +4091,15 @@
       <c r="BK4" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="BL4" s="83" t="s">
+      <c r="BL4" s="94" t="s">
         <v>240</v>
       </c>
       <c r="BM4" s="84"/>
-      <c r="BN4" s="86" t="s">
+      <c r="BN4" s="91" t="s">
         <v>241</v>
       </c>
       <c r="BO4" s="84"/>
-      <c r="BP4" s="85" t="s">
+      <c r="BP4" s="92" t="s">
         <v>242</v>
       </c>
       <c r="BQ4" s="84"/>
@@ -3810,15 +4107,15 @@
       <c r="BS4" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="BT4" s="85" t="s">
+      <c r="BT4" s="92" t="s">
         <v>244</v>
       </c>
       <c r="BU4" s="84"/>
-      <c r="BV4" s="87" t="s">
+      <c r="BV4" s="95" t="s">
         <v>245</v>
       </c>
       <c r="BW4" s="84"/>
-      <c r="BX4" s="83" t="s">
+      <c r="BX4" s="94" t="s">
         <v>246</v>
       </c>
       <c r="BY4" s="84"/>
@@ -3831,7 +4128,7 @@
       <c r="CB4" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="CC4" s="85" t="s">
+      <c r="CC4" s="92" t="s">
         <v>250</v>
       </c>
       <c r="CD4" s="84"/>
@@ -3842,11 +4139,11 @@
       <c r="CG4" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="CH4" s="86" t="s">
+      <c r="CH4" s="91" t="s">
         <v>253</v>
       </c>
       <c r="CI4" s="84"/>
-      <c r="CJ4" s="85" t="s">
+      <c r="CJ4" s="92" t="s">
         <v>254</v>
       </c>
       <c r="CK4" s="84"/>
@@ -4138,32 +4435,16 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AC1:AV1"/>
-    <mergeCell ref="AW1:BK1"/>
-    <mergeCell ref="BL1:CB1"/>
-    <mergeCell ref="CC1:CL1"/>
-    <mergeCell ref="AC2:AG2"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="AL2:AP2"/>
-    <mergeCell ref="AQ2:AV2"/>
-    <mergeCell ref="AW2:BA2"/>
-    <mergeCell ref="BB2:BD2"/>
-    <mergeCell ref="CC2:CI2"/>
-    <mergeCell ref="CJ2:CL2"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="AX3:AY3"/>
-    <mergeCell ref="BB3:BC3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="BG2:BK2"/>
-    <mergeCell ref="BL2:BO2"/>
-    <mergeCell ref="BP2:BS2"/>
-    <mergeCell ref="BT2:BW2"/>
-    <mergeCell ref="BX2:CB2"/>
+    <mergeCell ref="BX4:BY4"/>
+    <mergeCell ref="CC4:CE4"/>
+    <mergeCell ref="CH4:CI4"/>
+    <mergeCell ref="CJ4:CL4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="BL4:BM4"/>
+    <mergeCell ref="BN4:BO4"/>
+    <mergeCell ref="BP4:BR4"/>
+    <mergeCell ref="BT4:BU4"/>
+    <mergeCell ref="BV4:BW4"/>
     <mergeCell ref="CC3:CE3"/>
     <mergeCell ref="CH3:CI3"/>
     <mergeCell ref="CJ3:CL3"/>
@@ -4180,16 +4461,32 @@
     <mergeCell ref="BT3:BU3"/>
     <mergeCell ref="BV3:BW3"/>
     <mergeCell ref="BX3:BY3"/>
-    <mergeCell ref="BX4:BY4"/>
-    <mergeCell ref="CC4:CE4"/>
-    <mergeCell ref="CH4:CI4"/>
-    <mergeCell ref="CJ4:CL4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="BL4:BM4"/>
-    <mergeCell ref="BN4:BO4"/>
-    <mergeCell ref="BP4:BR4"/>
-    <mergeCell ref="BT4:BU4"/>
-    <mergeCell ref="BV4:BW4"/>
+    <mergeCell ref="AX3:AY3"/>
+    <mergeCell ref="BB3:BC3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="BG2:BK2"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="AC1:AV1"/>
+    <mergeCell ref="AW1:BK1"/>
+    <mergeCell ref="BL1:CB1"/>
+    <mergeCell ref="CC1:CL1"/>
+    <mergeCell ref="AC2:AG2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="AL2:AP2"/>
+    <mergeCell ref="AQ2:AV2"/>
+    <mergeCell ref="AW2:BA2"/>
+    <mergeCell ref="BB2:BD2"/>
+    <mergeCell ref="CC2:CI2"/>
+    <mergeCell ref="CJ2:CL2"/>
+    <mergeCell ref="BL2:BO2"/>
+    <mergeCell ref="BP2:BS2"/>
+    <mergeCell ref="BT2:BW2"/>
+    <mergeCell ref="BX2:CB2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4214,71 +4511,71 @@
       </c>
       <c r="AA1" s="11"/>
       <c r="AB1" s="11"/>
-      <c r="AC1" s="108">
+      <c r="AC1" s="96">
         <v>1</v>
       </c>
-      <c r="AD1" s="101"/>
-      <c r="AE1" s="101"/>
-      <c r="AF1" s="101"/>
-      <c r="AG1" s="101"/>
-      <c r="AH1" s="101"/>
-      <c r="AI1" s="101"/>
-      <c r="AJ1" s="101"/>
-      <c r="AK1" s="101"/>
-      <c r="AL1" s="101"/>
-      <c r="AM1" s="101"/>
-      <c r="AN1" s="101"/>
-      <c r="AO1" s="101"/>
-      <c r="AP1" s="101"/>
-      <c r="AQ1" s="101"/>
-      <c r="AR1" s="101"/>
-      <c r="AS1" s="101"/>
-      <c r="AT1" s="101"/>
-      <c r="AU1" s="101"/>
-      <c r="AV1" s="101"/>
-      <c r="AW1" s="101"/>
-      <c r="AX1" s="101"/>
-      <c r="AY1" s="101"/>
-      <c r="AZ1" s="109">
+      <c r="AD1" s="97"/>
+      <c r="AE1" s="97"/>
+      <c r="AF1" s="97"/>
+      <c r="AG1" s="97"/>
+      <c r="AH1" s="97"/>
+      <c r="AI1" s="97"/>
+      <c r="AJ1" s="97"/>
+      <c r="AK1" s="97"/>
+      <c r="AL1" s="97"/>
+      <c r="AM1" s="97"/>
+      <c r="AN1" s="97"/>
+      <c r="AO1" s="97"/>
+      <c r="AP1" s="97"/>
+      <c r="AQ1" s="97"/>
+      <c r="AR1" s="97"/>
+      <c r="AS1" s="97"/>
+      <c r="AT1" s="97"/>
+      <c r="AU1" s="97"/>
+      <c r="AV1" s="97"/>
+      <c r="AW1" s="97"/>
+      <c r="AX1" s="97"/>
+      <c r="AY1" s="97"/>
+      <c r="AZ1" s="98">
         <v>2</v>
       </c>
-      <c r="BA1" s="101"/>
-      <c r="BB1" s="101"/>
-      <c r="BC1" s="101"/>
-      <c r="BD1" s="101"/>
-      <c r="BE1" s="101"/>
-      <c r="BF1" s="101"/>
-      <c r="BG1" s="101"/>
-      <c r="BH1" s="101"/>
-      <c r="BI1" s="101"/>
-      <c r="BJ1" s="101"/>
-      <c r="BK1" s="110">
+      <c r="BA1" s="97"/>
+      <c r="BB1" s="97"/>
+      <c r="BC1" s="97"/>
+      <c r="BD1" s="97"/>
+      <c r="BE1" s="97"/>
+      <c r="BF1" s="97"/>
+      <c r="BG1" s="97"/>
+      <c r="BH1" s="97"/>
+      <c r="BI1" s="97"/>
+      <c r="BJ1" s="97"/>
+      <c r="BK1" s="99">
         <v>3</v>
       </c>
-      <c r="BL1" s="101"/>
-      <c r="BM1" s="101"/>
-      <c r="BN1" s="101"/>
-      <c r="BO1" s="101"/>
-      <c r="BP1" s="101"/>
-      <c r="BQ1" s="101"/>
-      <c r="BR1" s="101"/>
-      <c r="BS1" s="101"/>
-      <c r="BT1" s="101"/>
-      <c r="BU1" s="101"/>
-      <c r="BV1" s="101"/>
-      <c r="BW1" s="101"/>
-      <c r="BX1" s="101"/>
-      <c r="BY1" s="101"/>
-      <c r="BZ1" s="101"/>
-      <c r="CA1" s="101"/>
-      <c r="CB1" s="111" t="s">
+      <c r="BL1" s="97"/>
+      <c r="BM1" s="97"/>
+      <c r="BN1" s="97"/>
+      <c r="BO1" s="97"/>
+      <c r="BP1" s="97"/>
+      <c r="BQ1" s="97"/>
+      <c r="BR1" s="97"/>
+      <c r="BS1" s="97"/>
+      <c r="BT1" s="97"/>
+      <c r="BU1" s="97"/>
+      <c r="BV1" s="97"/>
+      <c r="BW1" s="97"/>
+      <c r="BX1" s="97"/>
+      <c r="BY1" s="97"/>
+      <c r="BZ1" s="97"/>
+      <c r="CA1" s="97"/>
+      <c r="CB1" s="100" t="s">
         <v>206</v>
       </c>
-      <c r="CC1" s="101"/>
-      <c r="CD1" s="101"/>
-      <c r="CE1" s="101"/>
-      <c r="CF1" s="101"/>
-      <c r="CG1" s="101"/>
+      <c r="CC1" s="97"/>
+      <c r="CD1" s="97"/>
+      <c r="CE1" s="97"/>
+      <c r="CF1" s="97"/>
+      <c r="CG1" s="97"/>
     </row>
     <row r="2" spans="1:89" ht="16.5">
       <c r="Y2" s="5" t="s">
@@ -4289,217 +4586,217 @@
       </c>
       <c r="AA2" s="13"/>
       <c r="AB2" s="13"/>
-      <c r="AC2" s="112">
+      <c r="AC2" s="101">
         <v>1</v>
       </c>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="101"/>
-      <c r="AF2" s="106">
+      <c r="AD2" s="97"/>
+      <c r="AE2" s="97"/>
+      <c r="AF2" s="102">
         <v>2</v>
       </c>
-      <c r="AG2" s="101"/>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="105">
+      <c r="AG2" s="97"/>
+      <c r="AH2" s="97"/>
+      <c r="AI2" s="103">
         <v>3</v>
       </c>
-      <c r="AJ2" s="101"/>
-      <c r="AK2" s="101"/>
-      <c r="AL2" s="101"/>
-      <c r="AM2" s="106">
+      <c r="AJ2" s="97"/>
+      <c r="AK2" s="97"/>
+      <c r="AL2" s="97"/>
+      <c r="AM2" s="102">
         <v>4</v>
       </c>
-      <c r="AN2" s="101"/>
-      <c r="AO2" s="101"/>
-      <c r="AP2" s="101"/>
-      <c r="AQ2" s="101"/>
-      <c r="AR2" s="105">
+      <c r="AN2" s="97"/>
+      <c r="AO2" s="97"/>
+      <c r="AP2" s="97"/>
+      <c r="AQ2" s="97"/>
+      <c r="AR2" s="103">
         <v>5</v>
       </c>
-      <c r="AS2" s="101"/>
-      <c r="AT2" s="101"/>
-      <c r="AU2" s="101"/>
-      <c r="AV2" s="106">
+      <c r="AS2" s="97"/>
+      <c r="AT2" s="97"/>
+      <c r="AU2" s="97"/>
+      <c r="AV2" s="102">
         <v>6</v>
       </c>
-      <c r="AW2" s="101"/>
-      <c r="AX2" s="101"/>
-      <c r="AY2" s="101"/>
-      <c r="AZ2" s="105">
+      <c r="AW2" s="97"/>
+      <c r="AX2" s="97"/>
+      <c r="AY2" s="97"/>
+      <c r="AZ2" s="103">
         <v>1</v>
       </c>
-      <c r="BA2" s="101"/>
-      <c r="BB2" s="101"/>
-      <c r="BC2" s="101"/>
-      <c r="BD2" s="101"/>
-      <c r="BE2" s="106">
+      <c r="BA2" s="97"/>
+      <c r="BB2" s="97"/>
+      <c r="BC2" s="97"/>
+      <c r="BD2" s="97"/>
+      <c r="BE2" s="102">
         <v>2</v>
       </c>
-      <c r="BF2" s="101"/>
-      <c r="BG2" s="101"/>
-      <c r="BH2" s="105">
+      <c r="BF2" s="97"/>
+      <c r="BG2" s="97"/>
+      <c r="BH2" s="103">
         <v>3</v>
       </c>
-      <c r="BI2" s="101"/>
-      <c r="BJ2" s="101"/>
-      <c r="BK2" s="106">
+      <c r="BI2" s="97"/>
+      <c r="BJ2" s="97"/>
+      <c r="BK2" s="102">
         <v>1</v>
       </c>
-      <c r="BL2" s="101"/>
-      <c r="BM2" s="101"/>
-      <c r="BN2" s="101"/>
-      <c r="BO2" s="105">
+      <c r="BL2" s="97"/>
+      <c r="BM2" s="97"/>
+      <c r="BN2" s="97"/>
+      <c r="BO2" s="103">
         <v>2</v>
       </c>
-      <c r="BP2" s="101"/>
-      <c r="BQ2" s="101"/>
-      <c r="BR2" s="101"/>
-      <c r="BS2" s="106">
+      <c r="BP2" s="97"/>
+      <c r="BQ2" s="97"/>
+      <c r="BR2" s="97"/>
+      <c r="BS2" s="102">
         <v>3</v>
       </c>
-      <c r="BT2" s="101"/>
-      <c r="BU2" s="101"/>
-      <c r="BV2" s="101"/>
-      <c r="BW2" s="101"/>
-      <c r="BX2" s="105">
+      <c r="BT2" s="97"/>
+      <c r="BU2" s="97"/>
+      <c r="BV2" s="97"/>
+      <c r="BW2" s="97"/>
+      <c r="BX2" s="103">
         <v>4</v>
       </c>
-      <c r="BY2" s="101"/>
-      <c r="BZ2" s="101"/>
-      <c r="CA2" s="101"/>
-      <c r="CB2" s="106">
+      <c r="BY2" s="97"/>
+      <c r="BZ2" s="97"/>
+      <c r="CA2" s="97"/>
+      <c r="CB2" s="102">
         <v>1</v>
       </c>
-      <c r="CC2" s="101"/>
-      <c r="CD2" s="101"/>
-      <c r="CE2" s="105">
+      <c r="CC2" s="97"/>
+      <c r="CD2" s="97"/>
+      <c r="CE2" s="103">
         <v>2</v>
       </c>
-      <c r="CF2" s="101"/>
-      <c r="CG2" s="101"/>
+      <c r="CF2" s="97"/>
+      <c r="CG2" s="97"/>
     </row>
     <row r="3" spans="1:89" ht="26.25" customHeight="1">
       <c r="Y3" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="Z3" s="71">
+      <c r="Z3" s="62">
         <v>0</v>
       </c>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="71"/>
-      <c r="AC3" s="107">
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="104">
         <v>1</v>
       </c>
-      <c r="AD3" s="101"/>
+      <c r="AD3" s="97"/>
       <c r="AE3" s="40">
         <v>2</v>
       </c>
-      <c r="AF3" s="102">
+      <c r="AF3" s="105">
         <v>3</v>
       </c>
-      <c r="AG3" s="101"/>
+      <c r="AG3" s="97"/>
       <c r="AH3" s="41">
         <v>4</v>
       </c>
-      <c r="AI3" s="99">
+      <c r="AI3" s="106">
         <v>5</v>
       </c>
-      <c r="AJ3" s="101"/>
-      <c r="AK3" s="101"/>
+      <c r="AJ3" s="97"/>
+      <c r="AK3" s="97"/>
       <c r="AL3" s="40">
         <v>6</v>
       </c>
-      <c r="AM3" s="104">
+      <c r="AM3" s="107">
         <v>7</v>
       </c>
-      <c r="AN3" s="101"/>
-      <c r="AO3" s="101"/>
-      <c r="AP3" s="104">
+      <c r="AN3" s="97"/>
+      <c r="AO3" s="97"/>
+      <c r="AP3" s="107">
         <v>8</v>
       </c>
-      <c r="AQ3" s="101"/>
-      <c r="AR3" s="99">
+      <c r="AQ3" s="97"/>
+      <c r="AR3" s="106">
         <v>9</v>
       </c>
-      <c r="AS3" s="101"/>
-      <c r="AT3" s="99">
+      <c r="AS3" s="97"/>
+      <c r="AT3" s="106">
         <v>10</v>
       </c>
-      <c r="AU3" s="101"/>
-      <c r="AV3" s="102">
+      <c r="AU3" s="97"/>
+      <c r="AV3" s="105">
         <v>11</v>
       </c>
-      <c r="AW3" s="101"/>
-      <c r="AX3" s="101"/>
+      <c r="AW3" s="97"/>
+      <c r="AX3" s="97"/>
       <c r="AY3" s="41">
         <v>12</v>
       </c>
-      <c r="AZ3" s="100">
+      <c r="AZ3" s="108">
         <v>13</v>
       </c>
-      <c r="BA3" s="101"/>
-      <c r="BB3" s="100">
+      <c r="BA3" s="97"/>
+      <c r="BB3" s="108">
         <v>14</v>
       </c>
-      <c r="BC3" s="101"/>
-      <c r="BD3" s="101"/>
-      <c r="BE3" s="102">
+      <c r="BC3" s="97"/>
+      <c r="BD3" s="97"/>
+      <c r="BE3" s="105">
         <v>15</v>
       </c>
-      <c r="BF3" s="101"/>
+      <c r="BF3" s="97"/>
       <c r="BG3" s="41">
         <v>16</v>
       </c>
-      <c r="BH3" s="100">
+      <c r="BH3" s="108">
         <v>17</v>
       </c>
-      <c r="BI3" s="101"/>
+      <c r="BI3" s="97"/>
       <c r="BJ3" s="40">
         <v>18</v>
       </c>
-      <c r="BK3" s="102">
+      <c r="BK3" s="105">
         <v>19</v>
       </c>
-      <c r="BL3" s="101"/>
-      <c r="BM3" s="101"/>
+      <c r="BL3" s="97"/>
+      <c r="BM3" s="97"/>
       <c r="BN3" s="41">
         <v>20</v>
       </c>
-      <c r="BO3" s="100">
+      <c r="BO3" s="108">
         <v>21</v>
       </c>
-      <c r="BP3" s="101"/>
-      <c r="BQ3" s="100">
+      <c r="BP3" s="97"/>
+      <c r="BQ3" s="108">
         <v>22</v>
       </c>
-      <c r="BR3" s="101"/>
-      <c r="BS3" s="102">
+      <c r="BR3" s="97"/>
+      <c r="BS3" s="105">
         <v>23</v>
       </c>
-      <c r="BT3" s="101"/>
-      <c r="BU3" s="101"/>
-      <c r="BV3" s="102">
+      <c r="BT3" s="97"/>
+      <c r="BU3" s="97"/>
+      <c r="BV3" s="105">
         <v>24</v>
       </c>
-      <c r="BW3" s="101"/>
-      <c r="BX3" s="100">
+      <c r="BW3" s="97"/>
+      <c r="BX3" s="108">
         <v>25</v>
       </c>
-      <c r="BY3" s="101"/>
-      <c r="BZ3" s="100">
+      <c r="BY3" s="97"/>
+      <c r="BZ3" s="108">
         <v>26</v>
       </c>
-      <c r="CA3" s="101"/>
-      <c r="CB3" s="102">
+      <c r="CA3" s="97"/>
+      <c r="CB3" s="105">
         <v>27</v>
       </c>
-      <c r="CC3" s="101"/>
+      <c r="CC3" s="97"/>
       <c r="CD3" s="41">
         <v>28</v>
       </c>
-      <c r="CE3" s="100">
+      <c r="CE3" s="108">
         <v>29</v>
       </c>
-      <c r="CF3" s="101"/>
+      <c r="CF3" s="97"/>
       <c r="CG3" s="42">
         <v>30</v>
       </c>
@@ -4508,125 +4805,125 @@
       <c r="Y4" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="Z4" s="60" t="s">
+      <c r="Z4" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="AA4" s="60"/>
-      <c r="AB4" s="60"/>
-      <c r="AC4" s="103" t="s">
+      <c r="AA4" s="73"/>
+      <c r="AB4" s="73"/>
+      <c r="AC4" s="111" t="s">
         <v>295</v>
       </c>
-      <c r="AD4" s="97"/>
+      <c r="AD4" s="110"/>
       <c r="AE4" s="43" t="s">
         <v>296</v>
       </c>
-      <c r="AF4" s="98" t="s">
+      <c r="AF4" s="112" t="s">
         <v>297</v>
       </c>
-      <c r="AG4" s="97"/>
+      <c r="AG4" s="110"/>
       <c r="AH4" s="44" t="s">
         <v>298</v>
       </c>
-      <c r="AI4" s="99" t="s">
+      <c r="AI4" s="106" t="s">
         <v>299</v>
       </c>
-      <c r="AJ4" s="97"/>
-      <c r="AK4" s="97"/>
+      <c r="AJ4" s="110"/>
+      <c r="AK4" s="110"/>
       <c r="AL4" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="AM4" s="104" t="s">
+      <c r="AM4" s="107" t="s">
         <v>301</v>
       </c>
-      <c r="AN4" s="97"/>
-      <c r="AO4" s="97"/>
-      <c r="AP4" s="104" t="s">
+      <c r="AN4" s="110"/>
+      <c r="AO4" s="110"/>
+      <c r="AP4" s="107" t="s">
         <v>302</v>
       </c>
-      <c r="AQ4" s="97"/>
-      <c r="AR4" s="99" t="s">
+      <c r="AQ4" s="110"/>
+      <c r="AR4" s="106" t="s">
         <v>303</v>
       </c>
-      <c r="AS4" s="97"/>
-      <c r="AT4" s="99" t="s">
+      <c r="AS4" s="110"/>
+      <c r="AT4" s="106" t="s">
         <v>304</v>
       </c>
-      <c r="AU4" s="97"/>
-      <c r="AV4" s="98" t="s">
+      <c r="AU4" s="110"/>
+      <c r="AV4" s="112" t="s">
         <v>305</v>
       </c>
-      <c r="AW4" s="97"/>
-      <c r="AX4" s="97"/>
+      <c r="AW4" s="110"/>
+      <c r="AX4" s="110"/>
       <c r="AY4" s="44" t="s">
         <v>306</v>
       </c>
-      <c r="AZ4" s="96" t="s">
+      <c r="AZ4" s="109" t="s">
         <v>307</v>
       </c>
-      <c r="BA4" s="97"/>
-      <c r="BB4" s="96" t="s">
+      <c r="BA4" s="110"/>
+      <c r="BB4" s="109" t="s">
         <v>308</v>
       </c>
-      <c r="BC4" s="97"/>
-      <c r="BD4" s="97"/>
-      <c r="BE4" s="98" t="s">
+      <c r="BC4" s="110"/>
+      <c r="BD4" s="110"/>
+      <c r="BE4" s="112" t="s">
         <v>309</v>
       </c>
-      <c r="BF4" s="97"/>
+      <c r="BF4" s="110"/>
       <c r="BG4" s="44" t="s">
         <v>310</v>
       </c>
-      <c r="BH4" s="96" t="s">
+      <c r="BH4" s="109" t="s">
         <v>311</v>
       </c>
-      <c r="BI4" s="97"/>
+      <c r="BI4" s="110"/>
       <c r="BJ4" s="45" t="s">
         <v>312</v>
       </c>
-      <c r="BK4" s="98" t="s">
+      <c r="BK4" s="112" t="s">
         <v>313</v>
       </c>
-      <c r="BL4" s="97"/>
-      <c r="BM4" s="97"/>
+      <c r="BL4" s="110"/>
+      <c r="BM4" s="110"/>
       <c r="BN4" s="44" t="s">
         <v>314</v>
       </c>
-      <c r="BO4" s="96" t="s">
+      <c r="BO4" s="109" t="s">
         <v>315</v>
       </c>
-      <c r="BP4" s="97"/>
-      <c r="BQ4" s="96" t="s">
+      <c r="BP4" s="110"/>
+      <c r="BQ4" s="109" t="s">
         <v>316</v>
       </c>
-      <c r="BR4" s="97"/>
-      <c r="BS4" s="98" t="s">
+      <c r="BR4" s="110"/>
+      <c r="BS4" s="112" t="s">
         <v>317</v>
       </c>
-      <c r="BT4" s="97"/>
-      <c r="BU4" s="97"/>
-      <c r="BV4" s="98" t="s">
+      <c r="BT4" s="110"/>
+      <c r="BU4" s="110"/>
+      <c r="BV4" s="112" t="s">
         <v>318</v>
       </c>
-      <c r="BW4" s="97"/>
-      <c r="BX4" s="96" t="s">
+      <c r="BW4" s="110"/>
+      <c r="BX4" s="109" t="s">
         <v>319</v>
       </c>
-      <c r="BY4" s="97"/>
-      <c r="BZ4" s="96" t="s">
+      <c r="BY4" s="110"/>
+      <c r="BZ4" s="109" t="s">
         <v>320</v>
       </c>
-      <c r="CA4" s="97"/>
-      <c r="CB4" s="98" t="s">
+      <c r="CA4" s="110"/>
+      <c r="CB4" s="112" t="s">
         <v>321</v>
       </c>
-      <c r="CC4" s="97"/>
+      <c r="CC4" s="110"/>
       <c r="CD4" s="44" t="s">
         <v>322</v>
       </c>
-      <c r="CE4" s="96" t="s">
+      <c r="CE4" s="109" t="s">
         <v>323</v>
       </c>
-      <c r="CF4" s="97"/>
+      <c r="CF4" s="110"/>
       <c r="CG4" s="45" t="s">
         <v>324</v>
       </c>
@@ -4902,39 +5199,20 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="AC1:AY1"/>
-    <mergeCell ref="AZ1:BJ1"/>
-    <mergeCell ref="BK1:CA1"/>
-    <mergeCell ref="CB1:CG1"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AR2:AU2"/>
-    <mergeCell ref="AV2:AY2"/>
-    <mergeCell ref="BX2:CA2"/>
-    <mergeCell ref="CB2:CD2"/>
-    <mergeCell ref="CE2:CG2"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AI3:AK3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="AZ2:BD2"/>
-    <mergeCell ref="BE2:BG2"/>
-    <mergeCell ref="BH2:BJ2"/>
-    <mergeCell ref="BK2:BN2"/>
-    <mergeCell ref="BO2:BR2"/>
-    <mergeCell ref="BS2:BW2"/>
-    <mergeCell ref="BX3:BY3"/>
-    <mergeCell ref="AT3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AZ3:BA3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BH3:BI3"/>
+    <mergeCell ref="BZ4:CA4"/>
+    <mergeCell ref="CB4:CC4"/>
+    <mergeCell ref="CE4:CF4"/>
+    <mergeCell ref="BK4:BM4"/>
+    <mergeCell ref="BO4:BP4"/>
+    <mergeCell ref="BQ4:BR4"/>
+    <mergeCell ref="BS4:BU4"/>
+    <mergeCell ref="BV4:BW4"/>
+    <mergeCell ref="BX4:BY4"/>
+    <mergeCell ref="AT4:AU4"/>
+    <mergeCell ref="AV4:AX4"/>
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="BB4:BD4"/>
+    <mergeCell ref="BE4:BF4"/>
     <mergeCell ref="BH4:BI4"/>
     <mergeCell ref="BZ3:CA3"/>
     <mergeCell ref="CB3:CC3"/>
@@ -4951,20 +5229,39 @@
     <mergeCell ref="BQ3:BR3"/>
     <mergeCell ref="BS3:BU3"/>
     <mergeCell ref="BV3:BW3"/>
-    <mergeCell ref="AT4:AU4"/>
-    <mergeCell ref="AV4:AX4"/>
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="BB4:BD4"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BZ4:CA4"/>
-    <mergeCell ref="CB4:CC4"/>
-    <mergeCell ref="CE4:CF4"/>
-    <mergeCell ref="BK4:BM4"/>
-    <mergeCell ref="BO4:BP4"/>
-    <mergeCell ref="BQ4:BR4"/>
-    <mergeCell ref="BS4:BU4"/>
-    <mergeCell ref="BV4:BW4"/>
-    <mergeCell ref="BX4:BY4"/>
+    <mergeCell ref="BX3:BY3"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AZ3:BA3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BH3:BI3"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="AZ2:BD2"/>
+    <mergeCell ref="BE2:BG2"/>
+    <mergeCell ref="BH2:BJ2"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AC1:AY1"/>
+    <mergeCell ref="AZ1:BJ1"/>
+    <mergeCell ref="BK1:CA1"/>
+    <mergeCell ref="CB1:CG1"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AR2:AU2"/>
+    <mergeCell ref="AV2:AY2"/>
+    <mergeCell ref="BX2:CA2"/>
+    <mergeCell ref="CB2:CD2"/>
+    <mergeCell ref="CE2:CG2"/>
+    <mergeCell ref="BK2:BN2"/>
+    <mergeCell ref="BO2:BR2"/>
+    <mergeCell ref="BS2:BW2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4974,8 +5271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24DBF0F-D65B-4755-A123-E8481AA1923A}">
   <dimension ref="A1:YW5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4984,81 +5281,81 @@
       <c r="Y1" s="113" t="s">
         <v>336</v>
       </c>
-      <c r="Z1" s="115" t="s">
+      <c r="Z1" s="126" t="s">
         <v>337</v>
       </c>
-      <c r="AA1" s="116"/>
-      <c r="AB1" s="116"/>
-      <c r="AC1" s="117" t="s">
+      <c r="AA1" s="127"/>
+      <c r="AB1" s="127"/>
+      <c r="AC1" s="128" t="s">
         <v>338</v>
       </c>
-      <c r="AD1" s="118"/>
-      <c r="AE1" s="118"/>
-      <c r="AF1" s="118"/>
-      <c r="AG1" s="118"/>
-      <c r="AH1" s="118"/>
-      <c r="AI1" s="118"/>
-      <c r="AJ1" s="118"/>
-      <c r="AK1" s="118"/>
+      <c r="AD1" s="129"/>
+      <c r="AE1" s="129"/>
+      <c r="AF1" s="129"/>
+      <c r="AG1" s="129"/>
+      <c r="AH1" s="129"/>
+      <c r="AI1" s="129"/>
+      <c r="AJ1" s="129"/>
+      <c r="AK1" s="129"/>
     </row>
     <row r="2" spans="1:673" ht="18">
       <c r="Y2" s="114"/>
-      <c r="Z2" s="119" t="s">
+      <c r="Z2" s="130" t="s">
         <v>339</v>
       </c>
-      <c r="AA2" s="120"/>
-      <c r="AB2" s="120"/>
-      <c r="AC2" s="121" t="s">
+      <c r="AA2" s="131"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="132" t="s">
         <v>339</v>
       </c>
-      <c r="AD2" s="122"/>
-      <c r="AE2" s="122"/>
-      <c r="AF2" s="122"/>
-      <c r="AG2" s="122"/>
-      <c r="AH2" s="122"/>
-      <c r="AI2" s="122"/>
-      <c r="AJ2" s="122"/>
-      <c r="AK2" s="122"/>
+      <c r="AD2" s="133"/>
+      <c r="AE2" s="133"/>
+      <c r="AF2" s="133"/>
+      <c r="AG2" s="133"/>
+      <c r="AH2" s="133"/>
+      <c r="AI2" s="133"/>
+      <c r="AJ2" s="133"/>
+      <c r="AK2" s="133"/>
     </row>
     <row r="3" spans="1:673" ht="18">
       <c r="Y3" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="Z3" s="123" t="s">
+      <c r="Z3" s="115" t="s">
         <v>340</v>
       </c>
-      <c r="AA3" s="124"/>
-      <c r="AB3" s="124"/>
-      <c r="AC3" s="125" t="s">
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="117" t="s">
         <v>341</v>
       </c>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="126"/>
-      <c r="AF3" s="126"/>
-      <c r="AG3" s="129" t="s">
+      <c r="AD3" s="118"/>
+      <c r="AE3" s="118"/>
+      <c r="AF3" s="118"/>
+      <c r="AG3" s="121" t="s">
         <v>342</v>
       </c>
-      <c r="AH3" s="130"/>
-      <c r="AI3" s="130"/>
-      <c r="AJ3" s="130"/>
-      <c r="AK3" s="130"/>
+      <c r="AH3" s="122"/>
+      <c r="AI3" s="122"/>
+      <c r="AJ3" s="122"/>
+      <c r="AK3" s="122"/>
     </row>
     <row r="4" spans="1:673" ht="18">
       <c r="Y4" s="114"/>
-      <c r="Z4" s="133" t="s">
+      <c r="Z4" s="125" t="s">
         <v>343</v>
       </c>
-      <c r="AA4" s="128"/>
-      <c r="AB4" s="128"/>
-      <c r="AC4" s="127"/>
-      <c r="AD4" s="128"/>
-      <c r="AE4" s="128"/>
-      <c r="AF4" s="128"/>
-      <c r="AG4" s="131"/>
-      <c r="AH4" s="132"/>
-      <c r="AI4" s="132"/>
-      <c r="AJ4" s="132"/>
-      <c r="AK4" s="132"/>
+      <c r="AA4" s="120"/>
+      <c r="AB4" s="120"/>
+      <c r="AC4" s="119"/>
+      <c r="AD4" s="120"/>
+      <c r="AE4" s="120"/>
+      <c r="AF4" s="120"/>
+      <c r="AG4" s="123"/>
+      <c r="AH4" s="124"/>
+      <c r="AI4" s="124"/>
+      <c r="AJ4" s="124"/>
+      <c r="AK4" s="124"/>
     </row>
     <row r="5" spans="1:673" s="51" customFormat="1" ht="105.75" customHeight="1">
       <c r="A5" s="35" t="s">
@@ -5811,17 +6108,281 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AK1"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AK2"/>
     <mergeCell ref="Y3:Y4"/>
     <mergeCell ref="Z3:AB3"/>
     <mergeCell ref="AC3:AF4"/>
     <mergeCell ref="AG3:AK4"/>
     <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AK1"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AK2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A9B0B9-FB03-4F01-AD7B-D680759B4C23}">
+  <dimension ref="A1:AT5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:46" s="135" customFormat="1" ht="18" customHeight="1">
+      <c r="A1" s="134" t="s">
+        <v>344</v>
+      </c>
+      <c r="B1" s="134"/>
+      <c r="Y1" s="142" t="s">
+        <v>347</v>
+      </c>
+      <c r="Z1" s="136" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA1" s="136"/>
+      <c r="AB1" s="136"/>
+      <c r="AC1" s="136"/>
+      <c r="AD1" s="148" t="s">
+        <v>349</v>
+      </c>
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="149"/>
+      <c r="AG1" s="150"/>
+      <c r="AH1" s="155" t="s">
+        <v>350</v>
+      </c>
+      <c r="AI1" s="156"/>
+      <c r="AJ1" s="156"/>
+      <c r="AK1" s="157"/>
+      <c r="AL1" s="160" t="s">
+        <v>351</v>
+      </c>
+      <c r="AM1" s="161"/>
+      <c r="AN1" s="162"/>
+      <c r="AO1" s="137" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" s="135" customFormat="1" ht="21" customHeight="1">
+      <c r="A2" s="134" t="s">
+        <v>345</v>
+      </c>
+      <c r="B2" s="134"/>
+      <c r="Y2" s="142"/>
+      <c r="Z2" s="136"/>
+      <c r="AA2" s="136"/>
+      <c r="AB2" s="136"/>
+      <c r="AC2" s="136"/>
+      <c r="AD2" s="151"/>
+      <c r="AE2" s="144"/>
+      <c r="AF2" s="144"/>
+      <c r="AG2" s="152"/>
+      <c r="AH2" s="158"/>
+      <c r="AI2" s="146"/>
+      <c r="AJ2" s="146"/>
+      <c r="AK2" s="159"/>
+      <c r="AL2" s="163"/>
+      <c r="AM2" s="147"/>
+      <c r="AN2" s="164"/>
+      <c r="AO2" s="137"/>
+    </row>
+    <row r="3" spans="1:46" s="135" customFormat="1" ht="15.75" customHeight="1">
+      <c r="Y3" s="142"/>
+      <c r="Z3" s="136"/>
+      <c r="AA3" s="136"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="136"/>
+      <c r="AD3" s="151"/>
+      <c r="AE3" s="144"/>
+      <c r="AF3" s="144"/>
+      <c r="AG3" s="152"/>
+      <c r="AH3" s="158"/>
+      <c r="AI3" s="146"/>
+      <c r="AJ3" s="146"/>
+      <c r="AK3" s="159"/>
+      <c r="AL3" s="163"/>
+      <c r="AM3" s="147"/>
+      <c r="AN3" s="164"/>
+      <c r="AO3" s="137"/>
+    </row>
+    <row r="4" spans="1:46" s="135" customFormat="1" ht="36.950000000000003" customHeight="1">
+      <c r="A4" s="134" t="s">
+        <v>346</v>
+      </c>
+      <c r="B4" s="134"/>
+      <c r="Y4" s="143"/>
+      <c r="Z4" s="136"/>
+      <c r="AA4" s="136"/>
+      <c r="AB4" s="136"/>
+      <c r="AC4" s="136"/>
+      <c r="AD4" s="153"/>
+      <c r="AE4" s="145"/>
+      <c r="AF4" s="145"/>
+      <c r="AG4" s="154"/>
+      <c r="AH4" s="158"/>
+      <c r="AI4" s="146"/>
+      <c r="AJ4" s="146"/>
+      <c r="AK4" s="159"/>
+      <c r="AL4" s="163"/>
+      <c r="AM4" s="147"/>
+      <c r="AN4" s="164"/>
+      <c r="AO4" s="137"/>
+    </row>
+    <row r="5" spans="1:46" s="141" customFormat="1" ht="122.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y5" s="138" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z5" s="139" t="s">
+        <v>353</v>
+      </c>
+      <c r="AA5" s="47" t="s">
+        <v>362</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="AD5" s="47" t="s">
+        <v>363</v>
+      </c>
+      <c r="AE5" s="47" t="s">
+        <v>364</v>
+      </c>
+      <c r="AF5" s="47" t="s">
+        <v>365</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="AH5" s="47" t="s">
+        <v>366</v>
+      </c>
+      <c r="AI5" s="47" t="s">
+        <v>365</v>
+      </c>
+      <c r="AJ5" s="47" t="s">
+        <v>367</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="AL5" s="47" t="s">
+        <v>368</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="AN5" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AO5" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="AP5" s="140" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ5" s="140" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR5" s="140" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AT5" s="139" t="s">
+        <v>361</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="AO1:AO4"/>
+    <mergeCell ref="Z1:AC4"/>
+    <mergeCell ref="AD1:AG4"/>
+    <mergeCell ref="AH1:AK4"/>
+    <mergeCell ref="AL1:AN4"/>
+    <mergeCell ref="Y1:Y4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/static/documentos/chequeo_2017.xlsx
+++ b/static/documentos/chequeo_2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355" activeTab="4" xr2:uid="{8CBB1552-A8E8-456D-9753-EEF3C368F3D3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355" xr2:uid="{8CBB1552-A8E8-456D-9753-EEF3C368F3D3}"/>
   </bookViews>
   <sheets>
     <sheet name="InnovaTIC" sheetId="1" r:id="rId1"/>
@@ -27,31 +27,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>JSMITH</author>
-  </authors>
-  <commentList>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{4E8E189E-4F9D-4431-8D57-98ADC0EE91E8}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>JSMITH:
-SE DEBE INGRESAR EL CODIGO DANE DE LA SEDE EDUCATIVA EN DONDE SE ENCUENTRA ADSCRITO EL DOCENTE FORMADO</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="369">
   <si>
@@ -1200,7 +1175,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1331,13 +1306,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="81"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2039,12 +2007,94 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="26" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2069,73 +2119,31 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2148,33 +2156,45 @@
     <xf numFmtId="0" fontId="7" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2187,76 +2207,10 @@
     <xf numFmtId="0" fontId="14" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="22" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2283,98 +2237,112 @@
     <xf numFmtId="0" fontId="18" fillId="24" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="26" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="26" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="26" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2696,7 +2664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AA5E57-F210-4AB8-BD1D-1A708E7BCDFF}">
   <dimension ref="A1:CZ5"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -2736,61 +2704,61 @@
       <c r="AW1" s="11"/>
       <c r="AX1" s="11"/>
       <c r="AY1" s="12"/>
-      <c r="AZ1" s="54" t="s">
+      <c r="AZ1" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="BA1" s="55"/>
-      <c r="BB1" s="55"/>
-      <c r="BC1" s="55"/>
-      <c r="BD1" s="55"/>
-      <c r="BE1" s="55"/>
-      <c r="BF1" s="55"/>
-      <c r="BG1" s="55"/>
-      <c r="BH1" s="55"/>
-      <c r="BI1" s="55"/>
-      <c r="BJ1" s="55"/>
-      <c r="BK1" s="55"/>
-      <c r="BL1" s="55"/>
-      <c r="BM1" s="55"/>
-      <c r="BN1" s="55"/>
-      <c r="BO1" s="55"/>
-      <c r="BP1" s="55"/>
-      <c r="BQ1" s="55"/>
-      <c r="BR1" s="55"/>
-      <c r="BS1" s="55"/>
-      <c r="BT1" s="55"/>
-      <c r="BU1" s="55"/>
-      <c r="BV1" s="56" t="s">
+      <c r="BA1" s="82"/>
+      <c r="BB1" s="82"/>
+      <c r="BC1" s="82"/>
+      <c r="BD1" s="82"/>
+      <c r="BE1" s="82"/>
+      <c r="BF1" s="82"/>
+      <c r="BG1" s="82"/>
+      <c r="BH1" s="82"/>
+      <c r="BI1" s="82"/>
+      <c r="BJ1" s="82"/>
+      <c r="BK1" s="82"/>
+      <c r="BL1" s="82"/>
+      <c r="BM1" s="82"/>
+      <c r="BN1" s="82"/>
+      <c r="BO1" s="82"/>
+      <c r="BP1" s="82"/>
+      <c r="BQ1" s="82"/>
+      <c r="BR1" s="82"/>
+      <c r="BS1" s="82"/>
+      <c r="BT1" s="82"/>
+      <c r="BU1" s="82"/>
+      <c r="BV1" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="BW1" s="55"/>
-      <c r="BX1" s="55"/>
-      <c r="BY1" s="55"/>
-      <c r="BZ1" s="55"/>
-      <c r="CA1" s="55"/>
-      <c r="CB1" s="55"/>
-      <c r="CC1" s="55"/>
-      <c r="CD1" s="55"/>
-      <c r="CE1" s="55"/>
-      <c r="CF1" s="55"/>
-      <c r="CG1" s="55"/>
-      <c r="CH1" s="55"/>
-      <c r="CI1" s="55"/>
-      <c r="CJ1" s="55"/>
-      <c r="CK1" s="55"/>
-      <c r="CL1" s="55"/>
-      <c r="CM1" s="55"/>
-      <c r="CN1" s="55"/>
-      <c r="CO1" s="57" t="s">
+      <c r="BW1" s="82"/>
+      <c r="BX1" s="82"/>
+      <c r="BY1" s="82"/>
+      <c r="BZ1" s="82"/>
+      <c r="CA1" s="82"/>
+      <c r="CB1" s="82"/>
+      <c r="CC1" s="82"/>
+      <c r="CD1" s="82"/>
+      <c r="CE1" s="82"/>
+      <c r="CF1" s="82"/>
+      <c r="CG1" s="82"/>
+      <c r="CH1" s="82"/>
+      <c r="CI1" s="82"/>
+      <c r="CJ1" s="82"/>
+      <c r="CK1" s="82"/>
+      <c r="CL1" s="82"/>
+      <c r="CM1" s="82"/>
+      <c r="CN1" s="82"/>
+      <c r="CO1" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="CP1" s="55"/>
-      <c r="CQ1" s="55"/>
-      <c r="CR1" s="55"/>
-      <c r="CS1" s="55"/>
-      <c r="CT1" s="55"/>
-      <c r="CU1" s="55"/>
-      <c r="CV1" s="55"/>
+      <c r="CP1" s="82"/>
+      <c r="CQ1" s="82"/>
+      <c r="CR1" s="82"/>
+      <c r="CS1" s="82"/>
+      <c r="CT1" s="82"/>
+      <c r="CU1" s="82"/>
+      <c r="CV1" s="82"/>
     </row>
     <row r="2" spans="1:104" ht="16.5">
       <c r="Y2" s="5" t="s">
@@ -2809,154 +2777,154 @@
       <c r="AF2" s="13"/>
       <c r="AG2" s="13"/>
       <c r="AH2" s="14"/>
-      <c r="AI2" s="58" t="s">
+      <c r="AI2" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="AJ2" s="59"/>
-      <c r="AK2" s="59"/>
-      <c r="AL2" s="59"/>
-      <c r="AM2" s="60"/>
-      <c r="AN2" s="58" t="s">
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="86"/>
+      <c r="AL2" s="86"/>
+      <c r="AM2" s="87"/>
+      <c r="AN2" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="AO2" s="59"/>
-      <c r="AP2" s="59"/>
-      <c r="AQ2" s="59"/>
-      <c r="AR2" s="59"/>
-      <c r="AS2" s="59"/>
-      <c r="AT2" s="60"/>
-      <c r="AU2" s="58" t="s">
+      <c r="AO2" s="86"/>
+      <c r="AP2" s="86"/>
+      <c r="AQ2" s="86"/>
+      <c r="AR2" s="86"/>
+      <c r="AS2" s="86"/>
+      <c r="AT2" s="87"/>
+      <c r="AU2" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="AV2" s="59"/>
-      <c r="AW2" s="59"/>
-      <c r="AX2" s="59"/>
-      <c r="AY2" s="60"/>
-      <c r="AZ2" s="61" t="s">
+      <c r="AV2" s="86"/>
+      <c r="AW2" s="86"/>
+      <c r="AX2" s="86"/>
+      <c r="AY2" s="87"/>
+      <c r="AZ2" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="BA2" s="53"/>
-      <c r="BB2" s="53"/>
-      <c r="BC2" s="53"/>
-      <c r="BD2" s="53"/>
-      <c r="BE2" s="61" t="s">
+      <c r="BA2" s="59"/>
+      <c r="BB2" s="59"/>
+      <c r="BC2" s="59"/>
+      <c r="BD2" s="59"/>
+      <c r="BE2" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="BF2" s="53"/>
-      <c r="BG2" s="53"/>
-      <c r="BH2" s="53"/>
-      <c r="BI2" s="53"/>
-      <c r="BJ2" s="61" t="s">
+      <c r="BF2" s="59"/>
+      <c r="BG2" s="59"/>
+      <c r="BH2" s="59"/>
+      <c r="BI2" s="59"/>
+      <c r="BJ2" s="88" t="s">
         <v>109</v>
       </c>
-      <c r="BK2" s="53"/>
-      <c r="BL2" s="53"/>
-      <c r="BM2" s="53"/>
-      <c r="BN2" s="53"/>
-      <c r="BO2" s="53"/>
-      <c r="BP2" s="53"/>
-      <c r="BQ2" s="61" t="s">
+      <c r="BK2" s="59"/>
+      <c r="BL2" s="59"/>
+      <c r="BM2" s="59"/>
+      <c r="BN2" s="59"/>
+      <c r="BO2" s="59"/>
+      <c r="BP2" s="59"/>
+      <c r="BQ2" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="BR2" s="53"/>
-      <c r="BS2" s="53"/>
-      <c r="BT2" s="53"/>
-      <c r="BU2" s="53"/>
-      <c r="BV2" s="61" t="s">
+      <c r="BR2" s="59"/>
+      <c r="BS2" s="59"/>
+      <c r="BT2" s="59"/>
+      <c r="BU2" s="59"/>
+      <c r="BV2" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="BW2" s="53"/>
-      <c r="BX2" s="53"/>
-      <c r="BY2" s="53"/>
-      <c r="BZ2" s="53"/>
-      <c r="CA2" s="61" t="s">
+      <c r="BW2" s="59"/>
+      <c r="BX2" s="59"/>
+      <c r="BY2" s="59"/>
+      <c r="BZ2" s="59"/>
+      <c r="CA2" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="CB2" s="53"/>
-      <c r="CC2" s="53"/>
-      <c r="CD2" s="53"/>
-      <c r="CE2" s="52" t="s">
+      <c r="CB2" s="59"/>
+      <c r="CC2" s="59"/>
+      <c r="CD2" s="59"/>
+      <c r="CE2" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="CF2" s="53"/>
-      <c r="CG2" s="53"/>
-      <c r="CH2" s="53"/>
-      <c r="CI2" s="53"/>
-      <c r="CJ2" s="52" t="s">
+      <c r="CF2" s="59"/>
+      <c r="CG2" s="59"/>
+      <c r="CH2" s="59"/>
+      <c r="CI2" s="59"/>
+      <c r="CJ2" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="CK2" s="53"/>
-      <c r="CL2" s="53"/>
-      <c r="CM2" s="53"/>
-      <c r="CN2" s="53"/>
-      <c r="CO2" s="52" t="s">
+      <c r="CK2" s="59"/>
+      <c r="CL2" s="59"/>
+      <c r="CM2" s="59"/>
+      <c r="CN2" s="59"/>
+      <c r="CO2" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="CP2" s="53"/>
-      <c r="CQ2" s="53"/>
-      <c r="CR2" s="53"/>
-      <c r="CS2" s="53"/>
-      <c r="CT2" s="53"/>
-      <c r="CU2" s="52" t="s">
+      <c r="CP2" s="59"/>
+      <c r="CQ2" s="59"/>
+      <c r="CR2" s="59"/>
+      <c r="CS2" s="59"/>
+      <c r="CT2" s="59"/>
+      <c r="CU2" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="CV2" s="53"/>
+      <c r="CV2" s="59"/>
     </row>
     <row r="3" spans="1:104" ht="16.5">
       <c r="Y3" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="Z3" s="62">
+      <c r="Z3" s="77">
         <v>0</v>
       </c>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62">
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="77">
         <v>1</v>
       </c>
-      <c r="AD3" s="63"/>
+      <c r="AD3" s="75"/>
       <c r="AE3" s="15">
         <v>2</v>
       </c>
       <c r="AF3" s="16">
         <v>3</v>
       </c>
-      <c r="AG3" s="64">
+      <c r="AG3" s="78">
         <v>4</v>
       </c>
-      <c r="AH3" s="65"/>
+      <c r="AH3" s="79"/>
       <c r="AI3" s="16">
         <v>5</v>
       </c>
       <c r="AJ3" s="15">
         <v>6</v>
       </c>
-      <c r="AK3" s="66">
+      <c r="AK3" s="74">
         <v>7</v>
       </c>
-      <c r="AL3" s="63"/>
+      <c r="AL3" s="75"/>
       <c r="AM3" s="15">
         <v>8</v>
       </c>
-      <c r="AN3" s="66">
+      <c r="AN3" s="74">
         <v>9</v>
       </c>
-      <c r="AO3" s="62"/>
-      <c r="AP3" s="63"/>
+      <c r="AO3" s="77"/>
+      <c r="AP3" s="75"/>
       <c r="AQ3" s="15">
         <v>10</v>
       </c>
-      <c r="AR3" s="66">
+      <c r="AR3" s="74">
         <v>11</v>
       </c>
-      <c r="AS3" s="63"/>
+      <c r="AS3" s="75"/>
       <c r="AT3" s="15">
         <v>12</v>
       </c>
-      <c r="AU3" s="66">
+      <c r="AU3" s="74">
         <v>13</v>
       </c>
-      <c r="AV3" s="63"/>
+      <c r="AV3" s="75"/>
       <c r="AW3" s="15">
         <v>14</v>
       </c>
@@ -2966,10 +2934,10 @@
       <c r="AY3" s="15">
         <v>16</v>
       </c>
-      <c r="AZ3" s="72">
+      <c r="AZ3" s="76">
         <v>17</v>
       </c>
-      <c r="BA3" s="53"/>
+      <c r="BA3" s="59"/>
       <c r="BB3" s="15">
         <v>18</v>
       </c>
@@ -2979,36 +2947,36 @@
       <c r="BD3" s="15">
         <v>20</v>
       </c>
-      <c r="BE3" s="72">
+      <c r="BE3" s="76">
         <v>21</v>
       </c>
-      <c r="BF3" s="53"/>
-      <c r="BG3" s="70">
+      <c r="BF3" s="59"/>
+      <c r="BG3" s="72">
         <v>22</v>
       </c>
-      <c r="BH3" s="53"/>
+      <c r="BH3" s="59"/>
       <c r="BI3" s="16">
         <v>23</v>
       </c>
-      <c r="BJ3" s="70">
+      <c r="BJ3" s="72">
         <v>24</v>
       </c>
-      <c r="BK3" s="53"/>
-      <c r="BL3" s="53"/>
-      <c r="BM3" s="72">
+      <c r="BK3" s="59"/>
+      <c r="BL3" s="59"/>
+      <c r="BM3" s="76">
         <v>25</v>
       </c>
-      <c r="BN3" s="53"/>
+      <c r="BN3" s="59"/>
       <c r="BO3" s="15">
         <v>26</v>
       </c>
       <c r="BP3" s="16">
         <v>27</v>
       </c>
-      <c r="BQ3" s="69">
+      <c r="BQ3" s="71">
         <v>28</v>
       </c>
-      <c r="BR3" s="53"/>
+      <c r="BR3" s="59"/>
       <c r="BS3" s="17">
         <v>29</v>
       </c>
@@ -3018,42 +2986,42 @@
       <c r="BU3" s="17">
         <v>31</v>
       </c>
-      <c r="BV3" s="70">
+      <c r="BV3" s="72">
         <v>32</v>
       </c>
-      <c r="BW3" s="53"/>
+      <c r="BW3" s="59"/>
       <c r="BX3" s="16">
         <v>33</v>
       </c>
-      <c r="BY3" s="70">
+      <c r="BY3" s="72">
         <v>34</v>
       </c>
-      <c r="BZ3" s="53"/>
-      <c r="CA3" s="71">
+      <c r="BZ3" s="59"/>
+      <c r="CA3" s="73">
         <v>35</v>
       </c>
-      <c r="CB3" s="53"/>
+      <c r="CB3" s="59"/>
       <c r="CC3" s="19">
         <v>36</v>
       </c>
       <c r="CD3" s="20">
         <v>37</v>
       </c>
-      <c r="CE3" s="80">
+      <c r="CE3" s="64">
         <v>38</v>
       </c>
-      <c r="CF3" s="53"/>
+      <c r="CF3" s="59"/>
       <c r="CG3" s="21">
         <v>39</v>
       </c>
-      <c r="CH3" s="80">
+      <c r="CH3" s="64">
         <v>40</v>
       </c>
-      <c r="CI3" s="53"/>
-      <c r="CJ3" s="78">
+      <c r="CI3" s="59"/>
+      <c r="CJ3" s="62">
         <v>41</v>
       </c>
-      <c r="CK3" s="53"/>
+      <c r="CK3" s="59"/>
       <c r="CL3" s="22">
         <v>42</v>
       </c>
@@ -3063,80 +3031,80 @@
       <c r="CN3" s="22">
         <v>44</v>
       </c>
-      <c r="CO3" s="78">
+      <c r="CO3" s="62">
         <v>45</v>
       </c>
-      <c r="CP3" s="53"/>
+      <c r="CP3" s="59"/>
       <c r="CQ3" s="22">
         <v>46</v>
       </c>
-      <c r="CR3" s="79">
+      <c r="CR3" s="63">
         <v>47</v>
       </c>
-      <c r="CS3" s="53"/>
+      <c r="CS3" s="59"/>
       <c r="CT3" s="21">
         <v>48</v>
       </c>
-      <c r="CU3" s="79">
+      <c r="CU3" s="63">
         <v>49</v>
       </c>
-      <c r="CV3" s="53"/>
+      <c r="CV3" s="59"/>
     </row>
     <row r="4" spans="1:104" ht="108.75" customHeight="1">
       <c r="Y4" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="Z4" s="73" t="s">
+      <c r="Z4" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="AA4" s="73"/>
-      <c r="AB4" s="73"/>
-      <c r="AC4" s="73" t="s">
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="AD4" s="73"/>
+      <c r="AD4" s="65"/>
       <c r="AE4" s="23" t="s">
         <v>115</v>
       </c>
       <c r="AF4" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="AG4" s="74" t="s">
+      <c r="AG4" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="AH4" s="75"/>
+      <c r="AH4" s="67"/>
       <c r="AI4" s="20" t="s">
         <v>118</v>
       </c>
       <c r="AJ4" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="AK4" s="67" t="s">
+      <c r="AK4" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="AL4" s="68"/>
+      <c r="AL4" s="69"/>
       <c r="AM4" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AN4" s="67" t="s">
+      <c r="AN4" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="AO4" s="76"/>
-      <c r="AP4" s="68"/>
+      <c r="AO4" s="70"/>
+      <c r="AP4" s="69"/>
       <c r="AQ4" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="AR4" s="67" t="s">
+      <c r="AR4" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="AS4" s="68"/>
+      <c r="AS4" s="69"/>
       <c r="AT4" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="AU4" s="67" t="s">
+      <c r="AU4" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="AV4" s="68"/>
+      <c r="AV4" s="69"/>
       <c r="AW4" s="19" t="s">
         <v>127</v>
       </c>
@@ -3146,10 +3114,10 @@
       <c r="AY4" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="AZ4" s="77" t="s">
+      <c r="AZ4" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="BA4" s="53"/>
+      <c r="BA4" s="59"/>
       <c r="BB4" s="19" t="s">
         <v>131</v>
       </c>
@@ -3159,36 +3127,36 @@
       <c r="BD4" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="BE4" s="77" t="s">
+      <c r="BE4" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="BF4" s="53"/>
-      <c r="BG4" s="81" t="s">
+      <c r="BF4" s="59"/>
+      <c r="BG4" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="BH4" s="53"/>
+      <c r="BH4" s="59"/>
       <c r="BI4" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="BJ4" s="81" t="s">
+      <c r="BJ4" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="BK4" s="53"/>
-      <c r="BL4" s="53"/>
-      <c r="BM4" s="77" t="s">
+      <c r="BK4" s="59"/>
+      <c r="BL4" s="59"/>
+      <c r="BM4" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="BN4" s="53"/>
+      <c r="BN4" s="59"/>
       <c r="BO4" s="19" t="s">
         <v>139</v>
       </c>
       <c r="BP4" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="BQ4" s="81" t="s">
+      <c r="BQ4" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="BR4" s="53"/>
+      <c r="BR4" s="59"/>
       <c r="BS4" s="20" t="s">
         <v>127</v>
       </c>
@@ -3198,42 +3166,42 @@
       <c r="BU4" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="BV4" s="81" t="s">
+      <c r="BV4" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="BW4" s="53"/>
+      <c r="BW4" s="59"/>
       <c r="BX4" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="BY4" s="81" t="s">
+      <c r="BY4" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="BZ4" s="53"/>
-      <c r="CA4" s="77" t="s">
+      <c r="BZ4" s="59"/>
+      <c r="CA4" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="CB4" s="53"/>
+      <c r="CB4" s="59"/>
       <c r="CC4" s="19" t="s">
         <v>147</v>
       </c>
       <c r="CD4" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="CE4" s="81" t="s">
+      <c r="CE4" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="CF4" s="53"/>
+      <c r="CF4" s="59"/>
       <c r="CG4" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="CH4" s="81" t="s">
+      <c r="CH4" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="CI4" s="53"/>
-      <c r="CJ4" s="77" t="s">
+      <c r="CI4" s="59"/>
+      <c r="CJ4" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="CK4" s="53"/>
+      <c r="CK4" s="59"/>
       <c r="CL4" s="19" t="s">
         <v>127</v>
       </c>
@@ -3243,24 +3211,24 @@
       <c r="CN4" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="CO4" s="77" t="s">
+      <c r="CO4" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="CP4" s="53"/>
+      <c r="CP4" s="59"/>
       <c r="CQ4" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="CR4" s="82" t="s">
+      <c r="CR4" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="CS4" s="53"/>
+      <c r="CS4" s="59"/>
       <c r="CT4" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="CU4" s="82" t="s">
+      <c r="CU4" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="CV4" s="53"/>
+      <c r="CV4" s="59"/>
     </row>
     <row r="5" spans="1:104" ht="144.75" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -3578,29 +3546,27 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="CU4:CV4"/>
-    <mergeCell ref="BQ4:BR4"/>
-    <mergeCell ref="BV4:BW4"/>
-    <mergeCell ref="BY4:BZ4"/>
-    <mergeCell ref="CA4:CB4"/>
-    <mergeCell ref="CE4:CF4"/>
-    <mergeCell ref="CH4:CI4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="BJ4:BL4"/>
-    <mergeCell ref="CJ4:CK4"/>
-    <mergeCell ref="CO4:CP4"/>
-    <mergeCell ref="CR4:CS4"/>
-    <mergeCell ref="CJ3:CK3"/>
-    <mergeCell ref="CO3:CP3"/>
-    <mergeCell ref="CR3:CS3"/>
-    <mergeCell ref="CU3:CV3"/>
-    <mergeCell ref="CE3:CF3"/>
-    <mergeCell ref="CH3:CI3"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="CU2:CV2"/>
+    <mergeCell ref="AZ1:BU1"/>
+    <mergeCell ref="BV1:CN1"/>
+    <mergeCell ref="CO1:CV1"/>
+    <mergeCell ref="AI2:AM2"/>
+    <mergeCell ref="AN2:AT2"/>
+    <mergeCell ref="AU2:AY2"/>
+    <mergeCell ref="AZ2:BD2"/>
+    <mergeCell ref="BE2:BI2"/>
+    <mergeCell ref="BJ2:BP2"/>
+    <mergeCell ref="BQ2:BU2"/>
+    <mergeCell ref="BV2:BZ2"/>
+    <mergeCell ref="CA2:CD2"/>
+    <mergeCell ref="CE2:CI2"/>
+    <mergeCell ref="CJ2:CN2"/>
+    <mergeCell ref="CO2:CT2"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="AR4:AS4"/>
     <mergeCell ref="BQ3:BR3"/>
     <mergeCell ref="BV3:BW3"/>
@@ -3617,27 +3583,29 @@
     <mergeCell ref="AU4:AV4"/>
     <mergeCell ref="AZ4:BA4"/>
     <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="CU2:CV2"/>
-    <mergeCell ref="AZ1:BU1"/>
-    <mergeCell ref="BV1:CN1"/>
-    <mergeCell ref="CO1:CV1"/>
-    <mergeCell ref="AI2:AM2"/>
-    <mergeCell ref="AN2:AT2"/>
-    <mergeCell ref="AU2:AY2"/>
-    <mergeCell ref="AZ2:BD2"/>
-    <mergeCell ref="BE2:BI2"/>
-    <mergeCell ref="BJ2:BP2"/>
-    <mergeCell ref="BQ2:BU2"/>
-    <mergeCell ref="BV2:BZ2"/>
-    <mergeCell ref="CA2:CD2"/>
-    <mergeCell ref="CE2:CI2"/>
-    <mergeCell ref="CJ2:CN2"/>
-    <mergeCell ref="CO2:CT2"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="CJ3:CK3"/>
+    <mergeCell ref="CO3:CP3"/>
+    <mergeCell ref="CR3:CS3"/>
+    <mergeCell ref="CU3:CV3"/>
+    <mergeCell ref="CE3:CF3"/>
+    <mergeCell ref="CH3:CI3"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="BJ4:BL4"/>
+    <mergeCell ref="CJ4:CK4"/>
+    <mergeCell ref="CO4:CP4"/>
+    <mergeCell ref="CR4:CS4"/>
+    <mergeCell ref="CU4:CV4"/>
+    <mergeCell ref="BQ4:BR4"/>
+    <mergeCell ref="BV4:BW4"/>
+    <mergeCell ref="BY4:BZ4"/>
+    <mergeCell ref="CA4:CB4"/>
+    <mergeCell ref="CE4:CF4"/>
+    <mergeCell ref="CH4:CI4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3662,76 +3630,76 @@
       </c>
       <c r="AA1" s="11"/>
       <c r="AB1" s="11"/>
-      <c r="AC1" s="83" t="s">
+      <c r="AC1" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="AD1" s="84"/>
-      <c r="AE1" s="84"/>
-      <c r="AF1" s="84"/>
-      <c r="AG1" s="84"/>
-      <c r="AH1" s="84"/>
-      <c r="AI1" s="84"/>
-      <c r="AJ1" s="84"/>
-      <c r="AK1" s="84"/>
-      <c r="AL1" s="84"/>
-      <c r="AM1" s="84"/>
-      <c r="AN1" s="84"/>
-      <c r="AO1" s="84"/>
-      <c r="AP1" s="84"/>
-      <c r="AQ1" s="84"/>
-      <c r="AR1" s="84"/>
-      <c r="AS1" s="84"/>
-      <c r="AT1" s="84"/>
-      <c r="AU1" s="84"/>
-      <c r="AV1" s="84"/>
-      <c r="AW1" s="85" t="s">
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="90"/>
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="90"/>
+      <c r="AH1" s="90"/>
+      <c r="AI1" s="90"/>
+      <c r="AJ1" s="90"/>
+      <c r="AK1" s="90"/>
+      <c r="AL1" s="90"/>
+      <c r="AM1" s="90"/>
+      <c r="AN1" s="90"/>
+      <c r="AO1" s="90"/>
+      <c r="AP1" s="90"/>
+      <c r="AQ1" s="90"/>
+      <c r="AR1" s="90"/>
+      <c r="AS1" s="90"/>
+      <c r="AT1" s="90"/>
+      <c r="AU1" s="90"/>
+      <c r="AV1" s="90"/>
+      <c r="AW1" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="AX1" s="84"/>
-      <c r="AY1" s="84"/>
-      <c r="AZ1" s="84"/>
-      <c r="BA1" s="84"/>
-      <c r="BB1" s="84"/>
-      <c r="BC1" s="84"/>
-      <c r="BD1" s="84"/>
-      <c r="BE1" s="84"/>
-      <c r="BF1" s="84"/>
-      <c r="BG1" s="84"/>
-      <c r="BH1" s="84"/>
-      <c r="BI1" s="84"/>
-      <c r="BJ1" s="84"/>
-      <c r="BK1" s="84"/>
-      <c r="BL1" s="86" t="s">
+      <c r="AX1" s="90"/>
+      <c r="AY1" s="90"/>
+      <c r="AZ1" s="90"/>
+      <c r="BA1" s="90"/>
+      <c r="BB1" s="90"/>
+      <c r="BC1" s="90"/>
+      <c r="BD1" s="90"/>
+      <c r="BE1" s="90"/>
+      <c r="BF1" s="90"/>
+      <c r="BG1" s="90"/>
+      <c r="BH1" s="90"/>
+      <c r="BI1" s="90"/>
+      <c r="BJ1" s="90"/>
+      <c r="BK1" s="90"/>
+      <c r="BL1" s="99" t="s">
         <v>104</v>
       </c>
-      <c r="BM1" s="84"/>
-      <c r="BN1" s="84"/>
-      <c r="BO1" s="84"/>
-      <c r="BP1" s="84"/>
-      <c r="BQ1" s="84"/>
-      <c r="BR1" s="84"/>
-      <c r="BS1" s="84"/>
-      <c r="BT1" s="84"/>
-      <c r="BU1" s="84"/>
-      <c r="BV1" s="84"/>
-      <c r="BW1" s="84"/>
-      <c r="BX1" s="84"/>
-      <c r="BY1" s="84"/>
-      <c r="BZ1" s="84"/>
-      <c r="CA1" s="84"/>
-      <c r="CB1" s="84"/>
-      <c r="CC1" s="87" t="s">
+      <c r="BM1" s="90"/>
+      <c r="BN1" s="90"/>
+      <c r="BO1" s="90"/>
+      <c r="BP1" s="90"/>
+      <c r="BQ1" s="90"/>
+      <c r="BR1" s="90"/>
+      <c r="BS1" s="90"/>
+      <c r="BT1" s="90"/>
+      <c r="BU1" s="90"/>
+      <c r="BV1" s="90"/>
+      <c r="BW1" s="90"/>
+      <c r="BX1" s="90"/>
+      <c r="BY1" s="90"/>
+      <c r="BZ1" s="90"/>
+      <c r="CA1" s="90"/>
+      <c r="CB1" s="90"/>
+      <c r="CC1" s="100" t="s">
         <v>206</v>
       </c>
-      <c r="CD1" s="84"/>
-      <c r="CE1" s="84"/>
-      <c r="CF1" s="84"/>
-      <c r="CG1" s="84"/>
-      <c r="CH1" s="84"/>
-      <c r="CI1" s="84"/>
-      <c r="CJ1" s="84"/>
-      <c r="CK1" s="84"/>
-      <c r="CL1" s="84"/>
+      <c r="CD1" s="90"/>
+      <c r="CE1" s="90"/>
+      <c r="CF1" s="90"/>
+      <c r="CG1" s="90"/>
+      <c r="CH1" s="90"/>
+      <c r="CI1" s="90"/>
+      <c r="CJ1" s="90"/>
+      <c r="CK1" s="90"/>
+      <c r="CL1" s="90"/>
     </row>
     <row r="2" spans="1:94" ht="16.5">
       <c r="Y2" s="5" t="s">
@@ -3742,106 +3710,106 @@
       </c>
       <c r="AA2" s="13"/>
       <c r="AB2" s="13"/>
-      <c r="AC2" s="88" t="s">
+      <c r="AC2" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84"/>
-      <c r="AH2" s="89" t="s">
+      <c r="AD2" s="90"/>
+      <c r="AE2" s="90"/>
+      <c r="AF2" s="90"/>
+      <c r="AG2" s="90"/>
+      <c r="AH2" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="89" t="s">
+      <c r="AI2" s="90"/>
+      <c r="AJ2" s="90"/>
+      <c r="AK2" s="90"/>
+      <c r="AL2" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="84"/>
-      <c r="AO2" s="84"/>
-      <c r="AP2" s="84"/>
-      <c r="AQ2" s="89" t="s">
+      <c r="AM2" s="90"/>
+      <c r="AN2" s="90"/>
+      <c r="AO2" s="90"/>
+      <c r="AP2" s="90"/>
+      <c r="AQ2" s="96" t="s">
         <v>207</v>
       </c>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="84"/>
-      <c r="AW2" s="89" t="s">
+      <c r="AR2" s="90"/>
+      <c r="AS2" s="90"/>
+      <c r="AT2" s="90"/>
+      <c r="AU2" s="90"/>
+      <c r="AV2" s="90"/>
+      <c r="AW2" s="96" t="s">
         <v>208</v>
       </c>
-      <c r="AX2" s="84"/>
-      <c r="AY2" s="84"/>
-      <c r="AZ2" s="84"/>
-      <c r="BA2" s="84"/>
-      <c r="BB2" s="89" t="s">
+      <c r="AX2" s="90"/>
+      <c r="AY2" s="90"/>
+      <c r="AZ2" s="90"/>
+      <c r="BA2" s="90"/>
+      <c r="BB2" s="96" t="s">
         <v>209</v>
       </c>
-      <c r="BC2" s="84"/>
-      <c r="BD2" s="84"/>
-      <c r="BE2" s="89" t="s">
+      <c r="BC2" s="90"/>
+      <c r="BD2" s="90"/>
+      <c r="BE2" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="BF2" s="84"/>
-      <c r="BG2" s="89" t="s">
+      <c r="BF2" s="90"/>
+      <c r="BG2" s="96" t="s">
         <v>110</v>
       </c>
-      <c r="BH2" s="84"/>
-      <c r="BI2" s="84"/>
-      <c r="BJ2" s="84"/>
-      <c r="BK2" s="84"/>
-      <c r="BL2" s="89" t="s">
+      <c r="BH2" s="90"/>
+      <c r="BI2" s="90"/>
+      <c r="BJ2" s="90"/>
+      <c r="BK2" s="90"/>
+      <c r="BL2" s="96" t="s">
         <v>210</v>
       </c>
-      <c r="BM2" s="84"/>
-      <c r="BN2" s="84"/>
-      <c r="BO2" s="84"/>
-      <c r="BP2" s="89" t="s">
+      <c r="BM2" s="90"/>
+      <c r="BN2" s="90"/>
+      <c r="BO2" s="90"/>
+      <c r="BP2" s="96" t="s">
         <v>209</v>
       </c>
-      <c r="BQ2" s="84"/>
-      <c r="BR2" s="84"/>
-      <c r="BS2" s="84"/>
-      <c r="BT2" s="89" t="s">
+      <c r="BQ2" s="90"/>
+      <c r="BR2" s="90"/>
+      <c r="BS2" s="90"/>
+      <c r="BT2" s="96" t="s">
         <v>211</v>
       </c>
-      <c r="BU2" s="84"/>
-      <c r="BV2" s="84"/>
-      <c r="BW2" s="84"/>
-      <c r="BX2" s="89" t="s">
+      <c r="BU2" s="90"/>
+      <c r="BV2" s="90"/>
+      <c r="BW2" s="90"/>
+      <c r="BX2" s="96" t="s">
         <v>212</v>
       </c>
-      <c r="BY2" s="84"/>
-      <c r="BZ2" s="84"/>
-      <c r="CA2" s="84"/>
-      <c r="CB2" s="84"/>
-      <c r="CC2" s="89" t="s">
+      <c r="BY2" s="90"/>
+      <c r="BZ2" s="90"/>
+      <c r="CA2" s="90"/>
+      <c r="CB2" s="90"/>
+      <c r="CC2" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="CD2" s="84"/>
-      <c r="CE2" s="84"/>
-      <c r="CF2" s="84"/>
-      <c r="CG2" s="84"/>
-      <c r="CH2" s="84"/>
-      <c r="CI2" s="84"/>
-      <c r="CJ2" s="89" t="s">
+      <c r="CD2" s="90"/>
+      <c r="CE2" s="90"/>
+      <c r="CF2" s="90"/>
+      <c r="CG2" s="90"/>
+      <c r="CH2" s="90"/>
+      <c r="CI2" s="90"/>
+      <c r="CJ2" s="96" t="s">
         <v>209</v>
       </c>
-      <c r="CK2" s="84"/>
-      <c r="CL2" s="84"/>
+      <c r="CK2" s="90"/>
+      <c r="CL2" s="90"/>
     </row>
     <row r="3" spans="1:94" ht="16.5">
       <c r="Y3" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="Z3" s="62">
+      <c r="Z3" s="77">
         <v>0</v>
       </c>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77"/>
       <c r="AC3" s="26">
         <v>1</v>
       </c>
@@ -3857,34 +3825,34 @@
       <c r="AG3" s="27">
         <v>5</v>
       </c>
-      <c r="AH3" s="90">
+      <c r="AH3" s="94">
         <v>6</v>
       </c>
-      <c r="AI3" s="84"/>
+      <c r="AI3" s="90"/>
       <c r="AJ3" s="27">
         <v>7</v>
       </c>
       <c r="AK3" s="27">
         <v>8</v>
       </c>
-      <c r="AL3" s="90">
+      <c r="AL3" s="94">
         <v>9</v>
       </c>
-      <c r="AM3" s="84"/>
-      <c r="AN3" s="90">
+      <c r="AM3" s="90"/>
+      <c r="AN3" s="94">
         <v>10</v>
       </c>
-      <c r="AO3" s="84"/>
+      <c r="AO3" s="90"/>
       <c r="AP3" s="27">
         <v>11</v>
       </c>
       <c r="AQ3" s="27">
         <v>12</v>
       </c>
-      <c r="AR3" s="90">
+      <c r="AR3" s="94">
         <v>13</v>
       </c>
-      <c r="AS3" s="84"/>
+      <c r="AS3" s="90"/>
       <c r="AT3" s="27">
         <v>14</v>
       </c>
@@ -3897,20 +3865,20 @@
       <c r="AW3" s="27">
         <v>17</v>
       </c>
-      <c r="AX3" s="90">
+      <c r="AX3" s="94">
         <v>18</v>
       </c>
-      <c r="AY3" s="84"/>
+      <c r="AY3" s="90"/>
       <c r="AZ3" s="27">
         <v>19</v>
       </c>
       <c r="BA3" s="27">
         <v>20</v>
       </c>
-      <c r="BB3" s="90">
+      <c r="BB3" s="94">
         <v>21</v>
       </c>
-      <c r="BC3" s="84"/>
+      <c r="BC3" s="90"/>
       <c r="BD3" s="27">
         <v>22</v>
       </c>
@@ -3920,10 +3888,10 @@
       <c r="BF3" s="27">
         <v>24</v>
       </c>
-      <c r="BG3" s="90">
+      <c r="BG3" s="94">
         <v>25</v>
       </c>
-      <c r="BH3" s="84"/>
+      <c r="BH3" s="90"/>
       <c r="BI3" s="27">
         <v>26</v>
       </c>
@@ -3933,34 +3901,34 @@
       <c r="BK3" s="27">
         <v>28</v>
       </c>
-      <c r="BL3" s="90">
+      <c r="BL3" s="94">
         <v>29</v>
       </c>
-      <c r="BM3" s="84"/>
-      <c r="BN3" s="90">
+      <c r="BM3" s="90"/>
+      <c r="BN3" s="94">
         <v>30</v>
       </c>
-      <c r="BO3" s="84"/>
-      <c r="BP3" s="90">
+      <c r="BO3" s="90"/>
+      <c r="BP3" s="94">
         <v>31</v>
       </c>
-      <c r="BQ3" s="84"/>
-      <c r="BR3" s="84"/>
+      <c r="BQ3" s="90"/>
+      <c r="BR3" s="90"/>
       <c r="BS3" s="27">
         <v>32</v>
       </c>
-      <c r="BT3" s="90">
+      <c r="BT3" s="94">
         <v>33</v>
       </c>
-      <c r="BU3" s="84"/>
-      <c r="BV3" s="90">
+      <c r="BU3" s="90"/>
+      <c r="BV3" s="94">
         <v>34</v>
       </c>
-      <c r="BW3" s="84"/>
-      <c r="BX3" s="90">
+      <c r="BW3" s="90"/>
+      <c r="BX3" s="94">
         <v>35</v>
       </c>
-      <c r="BY3" s="84"/>
+      <c r="BY3" s="90"/>
       <c r="BZ3" s="27">
         <v>36</v>
       </c>
@@ -3970,36 +3938,36 @@
       <c r="CB3" s="27">
         <v>38</v>
       </c>
-      <c r="CC3" s="90">
+      <c r="CC3" s="94">
         <v>39</v>
       </c>
-      <c r="CD3" s="84"/>
-      <c r="CE3" s="84"/>
+      <c r="CD3" s="90"/>
+      <c r="CE3" s="90"/>
       <c r="CF3" s="27">
         <v>40</v>
       </c>
       <c r="CG3" s="27">
         <v>41</v>
       </c>
-      <c r="CH3" s="90">
+      <c r="CH3" s="94">
         <v>42</v>
       </c>
-      <c r="CI3" s="84"/>
-      <c r="CJ3" s="90">
+      <c r="CI3" s="90"/>
+      <c r="CJ3" s="94">
         <v>43</v>
       </c>
-      <c r="CK3" s="84"/>
-      <c r="CL3" s="84"/>
+      <c r="CK3" s="90"/>
+      <c r="CL3" s="90"/>
     </row>
     <row r="4" spans="1:94" ht="115.5" customHeight="1">
       <c r="Y4" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="Z4" s="73" t="s">
+      <c r="Z4" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="AA4" s="73"/>
-      <c r="AB4" s="73"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
       <c r="AC4" s="28" t="s">
         <v>213</v>
       </c>
@@ -4015,34 +3983,34 @@
       <c r="AG4" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="AH4" s="91" t="s">
+      <c r="AH4" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="AI4" s="84"/>
+      <c r="AI4" s="90"/>
       <c r="AJ4" s="30" t="s">
         <v>219</v>
       </c>
       <c r="AK4" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="AL4" s="92" t="s">
+      <c r="AL4" s="91" t="s">
         <v>221</v>
       </c>
-      <c r="AM4" s="84"/>
-      <c r="AN4" s="91" t="s">
+      <c r="AM4" s="90"/>
+      <c r="AN4" s="92" t="s">
         <v>222</v>
       </c>
-      <c r="AO4" s="84"/>
+      <c r="AO4" s="90"/>
       <c r="AP4" s="31" t="s">
         <v>223</v>
       </c>
       <c r="AQ4" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="AR4" s="93" t="s">
+      <c r="AR4" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="AS4" s="84"/>
+      <c r="AS4" s="90"/>
       <c r="AT4" s="29" t="s">
         <v>225</v>
       </c>
@@ -4055,20 +4023,20 @@
       <c r="AW4" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="AX4" s="91" t="s">
+      <c r="AX4" s="92" t="s">
         <v>229</v>
       </c>
-      <c r="AY4" s="84"/>
+      <c r="AY4" s="90"/>
       <c r="AZ4" s="30" t="s">
         <v>230</v>
       </c>
       <c r="BA4" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="BB4" s="92" t="s">
+      <c r="BB4" s="91" t="s">
         <v>232</v>
       </c>
-      <c r="BC4" s="84"/>
+      <c r="BC4" s="90"/>
       <c r="BD4" s="29" t="s">
         <v>233</v>
       </c>
@@ -4078,10 +4046,10 @@
       <c r="BF4" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="BG4" s="94" t="s">
+      <c r="BG4" s="89" t="s">
         <v>236</v>
       </c>
-      <c r="BH4" s="84"/>
+      <c r="BH4" s="90"/>
       <c r="BI4" s="32" t="s">
         <v>237</v>
       </c>
@@ -4091,34 +4059,34 @@
       <c r="BK4" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="BL4" s="94" t="s">
+      <c r="BL4" s="89" t="s">
         <v>240</v>
       </c>
-      <c r="BM4" s="84"/>
-      <c r="BN4" s="91" t="s">
+      <c r="BM4" s="90"/>
+      <c r="BN4" s="92" t="s">
         <v>241</v>
       </c>
-      <c r="BO4" s="84"/>
-      <c r="BP4" s="92" t="s">
+      <c r="BO4" s="90"/>
+      <c r="BP4" s="91" t="s">
         <v>242</v>
       </c>
-      <c r="BQ4" s="84"/>
-      <c r="BR4" s="84"/>
+      <c r="BQ4" s="90"/>
+      <c r="BR4" s="90"/>
       <c r="BS4" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="BT4" s="92" t="s">
+      <c r="BT4" s="91" t="s">
         <v>244</v>
       </c>
-      <c r="BU4" s="84"/>
-      <c r="BV4" s="95" t="s">
+      <c r="BU4" s="90"/>
+      <c r="BV4" s="93" t="s">
         <v>245</v>
       </c>
-      <c r="BW4" s="84"/>
-      <c r="BX4" s="94" t="s">
+      <c r="BW4" s="90"/>
+      <c r="BX4" s="89" t="s">
         <v>246</v>
       </c>
-      <c r="BY4" s="84"/>
+      <c r="BY4" s="90"/>
       <c r="BZ4" s="32" t="s">
         <v>247</v>
       </c>
@@ -4128,26 +4096,26 @@
       <c r="CB4" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="CC4" s="92" t="s">
+      <c r="CC4" s="91" t="s">
         <v>250</v>
       </c>
-      <c r="CD4" s="84"/>
-      <c r="CE4" s="84"/>
+      <c r="CD4" s="90"/>
+      <c r="CE4" s="90"/>
       <c r="CF4" s="29" t="s">
         <v>251</v>
       </c>
       <c r="CG4" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="CH4" s="91" t="s">
+      <c r="CH4" s="92" t="s">
         <v>253</v>
       </c>
-      <c r="CI4" s="84"/>
-      <c r="CJ4" s="92" t="s">
+      <c r="CI4" s="90"/>
+      <c r="CJ4" s="91" t="s">
         <v>254</v>
       </c>
-      <c r="CK4" s="84"/>
-      <c r="CL4" s="84"/>
+      <c r="CK4" s="90"/>
+      <c r="CL4" s="90"/>
     </row>
     <row r="5" spans="1:94" s="25" customFormat="1" ht="111.75" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -4435,16 +4403,32 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="BX4:BY4"/>
-    <mergeCell ref="CC4:CE4"/>
-    <mergeCell ref="CH4:CI4"/>
-    <mergeCell ref="CJ4:CL4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="BL4:BM4"/>
-    <mergeCell ref="BN4:BO4"/>
-    <mergeCell ref="BP4:BR4"/>
-    <mergeCell ref="BT4:BU4"/>
-    <mergeCell ref="BV4:BW4"/>
+    <mergeCell ref="AC1:AV1"/>
+    <mergeCell ref="AW1:BK1"/>
+    <mergeCell ref="BL1:CB1"/>
+    <mergeCell ref="CC1:CL1"/>
+    <mergeCell ref="AC2:AG2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="AL2:AP2"/>
+    <mergeCell ref="AQ2:AV2"/>
+    <mergeCell ref="AW2:BA2"/>
+    <mergeCell ref="BB2:BD2"/>
+    <mergeCell ref="CC2:CI2"/>
+    <mergeCell ref="CJ2:CL2"/>
+    <mergeCell ref="BL2:BO2"/>
+    <mergeCell ref="BP2:BS2"/>
+    <mergeCell ref="BT2:BW2"/>
+    <mergeCell ref="BX2:CB2"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="AX3:AY3"/>
+    <mergeCell ref="BB3:BC3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="BG2:BK2"/>
     <mergeCell ref="CC3:CE3"/>
     <mergeCell ref="CH3:CI3"/>
     <mergeCell ref="CJ3:CL3"/>
@@ -4461,32 +4445,16 @@
     <mergeCell ref="BT3:BU3"/>
     <mergeCell ref="BV3:BW3"/>
     <mergeCell ref="BX3:BY3"/>
-    <mergeCell ref="AX3:AY3"/>
-    <mergeCell ref="BB3:BC3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="BG2:BK2"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="AC1:AV1"/>
-    <mergeCell ref="AW1:BK1"/>
-    <mergeCell ref="BL1:CB1"/>
-    <mergeCell ref="CC1:CL1"/>
-    <mergeCell ref="AC2:AG2"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="AL2:AP2"/>
-    <mergeCell ref="AQ2:AV2"/>
-    <mergeCell ref="AW2:BA2"/>
-    <mergeCell ref="BB2:BD2"/>
-    <mergeCell ref="CC2:CI2"/>
-    <mergeCell ref="CJ2:CL2"/>
-    <mergeCell ref="BL2:BO2"/>
-    <mergeCell ref="BP2:BS2"/>
-    <mergeCell ref="BT2:BW2"/>
-    <mergeCell ref="BX2:CB2"/>
+    <mergeCell ref="BX4:BY4"/>
+    <mergeCell ref="CC4:CE4"/>
+    <mergeCell ref="CH4:CI4"/>
+    <mergeCell ref="CJ4:CL4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="BL4:BM4"/>
+    <mergeCell ref="BN4:BO4"/>
+    <mergeCell ref="BP4:BR4"/>
+    <mergeCell ref="BT4:BU4"/>
+    <mergeCell ref="BV4:BW4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4511,71 +4479,71 @@
       </c>
       <c r="AA1" s="11"/>
       <c r="AB1" s="11"/>
-      <c r="AC1" s="96">
+      <c r="AC1" s="114">
         <v>1</v>
       </c>
-      <c r="AD1" s="97"/>
-      <c r="AE1" s="97"/>
-      <c r="AF1" s="97"/>
-      <c r="AG1" s="97"/>
-      <c r="AH1" s="97"/>
-      <c r="AI1" s="97"/>
-      <c r="AJ1" s="97"/>
-      <c r="AK1" s="97"/>
-      <c r="AL1" s="97"/>
-      <c r="AM1" s="97"/>
-      <c r="AN1" s="97"/>
-      <c r="AO1" s="97"/>
-      <c r="AP1" s="97"/>
-      <c r="AQ1" s="97"/>
-      <c r="AR1" s="97"/>
-      <c r="AS1" s="97"/>
-      <c r="AT1" s="97"/>
-      <c r="AU1" s="97"/>
-      <c r="AV1" s="97"/>
-      <c r="AW1" s="97"/>
-      <c r="AX1" s="97"/>
-      <c r="AY1" s="97"/>
-      <c r="AZ1" s="98">
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="107"/>
+      <c r="AG1" s="107"/>
+      <c r="AH1" s="107"/>
+      <c r="AI1" s="107"/>
+      <c r="AJ1" s="107"/>
+      <c r="AK1" s="107"/>
+      <c r="AL1" s="107"/>
+      <c r="AM1" s="107"/>
+      <c r="AN1" s="107"/>
+      <c r="AO1" s="107"/>
+      <c r="AP1" s="107"/>
+      <c r="AQ1" s="107"/>
+      <c r="AR1" s="107"/>
+      <c r="AS1" s="107"/>
+      <c r="AT1" s="107"/>
+      <c r="AU1" s="107"/>
+      <c r="AV1" s="107"/>
+      <c r="AW1" s="107"/>
+      <c r="AX1" s="107"/>
+      <c r="AY1" s="107"/>
+      <c r="AZ1" s="115">
         <v>2</v>
       </c>
-      <c r="BA1" s="97"/>
-      <c r="BB1" s="97"/>
-      <c r="BC1" s="97"/>
-      <c r="BD1" s="97"/>
-      <c r="BE1" s="97"/>
-      <c r="BF1" s="97"/>
-      <c r="BG1" s="97"/>
-      <c r="BH1" s="97"/>
-      <c r="BI1" s="97"/>
-      <c r="BJ1" s="97"/>
-      <c r="BK1" s="99">
+      <c r="BA1" s="107"/>
+      <c r="BB1" s="107"/>
+      <c r="BC1" s="107"/>
+      <c r="BD1" s="107"/>
+      <c r="BE1" s="107"/>
+      <c r="BF1" s="107"/>
+      <c r="BG1" s="107"/>
+      <c r="BH1" s="107"/>
+      <c r="BI1" s="107"/>
+      <c r="BJ1" s="107"/>
+      <c r="BK1" s="116">
         <v>3</v>
       </c>
-      <c r="BL1" s="97"/>
-      <c r="BM1" s="97"/>
-      <c r="BN1" s="97"/>
-      <c r="BO1" s="97"/>
-      <c r="BP1" s="97"/>
-      <c r="BQ1" s="97"/>
-      <c r="BR1" s="97"/>
-      <c r="BS1" s="97"/>
-      <c r="BT1" s="97"/>
-      <c r="BU1" s="97"/>
-      <c r="BV1" s="97"/>
-      <c r="BW1" s="97"/>
-      <c r="BX1" s="97"/>
-      <c r="BY1" s="97"/>
-      <c r="BZ1" s="97"/>
-      <c r="CA1" s="97"/>
-      <c r="CB1" s="100" t="s">
+      <c r="BL1" s="107"/>
+      <c r="BM1" s="107"/>
+      <c r="BN1" s="107"/>
+      <c r="BO1" s="107"/>
+      <c r="BP1" s="107"/>
+      <c r="BQ1" s="107"/>
+      <c r="BR1" s="107"/>
+      <c r="BS1" s="107"/>
+      <c r="BT1" s="107"/>
+      <c r="BU1" s="107"/>
+      <c r="BV1" s="107"/>
+      <c r="BW1" s="107"/>
+      <c r="BX1" s="107"/>
+      <c r="BY1" s="107"/>
+      <c r="BZ1" s="107"/>
+      <c r="CA1" s="107"/>
+      <c r="CB1" s="117" t="s">
         <v>206</v>
       </c>
-      <c r="CC1" s="97"/>
-      <c r="CD1" s="97"/>
-      <c r="CE1" s="97"/>
-      <c r="CF1" s="97"/>
-      <c r="CG1" s="97"/>
+      <c r="CC1" s="107"/>
+      <c r="CD1" s="107"/>
+      <c r="CE1" s="107"/>
+      <c r="CF1" s="107"/>
+      <c r="CG1" s="107"/>
     </row>
     <row r="2" spans="1:89" ht="16.5">
       <c r="Y2" s="5" t="s">
@@ -4586,217 +4554,217 @@
       </c>
       <c r="AA2" s="13"/>
       <c r="AB2" s="13"/>
-      <c r="AC2" s="101">
+      <c r="AC2" s="118">
         <v>1</v>
       </c>
-      <c r="AD2" s="97"/>
-      <c r="AE2" s="97"/>
-      <c r="AF2" s="102">
+      <c r="AD2" s="107"/>
+      <c r="AE2" s="107"/>
+      <c r="AF2" s="112">
         <v>2</v>
       </c>
-      <c r="AG2" s="97"/>
-      <c r="AH2" s="97"/>
-      <c r="AI2" s="103">
+      <c r="AG2" s="107"/>
+      <c r="AH2" s="107"/>
+      <c r="AI2" s="111">
         <v>3</v>
       </c>
-      <c r="AJ2" s="97"/>
-      <c r="AK2" s="97"/>
-      <c r="AL2" s="97"/>
-      <c r="AM2" s="102">
+      <c r="AJ2" s="107"/>
+      <c r="AK2" s="107"/>
+      <c r="AL2" s="107"/>
+      <c r="AM2" s="112">
         <v>4</v>
       </c>
-      <c r="AN2" s="97"/>
-      <c r="AO2" s="97"/>
-      <c r="AP2" s="97"/>
-      <c r="AQ2" s="97"/>
-      <c r="AR2" s="103">
+      <c r="AN2" s="107"/>
+      <c r="AO2" s="107"/>
+      <c r="AP2" s="107"/>
+      <c r="AQ2" s="107"/>
+      <c r="AR2" s="111">
         <v>5</v>
       </c>
-      <c r="AS2" s="97"/>
-      <c r="AT2" s="97"/>
-      <c r="AU2" s="97"/>
-      <c r="AV2" s="102">
+      <c r="AS2" s="107"/>
+      <c r="AT2" s="107"/>
+      <c r="AU2" s="107"/>
+      <c r="AV2" s="112">
         <v>6</v>
       </c>
-      <c r="AW2" s="97"/>
-      <c r="AX2" s="97"/>
-      <c r="AY2" s="97"/>
-      <c r="AZ2" s="103">
+      <c r="AW2" s="107"/>
+      <c r="AX2" s="107"/>
+      <c r="AY2" s="107"/>
+      <c r="AZ2" s="111">
         <v>1</v>
       </c>
-      <c r="BA2" s="97"/>
-      <c r="BB2" s="97"/>
-      <c r="BC2" s="97"/>
-      <c r="BD2" s="97"/>
-      <c r="BE2" s="102">
+      <c r="BA2" s="107"/>
+      <c r="BB2" s="107"/>
+      <c r="BC2" s="107"/>
+      <c r="BD2" s="107"/>
+      <c r="BE2" s="112">
         <v>2</v>
       </c>
-      <c r="BF2" s="97"/>
-      <c r="BG2" s="97"/>
-      <c r="BH2" s="103">
+      <c r="BF2" s="107"/>
+      <c r="BG2" s="107"/>
+      <c r="BH2" s="111">
         <v>3</v>
       </c>
-      <c r="BI2" s="97"/>
-      <c r="BJ2" s="97"/>
-      <c r="BK2" s="102">
+      <c r="BI2" s="107"/>
+      <c r="BJ2" s="107"/>
+      <c r="BK2" s="112">
         <v>1</v>
       </c>
-      <c r="BL2" s="97"/>
-      <c r="BM2" s="97"/>
-      <c r="BN2" s="97"/>
-      <c r="BO2" s="103">
+      <c r="BL2" s="107"/>
+      <c r="BM2" s="107"/>
+      <c r="BN2" s="107"/>
+      <c r="BO2" s="111">
         <v>2</v>
       </c>
-      <c r="BP2" s="97"/>
-      <c r="BQ2" s="97"/>
-      <c r="BR2" s="97"/>
-      <c r="BS2" s="102">
+      <c r="BP2" s="107"/>
+      <c r="BQ2" s="107"/>
+      <c r="BR2" s="107"/>
+      <c r="BS2" s="112">
         <v>3</v>
       </c>
-      <c r="BT2" s="97"/>
-      <c r="BU2" s="97"/>
-      <c r="BV2" s="97"/>
-      <c r="BW2" s="97"/>
-      <c r="BX2" s="103">
+      <c r="BT2" s="107"/>
+      <c r="BU2" s="107"/>
+      <c r="BV2" s="107"/>
+      <c r="BW2" s="107"/>
+      <c r="BX2" s="111">
         <v>4</v>
       </c>
-      <c r="BY2" s="97"/>
-      <c r="BZ2" s="97"/>
-      <c r="CA2" s="97"/>
-      <c r="CB2" s="102">
+      <c r="BY2" s="107"/>
+      <c r="BZ2" s="107"/>
+      <c r="CA2" s="107"/>
+      <c r="CB2" s="112">
         <v>1</v>
       </c>
-      <c r="CC2" s="97"/>
-      <c r="CD2" s="97"/>
-      <c r="CE2" s="103">
+      <c r="CC2" s="107"/>
+      <c r="CD2" s="107"/>
+      <c r="CE2" s="111">
         <v>2</v>
       </c>
-      <c r="CF2" s="97"/>
-      <c r="CG2" s="97"/>
+      <c r="CF2" s="107"/>
+      <c r="CG2" s="107"/>
     </row>
     <row r="3" spans="1:89" ht="26.25" customHeight="1">
       <c r="Y3" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="Z3" s="62">
+      <c r="Z3" s="77">
         <v>0</v>
       </c>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="104">
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="113">
         <v>1</v>
       </c>
-      <c r="AD3" s="97"/>
+      <c r="AD3" s="107"/>
       <c r="AE3" s="40">
         <v>2</v>
       </c>
-      <c r="AF3" s="105">
+      <c r="AF3" s="108">
         <v>3</v>
       </c>
-      <c r="AG3" s="97"/>
+      <c r="AG3" s="107"/>
       <c r="AH3" s="41">
         <v>4</v>
       </c>
-      <c r="AI3" s="106">
+      <c r="AI3" s="105">
         <v>5</v>
       </c>
-      <c r="AJ3" s="97"/>
-      <c r="AK3" s="97"/>
+      <c r="AJ3" s="107"/>
+      <c r="AK3" s="107"/>
       <c r="AL3" s="40">
         <v>6</v>
       </c>
-      <c r="AM3" s="107">
+      <c r="AM3" s="110">
         <v>7</v>
       </c>
-      <c r="AN3" s="97"/>
-      <c r="AO3" s="97"/>
-      <c r="AP3" s="107">
+      <c r="AN3" s="107"/>
+      <c r="AO3" s="107"/>
+      <c r="AP3" s="110">
         <v>8</v>
       </c>
-      <c r="AQ3" s="97"/>
-      <c r="AR3" s="106">
+      <c r="AQ3" s="107"/>
+      <c r="AR3" s="105">
         <v>9</v>
       </c>
-      <c r="AS3" s="97"/>
-      <c r="AT3" s="106">
+      <c r="AS3" s="107"/>
+      <c r="AT3" s="105">
         <v>10</v>
       </c>
-      <c r="AU3" s="97"/>
-      <c r="AV3" s="105">
+      <c r="AU3" s="107"/>
+      <c r="AV3" s="108">
         <v>11</v>
       </c>
-      <c r="AW3" s="97"/>
-      <c r="AX3" s="97"/>
+      <c r="AW3" s="107"/>
+      <c r="AX3" s="107"/>
       <c r="AY3" s="41">
         <v>12</v>
       </c>
-      <c r="AZ3" s="108">
+      <c r="AZ3" s="106">
         <v>13</v>
       </c>
-      <c r="BA3" s="97"/>
-      <c r="BB3" s="108">
+      <c r="BA3" s="107"/>
+      <c r="BB3" s="106">
         <v>14</v>
       </c>
-      <c r="BC3" s="97"/>
-      <c r="BD3" s="97"/>
-      <c r="BE3" s="105">
+      <c r="BC3" s="107"/>
+      <c r="BD3" s="107"/>
+      <c r="BE3" s="108">
         <v>15</v>
       </c>
-      <c r="BF3" s="97"/>
+      <c r="BF3" s="107"/>
       <c r="BG3" s="41">
         <v>16</v>
       </c>
-      <c r="BH3" s="108">
+      <c r="BH3" s="106">
         <v>17</v>
       </c>
-      <c r="BI3" s="97"/>
+      <c r="BI3" s="107"/>
       <c r="BJ3" s="40">
         <v>18</v>
       </c>
-      <c r="BK3" s="105">
+      <c r="BK3" s="108">
         <v>19</v>
       </c>
-      <c r="BL3" s="97"/>
-      <c r="BM3" s="97"/>
+      <c r="BL3" s="107"/>
+      <c r="BM3" s="107"/>
       <c r="BN3" s="41">
         <v>20</v>
       </c>
-      <c r="BO3" s="108">
+      <c r="BO3" s="106">
         <v>21</v>
       </c>
-      <c r="BP3" s="97"/>
-      <c r="BQ3" s="108">
+      <c r="BP3" s="107"/>
+      <c r="BQ3" s="106">
         <v>22</v>
       </c>
-      <c r="BR3" s="97"/>
-      <c r="BS3" s="105">
+      <c r="BR3" s="107"/>
+      <c r="BS3" s="108">
         <v>23</v>
       </c>
-      <c r="BT3" s="97"/>
-      <c r="BU3" s="97"/>
-      <c r="BV3" s="105">
+      <c r="BT3" s="107"/>
+      <c r="BU3" s="107"/>
+      <c r="BV3" s="108">
         <v>24</v>
       </c>
-      <c r="BW3" s="97"/>
-      <c r="BX3" s="108">
+      <c r="BW3" s="107"/>
+      <c r="BX3" s="106">
         <v>25</v>
       </c>
-      <c r="BY3" s="97"/>
-      <c r="BZ3" s="108">
+      <c r="BY3" s="107"/>
+      <c r="BZ3" s="106">
         <v>26</v>
       </c>
-      <c r="CA3" s="97"/>
-      <c r="CB3" s="105">
+      <c r="CA3" s="107"/>
+      <c r="CB3" s="108">
         <v>27</v>
       </c>
-      <c r="CC3" s="97"/>
+      <c r="CC3" s="107"/>
       <c r="CD3" s="41">
         <v>28</v>
       </c>
-      <c r="CE3" s="108">
+      <c r="CE3" s="106">
         <v>29</v>
       </c>
-      <c r="CF3" s="97"/>
+      <c r="CF3" s="107"/>
       <c r="CG3" s="42">
         <v>30</v>
       </c>
@@ -4805,125 +4773,125 @@
       <c r="Y4" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="Z4" s="73" t="s">
+      <c r="Z4" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="AA4" s="73"/>
-      <c r="AB4" s="73"/>
-      <c r="AC4" s="111" t="s">
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="109" t="s">
         <v>295</v>
       </c>
-      <c r="AD4" s="110"/>
+      <c r="AD4" s="103"/>
       <c r="AE4" s="43" t="s">
         <v>296</v>
       </c>
-      <c r="AF4" s="112" t="s">
+      <c r="AF4" s="104" t="s">
         <v>297</v>
       </c>
-      <c r="AG4" s="110"/>
+      <c r="AG4" s="103"/>
       <c r="AH4" s="44" t="s">
         <v>298</v>
       </c>
-      <c r="AI4" s="106" t="s">
+      <c r="AI4" s="105" t="s">
         <v>299</v>
       </c>
-      <c r="AJ4" s="110"/>
-      <c r="AK4" s="110"/>
+      <c r="AJ4" s="103"/>
+      <c r="AK4" s="103"/>
       <c r="AL4" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="AM4" s="107" t="s">
+      <c r="AM4" s="110" t="s">
         <v>301</v>
       </c>
-      <c r="AN4" s="110"/>
-      <c r="AO4" s="110"/>
-      <c r="AP4" s="107" t="s">
+      <c r="AN4" s="103"/>
+      <c r="AO4" s="103"/>
+      <c r="AP4" s="110" t="s">
         <v>302</v>
       </c>
-      <c r="AQ4" s="110"/>
-      <c r="AR4" s="106" t="s">
+      <c r="AQ4" s="103"/>
+      <c r="AR4" s="105" t="s">
         <v>303</v>
       </c>
-      <c r="AS4" s="110"/>
-      <c r="AT4" s="106" t="s">
+      <c r="AS4" s="103"/>
+      <c r="AT4" s="105" t="s">
         <v>304</v>
       </c>
-      <c r="AU4" s="110"/>
-      <c r="AV4" s="112" t="s">
+      <c r="AU4" s="103"/>
+      <c r="AV4" s="104" t="s">
         <v>305</v>
       </c>
-      <c r="AW4" s="110"/>
-      <c r="AX4" s="110"/>
+      <c r="AW4" s="103"/>
+      <c r="AX4" s="103"/>
       <c r="AY4" s="44" t="s">
         <v>306</v>
       </c>
-      <c r="AZ4" s="109" t="s">
+      <c r="AZ4" s="102" t="s">
         <v>307</v>
       </c>
-      <c r="BA4" s="110"/>
-      <c r="BB4" s="109" t="s">
+      <c r="BA4" s="103"/>
+      <c r="BB4" s="102" t="s">
         <v>308</v>
       </c>
-      <c r="BC4" s="110"/>
-      <c r="BD4" s="110"/>
-      <c r="BE4" s="112" t="s">
+      <c r="BC4" s="103"/>
+      <c r="BD4" s="103"/>
+      <c r="BE4" s="104" t="s">
         <v>309</v>
       </c>
-      <c r="BF4" s="110"/>
+      <c r="BF4" s="103"/>
       <c r="BG4" s="44" t="s">
         <v>310</v>
       </c>
-      <c r="BH4" s="109" t="s">
+      <c r="BH4" s="102" t="s">
         <v>311</v>
       </c>
-      <c r="BI4" s="110"/>
+      <c r="BI4" s="103"/>
       <c r="BJ4" s="45" t="s">
         <v>312</v>
       </c>
-      <c r="BK4" s="112" t="s">
+      <c r="BK4" s="104" t="s">
         <v>313</v>
       </c>
-      <c r="BL4" s="110"/>
-      <c r="BM4" s="110"/>
+      <c r="BL4" s="103"/>
+      <c r="BM4" s="103"/>
       <c r="BN4" s="44" t="s">
         <v>314</v>
       </c>
-      <c r="BO4" s="109" t="s">
+      <c r="BO4" s="102" t="s">
         <v>315</v>
       </c>
-      <c r="BP4" s="110"/>
-      <c r="BQ4" s="109" t="s">
+      <c r="BP4" s="103"/>
+      <c r="BQ4" s="102" t="s">
         <v>316</v>
       </c>
-      <c r="BR4" s="110"/>
-      <c r="BS4" s="112" t="s">
+      <c r="BR4" s="103"/>
+      <c r="BS4" s="104" t="s">
         <v>317</v>
       </c>
-      <c r="BT4" s="110"/>
-      <c r="BU4" s="110"/>
-      <c r="BV4" s="112" t="s">
+      <c r="BT4" s="103"/>
+      <c r="BU4" s="103"/>
+      <c r="BV4" s="104" t="s">
         <v>318</v>
       </c>
-      <c r="BW4" s="110"/>
-      <c r="BX4" s="109" t="s">
+      <c r="BW4" s="103"/>
+      <c r="BX4" s="102" t="s">
         <v>319</v>
       </c>
-      <c r="BY4" s="110"/>
-      <c r="BZ4" s="109" t="s">
+      <c r="BY4" s="103"/>
+      <c r="BZ4" s="102" t="s">
         <v>320</v>
       </c>
-      <c r="CA4" s="110"/>
-      <c r="CB4" s="112" t="s">
+      <c r="CA4" s="103"/>
+      <c r="CB4" s="104" t="s">
         <v>321</v>
       </c>
-      <c r="CC4" s="110"/>
+      <c r="CC4" s="103"/>
       <c r="CD4" s="44" t="s">
         <v>322</v>
       </c>
-      <c r="CE4" s="109" t="s">
+      <c r="CE4" s="102" t="s">
         <v>323</v>
       </c>
-      <c r="CF4" s="110"/>
+      <c r="CF4" s="103"/>
       <c r="CG4" s="45" t="s">
         <v>324</v>
       </c>
@@ -5199,20 +5167,39 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="BZ4:CA4"/>
-    <mergeCell ref="CB4:CC4"/>
-    <mergeCell ref="CE4:CF4"/>
-    <mergeCell ref="BK4:BM4"/>
-    <mergeCell ref="BO4:BP4"/>
-    <mergeCell ref="BQ4:BR4"/>
-    <mergeCell ref="BS4:BU4"/>
-    <mergeCell ref="BV4:BW4"/>
-    <mergeCell ref="BX4:BY4"/>
-    <mergeCell ref="AT4:AU4"/>
-    <mergeCell ref="AV4:AX4"/>
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="BB4:BD4"/>
-    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="AC1:AY1"/>
+    <mergeCell ref="AZ1:BJ1"/>
+    <mergeCell ref="BK1:CA1"/>
+    <mergeCell ref="CB1:CG1"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AR2:AU2"/>
+    <mergeCell ref="AV2:AY2"/>
+    <mergeCell ref="BX2:CA2"/>
+    <mergeCell ref="CB2:CD2"/>
+    <mergeCell ref="CE2:CG2"/>
+    <mergeCell ref="BK2:BN2"/>
+    <mergeCell ref="BO2:BR2"/>
+    <mergeCell ref="BS2:BW2"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="AZ2:BD2"/>
+    <mergeCell ref="BE2:BG2"/>
+    <mergeCell ref="BH2:BJ2"/>
+    <mergeCell ref="BX3:BY3"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AZ3:BA3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BH3:BI3"/>
     <mergeCell ref="BH4:BI4"/>
     <mergeCell ref="BZ3:CA3"/>
     <mergeCell ref="CB3:CC3"/>
@@ -5229,39 +5216,20 @@
     <mergeCell ref="BQ3:BR3"/>
     <mergeCell ref="BS3:BU3"/>
     <mergeCell ref="BV3:BW3"/>
-    <mergeCell ref="BX3:BY3"/>
-    <mergeCell ref="AT3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AZ3:BA3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BH3:BI3"/>
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="AZ2:BD2"/>
-    <mergeCell ref="BE2:BG2"/>
-    <mergeCell ref="BH2:BJ2"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AI3:AK3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AC1:AY1"/>
-    <mergeCell ref="AZ1:BJ1"/>
-    <mergeCell ref="BK1:CA1"/>
-    <mergeCell ref="CB1:CG1"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AR2:AU2"/>
-    <mergeCell ref="AV2:AY2"/>
-    <mergeCell ref="BX2:CA2"/>
-    <mergeCell ref="CB2:CD2"/>
-    <mergeCell ref="CE2:CG2"/>
-    <mergeCell ref="BK2:BN2"/>
-    <mergeCell ref="BO2:BR2"/>
-    <mergeCell ref="BS2:BW2"/>
+    <mergeCell ref="AT4:AU4"/>
+    <mergeCell ref="AV4:AX4"/>
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="BB4:BD4"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BZ4:CA4"/>
+    <mergeCell ref="CB4:CC4"/>
+    <mergeCell ref="CE4:CF4"/>
+    <mergeCell ref="BK4:BM4"/>
+    <mergeCell ref="BO4:BP4"/>
+    <mergeCell ref="BQ4:BR4"/>
+    <mergeCell ref="BS4:BU4"/>
+    <mergeCell ref="BV4:BW4"/>
+    <mergeCell ref="BX4:BY4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5271,91 +5239,91 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24DBF0F-D65B-4755-A123-E8481AA1923A}">
   <dimension ref="A1:YW5"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Z5" sqref="Z5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:673" ht="18">
-      <c r="Y1" s="113" t="s">
+      <c r="Y1" s="119" t="s">
         <v>336</v>
       </c>
-      <c r="Z1" s="126" t="s">
+      <c r="Z1" s="121" t="s">
         <v>337</v>
       </c>
-      <c r="AA1" s="127"/>
-      <c r="AB1" s="127"/>
-      <c r="AC1" s="128" t="s">
+      <c r="AA1" s="122"/>
+      <c r="AB1" s="122"/>
+      <c r="AC1" s="123" t="s">
         <v>338</v>
       </c>
-      <c r="AD1" s="129"/>
-      <c r="AE1" s="129"/>
-      <c r="AF1" s="129"/>
-      <c r="AG1" s="129"/>
-      <c r="AH1" s="129"/>
-      <c r="AI1" s="129"/>
-      <c r="AJ1" s="129"/>
-      <c r="AK1" s="129"/>
+      <c r="AD1" s="124"/>
+      <c r="AE1" s="124"/>
+      <c r="AF1" s="124"/>
+      <c r="AG1" s="124"/>
+      <c r="AH1" s="124"/>
+      <c r="AI1" s="124"/>
+      <c r="AJ1" s="124"/>
+      <c r="AK1" s="124"/>
     </row>
     <row r="2" spans="1:673" ht="18">
-      <c r="Y2" s="114"/>
-      <c r="Z2" s="130" t="s">
+      <c r="Y2" s="120"/>
+      <c r="Z2" s="125" t="s">
         <v>339</v>
       </c>
-      <c r="AA2" s="131"/>
-      <c r="AB2" s="131"/>
-      <c r="AC2" s="132" t="s">
+      <c r="AA2" s="126"/>
+      <c r="AB2" s="126"/>
+      <c r="AC2" s="127" t="s">
         <v>339</v>
       </c>
-      <c r="AD2" s="133"/>
-      <c r="AE2" s="133"/>
-      <c r="AF2" s="133"/>
-      <c r="AG2" s="133"/>
-      <c r="AH2" s="133"/>
-      <c r="AI2" s="133"/>
-      <c r="AJ2" s="133"/>
-      <c r="AK2" s="133"/>
+      <c r="AD2" s="128"/>
+      <c r="AE2" s="128"/>
+      <c r="AF2" s="128"/>
+      <c r="AG2" s="128"/>
+      <c r="AH2" s="128"/>
+      <c r="AI2" s="128"/>
+      <c r="AJ2" s="128"/>
+      <c r="AK2" s="128"/>
     </row>
     <row r="3" spans="1:673" ht="18">
-      <c r="Y3" s="113" t="s">
+      <c r="Y3" s="119" t="s">
         <v>112</v>
       </c>
-      <c r="Z3" s="115" t="s">
+      <c r="Z3" s="129" t="s">
         <v>340</v>
       </c>
-      <c r="AA3" s="116"/>
-      <c r="AB3" s="116"/>
-      <c r="AC3" s="117" t="s">
+      <c r="AA3" s="130"/>
+      <c r="AB3" s="130"/>
+      <c r="AC3" s="131" t="s">
         <v>341</v>
       </c>
-      <c r="AD3" s="118"/>
-      <c r="AE3" s="118"/>
-      <c r="AF3" s="118"/>
-      <c r="AG3" s="121" t="s">
+      <c r="AD3" s="132"/>
+      <c r="AE3" s="132"/>
+      <c r="AF3" s="132"/>
+      <c r="AG3" s="135" t="s">
         <v>342</v>
       </c>
-      <c r="AH3" s="122"/>
-      <c r="AI3" s="122"/>
-      <c r="AJ3" s="122"/>
-      <c r="AK3" s="122"/>
+      <c r="AH3" s="136"/>
+      <c r="AI3" s="136"/>
+      <c r="AJ3" s="136"/>
+      <c r="AK3" s="136"/>
     </row>
     <row r="4" spans="1:673" ht="18">
-      <c r="Y4" s="114"/>
-      <c r="Z4" s="125" t="s">
+      <c r="Y4" s="120"/>
+      <c r="Z4" s="139" t="s">
         <v>343</v>
       </c>
-      <c r="AA4" s="120"/>
-      <c r="AB4" s="120"/>
-      <c r="AC4" s="119"/>
-      <c r="AD4" s="120"/>
-      <c r="AE4" s="120"/>
-      <c r="AF4" s="120"/>
-      <c r="AG4" s="123"/>
-      <c r="AH4" s="124"/>
-      <c r="AI4" s="124"/>
-      <c r="AJ4" s="124"/>
-      <c r="AK4" s="124"/>
+      <c r="AA4" s="134"/>
+      <c r="AB4" s="134"/>
+      <c r="AC4" s="133"/>
+      <c r="AD4" s="134"/>
+      <c r="AE4" s="134"/>
+      <c r="AF4" s="134"/>
+      <c r="AG4" s="137"/>
+      <c r="AH4" s="138"/>
+      <c r="AI4" s="138"/>
+      <c r="AJ4" s="138"/>
+      <c r="AK4" s="138"/>
     </row>
     <row r="5" spans="1:673" s="51" customFormat="1" ht="105.75" customHeight="1">
       <c r="A5" s="35" t="s">
@@ -6108,132 +6076,132 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AF4"/>
+    <mergeCell ref="AG3:AK4"/>
+    <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="AC1:AK1"/>
     <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="AC2:AK2"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AF4"/>
-    <mergeCell ref="AG3:AK4"/>
-    <mergeCell ref="Z4:AB4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A9B0B9-FB03-4F01-AD7B-D680759B4C23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A9B0B9-FB03-4F01-AD7B-D680759B4C23}">
   <dimension ref="A1:AT5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:46" s="135" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="134" t="s">
+    <row r="1" spans="1:46" s="53" customFormat="1" ht="18" customHeight="1">
+      <c r="A1" s="52" t="s">
         <v>344</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="Y1" s="142" t="s">
+      <c r="B1" s="52"/>
+      <c r="Y1" s="163" t="s">
         <v>347</v>
       </c>
-      <c r="Z1" s="136" t="s">
+      <c r="Z1" s="141" t="s">
         <v>348</v>
       </c>
-      <c r="AA1" s="136"/>
-      <c r="AB1" s="136"/>
-      <c r="AC1" s="136"/>
-      <c r="AD1" s="148" t="s">
+      <c r="AA1" s="141"/>
+      <c r="AB1" s="141"/>
+      <c r="AC1" s="141"/>
+      <c r="AD1" s="142" t="s">
         <v>349</v>
       </c>
-      <c r="AE1" s="149"/>
-      <c r="AF1" s="149"/>
-      <c r="AG1" s="150"/>
-      <c r="AH1" s="155" t="s">
+      <c r="AE1" s="143"/>
+      <c r="AF1" s="143"/>
+      <c r="AG1" s="144"/>
+      <c r="AH1" s="151" t="s">
         <v>350</v>
       </c>
-      <c r="AI1" s="156"/>
-      <c r="AJ1" s="156"/>
-      <c r="AK1" s="157"/>
-      <c r="AL1" s="160" t="s">
+      <c r="AI1" s="152"/>
+      <c r="AJ1" s="152"/>
+      <c r="AK1" s="153"/>
+      <c r="AL1" s="157" t="s">
         <v>351</v>
       </c>
-      <c r="AM1" s="161"/>
-      <c r="AN1" s="162"/>
-      <c r="AO1" s="137" t="s">
+      <c r="AM1" s="158"/>
+      <c r="AN1" s="159"/>
+      <c r="AO1" s="140" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="2" spans="1:46" s="135" customFormat="1" ht="21" customHeight="1">
-      <c r="A2" s="134" t="s">
+    <row r="2" spans="1:46" s="53" customFormat="1" ht="21" customHeight="1">
+      <c r="A2" s="52" t="s">
         <v>345</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="Y2" s="142"/>
-      <c r="Z2" s="136"/>
-      <c r="AA2" s="136"/>
-      <c r="AB2" s="136"/>
-      <c r="AC2" s="136"/>
-      <c r="AD2" s="151"/>
-      <c r="AE2" s="144"/>
-      <c r="AF2" s="144"/>
-      <c r="AG2" s="152"/>
-      <c r="AH2" s="158"/>
-      <c r="AI2" s="146"/>
-      <c r="AJ2" s="146"/>
-      <c r="AK2" s="159"/>
-      <c r="AL2" s="163"/>
-      <c r="AM2" s="147"/>
-      <c r="AN2" s="164"/>
-      <c r="AO2" s="137"/>
+      <c r="B2" s="52"/>
+      <c r="Y2" s="163"/>
+      <c r="Z2" s="141"/>
+      <c r="AA2" s="141"/>
+      <c r="AB2" s="141"/>
+      <c r="AC2" s="141"/>
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="146"/>
+      <c r="AF2" s="146"/>
+      <c r="AG2" s="147"/>
+      <c r="AH2" s="154"/>
+      <c r="AI2" s="155"/>
+      <c r="AJ2" s="155"/>
+      <c r="AK2" s="156"/>
+      <c r="AL2" s="160"/>
+      <c r="AM2" s="161"/>
+      <c r="AN2" s="162"/>
+      <c r="AO2" s="140"/>
     </row>
-    <row r="3" spans="1:46" s="135" customFormat="1" ht="15.75" customHeight="1">
-      <c r="Y3" s="142"/>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="136"/>
-      <c r="AD3" s="151"/>
-      <c r="AE3" s="144"/>
-      <c r="AF3" s="144"/>
-      <c r="AG3" s="152"/>
-      <c r="AH3" s="158"/>
-      <c r="AI3" s="146"/>
-      <c r="AJ3" s="146"/>
-      <c r="AK3" s="159"/>
-      <c r="AL3" s="163"/>
-      <c r="AM3" s="147"/>
-      <c r="AN3" s="164"/>
-      <c r="AO3" s="137"/>
+    <row r="3" spans="1:46" s="53" customFormat="1" ht="15.75" customHeight="1">
+      <c r="Y3" s="163"/>
+      <c r="Z3" s="141"/>
+      <c r="AA3" s="141"/>
+      <c r="AB3" s="141"/>
+      <c r="AC3" s="141"/>
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="146"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="147"/>
+      <c r="AH3" s="154"/>
+      <c r="AI3" s="155"/>
+      <c r="AJ3" s="155"/>
+      <c r="AK3" s="156"/>
+      <c r="AL3" s="160"/>
+      <c r="AM3" s="161"/>
+      <c r="AN3" s="162"/>
+      <c r="AO3" s="140"/>
     </row>
-    <row r="4" spans="1:46" s="135" customFormat="1" ht="36.950000000000003" customHeight="1">
-      <c r="A4" s="134" t="s">
+    <row r="4" spans="1:46" s="53" customFormat="1" ht="36.950000000000003" customHeight="1">
+      <c r="A4" s="52" t="s">
         <v>346</v>
       </c>
-      <c r="B4" s="134"/>
-      <c r="Y4" s="143"/>
-      <c r="Z4" s="136"/>
-      <c r="AA4" s="136"/>
-      <c r="AB4" s="136"/>
-      <c r="AC4" s="136"/>
-      <c r="AD4" s="153"/>
-      <c r="AE4" s="145"/>
-      <c r="AF4" s="145"/>
-      <c r="AG4" s="154"/>
-      <c r="AH4" s="158"/>
-      <c r="AI4" s="146"/>
-      <c r="AJ4" s="146"/>
-      <c r="AK4" s="159"/>
-      <c r="AL4" s="163"/>
-      <c r="AM4" s="147"/>
-      <c r="AN4" s="164"/>
-      <c r="AO4" s="137"/>
+      <c r="B4" s="52"/>
+      <c r="Y4" s="164"/>
+      <c r="Z4" s="141"/>
+      <c r="AA4" s="141"/>
+      <c r="AB4" s="141"/>
+      <c r="AC4" s="141"/>
+      <c r="AD4" s="148"/>
+      <c r="AE4" s="149"/>
+      <c r="AF4" s="149"/>
+      <c r="AG4" s="150"/>
+      <c r="AH4" s="154"/>
+      <c r="AI4" s="155"/>
+      <c r="AJ4" s="155"/>
+      <c r="AK4" s="156"/>
+      <c r="AL4" s="160"/>
+      <c r="AM4" s="161"/>
+      <c r="AN4" s="162"/>
+      <c r="AO4" s="140"/>
     </row>
-    <row r="5" spans="1:46" s="141" customFormat="1" ht="122.25" customHeight="1">
+    <row r="5" spans="1:46" s="57" customFormat="1" ht="122.25" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -6306,10 +6274,10 @@
       <c r="X5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y5" s="138" t="s">
+      <c r="Y5" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="Z5" s="139" t="s">
+      <c r="Z5" s="55" t="s">
         <v>353</v>
       </c>
       <c r="AA5" s="47" t="s">
@@ -6357,32 +6325,31 @@
       <c r="AO5" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="AP5" s="140" t="s">
+      <c r="AP5" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="AQ5" s="140" t="s">
+      <c r="AQ5" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="AR5" s="140" t="s">
+      <c r="AR5" s="56" t="s">
         <v>98</v>
       </c>
       <c r="AS5" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AT5" s="139" t="s">
+      <c r="AT5" s="55" t="s">
         <v>361</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="Y1:Y4"/>
     <mergeCell ref="AO1:AO4"/>
     <mergeCell ref="Z1:AC4"/>
     <mergeCell ref="AD1:AG4"/>
     <mergeCell ref="AH1:AK4"/>
     <mergeCell ref="AL1:AN4"/>
-    <mergeCell ref="Y1:Y4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/static/documentos/chequeo_2017.xlsx
+++ b/static/documentos/chequeo_2017.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SISTEMAS\PycharmProjects\sican_2017\static\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355" xr2:uid="{8CBB1552-A8E8-456D-9753-EEF3C368F3D3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="InnovaTIC" sheetId="1" r:id="rId1"/>
     <sheet name="TecnoTIC" sheetId="2" r:id="rId2"/>
     <sheet name="DirecTIC" sheetId="3" r:id="rId3"/>
     <sheet name="EscuelaTIC" sheetId="4" r:id="rId4"/>
-    <sheet name="PuenteAranda" sheetId="5" r:id="rId5"/>
+    <sheet name="ESCUELATIC DOCENTES INNOVADORES" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -1170,7 +1170,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -2026,16 +2026,82 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2047,170 +2113,137 @@
     <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="22" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2237,37 +2270,10 @@
     <xf numFmtId="0" fontId="18" fillId="24" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="26" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="26" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2337,20 +2343,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="26" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="26" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{CF611238-52C8-4048-8ADB-EF78C4DDD06F}"/>
-    <cellStyle name="Normal 5" xfId="2" xr:uid="{40A71F70-B4A2-45DC-913C-BD7D02089E16}"/>
+    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 5" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2661,7 +2661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AA5E57-F210-4AB8-BD1D-1A708E7BCDFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CZ5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
@@ -2704,61 +2704,61 @@
       <c r="AW1" s="11"/>
       <c r="AX1" s="11"/>
       <c r="AY1" s="12"/>
-      <c r="AZ1" s="81" t="s">
+      <c r="AZ1" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="BA1" s="82"/>
-      <c r="BB1" s="82"/>
-      <c r="BC1" s="82"/>
-      <c r="BD1" s="82"/>
-      <c r="BE1" s="82"/>
-      <c r="BF1" s="82"/>
-      <c r="BG1" s="82"/>
-      <c r="BH1" s="82"/>
-      <c r="BI1" s="82"/>
-      <c r="BJ1" s="82"/>
-      <c r="BK1" s="82"/>
-      <c r="BL1" s="82"/>
-      <c r="BM1" s="82"/>
-      <c r="BN1" s="82"/>
-      <c r="BO1" s="82"/>
-      <c r="BP1" s="82"/>
-      <c r="BQ1" s="82"/>
-      <c r="BR1" s="82"/>
-      <c r="BS1" s="82"/>
-      <c r="BT1" s="82"/>
-      <c r="BU1" s="82"/>
-      <c r="BV1" s="83" t="s">
+      <c r="BA1" s="61"/>
+      <c r="BB1" s="61"/>
+      <c r="BC1" s="61"/>
+      <c r="BD1" s="61"/>
+      <c r="BE1" s="61"/>
+      <c r="BF1" s="61"/>
+      <c r="BG1" s="61"/>
+      <c r="BH1" s="61"/>
+      <c r="BI1" s="61"/>
+      <c r="BJ1" s="61"/>
+      <c r="BK1" s="61"/>
+      <c r="BL1" s="61"/>
+      <c r="BM1" s="61"/>
+      <c r="BN1" s="61"/>
+      <c r="BO1" s="61"/>
+      <c r="BP1" s="61"/>
+      <c r="BQ1" s="61"/>
+      <c r="BR1" s="61"/>
+      <c r="BS1" s="61"/>
+      <c r="BT1" s="61"/>
+      <c r="BU1" s="61"/>
+      <c r="BV1" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="BW1" s="82"/>
-      <c r="BX1" s="82"/>
-      <c r="BY1" s="82"/>
-      <c r="BZ1" s="82"/>
-      <c r="CA1" s="82"/>
-      <c r="CB1" s="82"/>
-      <c r="CC1" s="82"/>
-      <c r="CD1" s="82"/>
-      <c r="CE1" s="82"/>
-      <c r="CF1" s="82"/>
-      <c r="CG1" s="82"/>
-      <c r="CH1" s="82"/>
-      <c r="CI1" s="82"/>
-      <c r="CJ1" s="82"/>
-      <c r="CK1" s="82"/>
-      <c r="CL1" s="82"/>
-      <c r="CM1" s="82"/>
-      <c r="CN1" s="82"/>
-      <c r="CO1" s="84" t="s">
+      <c r="BW1" s="61"/>
+      <c r="BX1" s="61"/>
+      <c r="BY1" s="61"/>
+      <c r="BZ1" s="61"/>
+      <c r="CA1" s="61"/>
+      <c r="CB1" s="61"/>
+      <c r="CC1" s="61"/>
+      <c r="CD1" s="61"/>
+      <c r="CE1" s="61"/>
+      <c r="CF1" s="61"/>
+      <c r="CG1" s="61"/>
+      <c r="CH1" s="61"/>
+      <c r="CI1" s="61"/>
+      <c r="CJ1" s="61"/>
+      <c r="CK1" s="61"/>
+      <c r="CL1" s="61"/>
+      <c r="CM1" s="61"/>
+      <c r="CN1" s="61"/>
+      <c r="CO1" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="CP1" s="82"/>
-      <c r="CQ1" s="82"/>
-      <c r="CR1" s="82"/>
-      <c r="CS1" s="82"/>
-      <c r="CT1" s="82"/>
-      <c r="CU1" s="82"/>
-      <c r="CV1" s="82"/>
+      <c r="CP1" s="61"/>
+      <c r="CQ1" s="61"/>
+      <c r="CR1" s="61"/>
+      <c r="CS1" s="61"/>
+      <c r="CT1" s="61"/>
+      <c r="CU1" s="61"/>
+      <c r="CV1" s="61"/>
     </row>
     <row r="2" spans="1:104" ht="16.5">
       <c r="Y2" s="5" t="s">
@@ -2777,44 +2777,44 @@
       <c r="AF2" s="13"/>
       <c r="AG2" s="13"/>
       <c r="AH2" s="14"/>
-      <c r="AI2" s="85" t="s">
+      <c r="AI2" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="AJ2" s="86"/>
-      <c r="AK2" s="86"/>
-      <c r="AL2" s="86"/>
-      <c r="AM2" s="87"/>
-      <c r="AN2" s="85" t="s">
+      <c r="AJ2" s="65"/>
+      <c r="AK2" s="65"/>
+      <c r="AL2" s="65"/>
+      <c r="AM2" s="66"/>
+      <c r="AN2" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="AO2" s="86"/>
-      <c r="AP2" s="86"/>
-      <c r="AQ2" s="86"/>
-      <c r="AR2" s="86"/>
-      <c r="AS2" s="86"/>
-      <c r="AT2" s="87"/>
-      <c r="AU2" s="85" t="s">
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="65"/>
+      <c r="AQ2" s="65"/>
+      <c r="AR2" s="65"/>
+      <c r="AS2" s="65"/>
+      <c r="AT2" s="66"/>
+      <c r="AU2" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="AV2" s="86"/>
-      <c r="AW2" s="86"/>
-      <c r="AX2" s="86"/>
-      <c r="AY2" s="87"/>
-      <c r="AZ2" s="88" t="s">
+      <c r="AV2" s="65"/>
+      <c r="AW2" s="65"/>
+      <c r="AX2" s="65"/>
+      <c r="AY2" s="66"/>
+      <c r="AZ2" s="67" t="s">
         <v>107</v>
       </c>
       <c r="BA2" s="59"/>
       <c r="BB2" s="59"/>
       <c r="BC2" s="59"/>
       <c r="BD2" s="59"/>
-      <c r="BE2" s="88" t="s">
+      <c r="BE2" s="67" t="s">
         <v>108</v>
       </c>
       <c r="BF2" s="59"/>
       <c r="BG2" s="59"/>
       <c r="BH2" s="59"/>
       <c r="BI2" s="59"/>
-      <c r="BJ2" s="88" t="s">
+      <c r="BJ2" s="67" t="s">
         <v>109</v>
       </c>
       <c r="BK2" s="59"/>
@@ -2823,41 +2823,41 @@
       <c r="BN2" s="59"/>
       <c r="BO2" s="59"/>
       <c r="BP2" s="59"/>
-      <c r="BQ2" s="88" t="s">
+      <c r="BQ2" s="67" t="s">
         <v>110</v>
       </c>
       <c r="BR2" s="59"/>
       <c r="BS2" s="59"/>
       <c r="BT2" s="59"/>
       <c r="BU2" s="59"/>
-      <c r="BV2" s="88" t="s">
+      <c r="BV2" s="67" t="s">
         <v>107</v>
       </c>
       <c r="BW2" s="59"/>
       <c r="BX2" s="59"/>
       <c r="BY2" s="59"/>
       <c r="BZ2" s="59"/>
-      <c r="CA2" s="88" t="s">
+      <c r="CA2" s="67" t="s">
         <v>108</v>
       </c>
       <c r="CB2" s="59"/>
       <c r="CC2" s="59"/>
       <c r="CD2" s="59"/>
-      <c r="CE2" s="80" t="s">
+      <c r="CE2" s="58" t="s">
         <v>109</v>
       </c>
       <c r="CF2" s="59"/>
       <c r="CG2" s="59"/>
       <c r="CH2" s="59"/>
       <c r="CI2" s="59"/>
-      <c r="CJ2" s="80" t="s">
+      <c r="CJ2" s="58" t="s">
         <v>110</v>
       </c>
       <c r="CK2" s="59"/>
       <c r="CL2" s="59"/>
       <c r="CM2" s="59"/>
       <c r="CN2" s="59"/>
-      <c r="CO2" s="80" t="s">
+      <c r="CO2" s="58" t="s">
         <v>107</v>
       </c>
       <c r="CP2" s="59"/>
@@ -2865,7 +2865,7 @@
       <c r="CR2" s="59"/>
       <c r="CS2" s="59"/>
       <c r="CT2" s="59"/>
-      <c r="CU2" s="80" t="s">
+      <c r="CU2" s="58" t="s">
         <v>108</v>
       </c>
       <c r="CV2" s="59"/>
@@ -2874,57 +2874,57 @@
       <c r="Y3" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="Z3" s="77">
+      <c r="Z3" s="68">
         <v>0</v>
       </c>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="77">
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="68">
         <v>1</v>
       </c>
-      <c r="AD3" s="75"/>
+      <c r="AD3" s="69"/>
       <c r="AE3" s="15">
         <v>2</v>
       </c>
       <c r="AF3" s="16">
         <v>3</v>
       </c>
-      <c r="AG3" s="78">
+      <c r="AG3" s="70">
         <v>4</v>
       </c>
-      <c r="AH3" s="79"/>
+      <c r="AH3" s="71"/>
       <c r="AI3" s="16">
         <v>5</v>
       </c>
       <c r="AJ3" s="15">
         <v>6</v>
       </c>
-      <c r="AK3" s="74">
+      <c r="AK3" s="72">
         <v>7</v>
       </c>
-      <c r="AL3" s="75"/>
+      <c r="AL3" s="69"/>
       <c r="AM3" s="15">
         <v>8</v>
       </c>
-      <c r="AN3" s="74">
+      <c r="AN3" s="72">
         <v>9</v>
       </c>
-      <c r="AO3" s="77"/>
-      <c r="AP3" s="75"/>
+      <c r="AO3" s="68"/>
+      <c r="AP3" s="69"/>
       <c r="AQ3" s="15">
         <v>10</v>
       </c>
-      <c r="AR3" s="74">
+      <c r="AR3" s="72">
         <v>11</v>
       </c>
-      <c r="AS3" s="75"/>
+      <c r="AS3" s="69"/>
       <c r="AT3" s="15">
         <v>12</v>
       </c>
-      <c r="AU3" s="74">
+      <c r="AU3" s="72">
         <v>13</v>
       </c>
-      <c r="AV3" s="75"/>
+      <c r="AV3" s="69"/>
       <c r="AW3" s="15">
         <v>14</v>
       </c>
@@ -2934,7 +2934,7 @@
       <c r="AY3" s="15">
         <v>16</v>
       </c>
-      <c r="AZ3" s="76">
+      <c r="AZ3" s="78">
         <v>17</v>
       </c>
       <c r="BA3" s="59"/>
@@ -2947,23 +2947,23 @@
       <c r="BD3" s="15">
         <v>20</v>
       </c>
-      <c r="BE3" s="76">
+      <c r="BE3" s="78">
         <v>21</v>
       </c>
       <c r="BF3" s="59"/>
-      <c r="BG3" s="72">
+      <c r="BG3" s="76">
         <v>22</v>
       </c>
       <c r="BH3" s="59"/>
       <c r="BI3" s="16">
         <v>23</v>
       </c>
-      <c r="BJ3" s="72">
+      <c r="BJ3" s="76">
         <v>24</v>
       </c>
       <c r="BK3" s="59"/>
       <c r="BL3" s="59"/>
-      <c r="BM3" s="76">
+      <c r="BM3" s="78">
         <v>25</v>
       </c>
       <c r="BN3" s="59"/>
@@ -2973,7 +2973,7 @@
       <c r="BP3" s="16">
         <v>27</v>
       </c>
-      <c r="BQ3" s="71">
+      <c r="BQ3" s="75">
         <v>28</v>
       </c>
       <c r="BR3" s="59"/>
@@ -2986,18 +2986,18 @@
       <c r="BU3" s="17">
         <v>31</v>
       </c>
-      <c r="BV3" s="72">
+      <c r="BV3" s="76">
         <v>32</v>
       </c>
       <c r="BW3" s="59"/>
       <c r="BX3" s="16">
         <v>33</v>
       </c>
-      <c r="BY3" s="72">
+      <c r="BY3" s="76">
         <v>34</v>
       </c>
       <c r="BZ3" s="59"/>
-      <c r="CA3" s="73">
+      <c r="CA3" s="77">
         <v>35</v>
       </c>
       <c r="CB3" s="59"/>
@@ -3007,18 +3007,18 @@
       <c r="CD3" s="20">
         <v>37</v>
       </c>
-      <c r="CE3" s="64">
+      <c r="CE3" s="86">
         <v>38</v>
       </c>
       <c r="CF3" s="59"/>
       <c r="CG3" s="21">
         <v>39</v>
       </c>
-      <c r="CH3" s="64">
+      <c r="CH3" s="86">
         <v>40</v>
       </c>
       <c r="CI3" s="59"/>
-      <c r="CJ3" s="62">
+      <c r="CJ3" s="84">
         <v>41</v>
       </c>
       <c r="CK3" s="59"/>
@@ -3031,21 +3031,21 @@
       <c r="CN3" s="22">
         <v>44</v>
       </c>
-      <c r="CO3" s="62">
+      <c r="CO3" s="84">
         <v>45</v>
       </c>
       <c r="CP3" s="59"/>
       <c r="CQ3" s="22">
         <v>46</v>
       </c>
-      <c r="CR3" s="63">
+      <c r="CR3" s="85">
         <v>47</v>
       </c>
       <c r="CS3" s="59"/>
       <c r="CT3" s="21">
         <v>48</v>
       </c>
-      <c r="CU3" s="63">
+      <c r="CU3" s="85">
         <v>49</v>
       </c>
       <c r="CV3" s="59"/>
@@ -3054,57 +3054,57 @@
       <c r="Y4" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="Z4" s="65" t="s">
+      <c r="Z4" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65" t="s">
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="80"/>
+      <c r="AC4" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="AD4" s="65"/>
+      <c r="AD4" s="80"/>
       <c r="AE4" s="23" t="s">
         <v>115</v>
       </c>
       <c r="AF4" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="AG4" s="66" t="s">
+      <c r="AG4" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="AH4" s="67"/>
+      <c r="AH4" s="82"/>
       <c r="AI4" s="20" t="s">
         <v>118</v>
       </c>
       <c r="AJ4" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="AK4" s="68" t="s">
+      <c r="AK4" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="AL4" s="69"/>
+      <c r="AL4" s="74"/>
       <c r="AM4" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AN4" s="68" t="s">
+      <c r="AN4" s="73" t="s">
         <v>122</v>
       </c>
-      <c r="AO4" s="70"/>
-      <c r="AP4" s="69"/>
+      <c r="AO4" s="83"/>
+      <c r="AP4" s="74"/>
       <c r="AQ4" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="AR4" s="68" t="s">
+      <c r="AR4" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="AS4" s="69"/>
+      <c r="AS4" s="74"/>
       <c r="AT4" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="AU4" s="68" t="s">
+      <c r="AU4" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="AV4" s="69"/>
+      <c r="AV4" s="74"/>
       <c r="AW4" s="19" t="s">
         <v>127</v>
       </c>
@@ -3114,7 +3114,7 @@
       <c r="AY4" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="AZ4" s="61" t="s">
+      <c r="AZ4" s="79" t="s">
         <v>130</v>
       </c>
       <c r="BA4" s="59"/>
@@ -3127,23 +3127,23 @@
       <c r="BD4" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="BE4" s="61" t="s">
+      <c r="BE4" s="79" t="s">
         <v>134</v>
       </c>
       <c r="BF4" s="59"/>
-      <c r="BG4" s="60" t="s">
+      <c r="BG4" s="87" t="s">
         <v>135</v>
       </c>
       <c r="BH4" s="59"/>
       <c r="BI4" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="BJ4" s="60" t="s">
+      <c r="BJ4" s="87" t="s">
         <v>137</v>
       </c>
       <c r="BK4" s="59"/>
       <c r="BL4" s="59"/>
-      <c r="BM4" s="61" t="s">
+      <c r="BM4" s="79" t="s">
         <v>138</v>
       </c>
       <c r="BN4" s="59"/>
@@ -3153,7 +3153,7 @@
       <c r="BP4" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="BQ4" s="60" t="s">
+      <c r="BQ4" s="87" t="s">
         <v>141</v>
       </c>
       <c r="BR4" s="59"/>
@@ -3166,18 +3166,18 @@
       <c r="BU4" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="BV4" s="60" t="s">
+      <c r="BV4" s="87" t="s">
         <v>143</v>
       </c>
       <c r="BW4" s="59"/>
       <c r="BX4" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="BY4" s="60" t="s">
+      <c r="BY4" s="87" t="s">
         <v>145</v>
       </c>
       <c r="BZ4" s="59"/>
-      <c r="CA4" s="61" t="s">
+      <c r="CA4" s="79" t="s">
         <v>146</v>
       </c>
       <c r="CB4" s="59"/>
@@ -3187,18 +3187,18 @@
       <c r="CD4" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="CE4" s="60" t="s">
+      <c r="CE4" s="87" t="s">
         <v>149</v>
       </c>
       <c r="CF4" s="59"/>
       <c r="CG4" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="CH4" s="60" t="s">
+      <c r="CH4" s="87" t="s">
         <v>151</v>
       </c>
       <c r="CI4" s="59"/>
-      <c r="CJ4" s="61" t="s">
+      <c r="CJ4" s="79" t="s">
         <v>152</v>
       </c>
       <c r="CK4" s="59"/>
@@ -3211,21 +3211,21 @@
       <c r="CN4" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="CO4" s="61" t="s">
+      <c r="CO4" s="79" t="s">
         <v>153</v>
       </c>
       <c r="CP4" s="59"/>
       <c r="CQ4" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="CR4" s="58" t="s">
+      <c r="CR4" s="88" t="s">
         <v>155</v>
       </c>
       <c r="CS4" s="59"/>
       <c r="CT4" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="CU4" s="58" t="s">
+      <c r="CU4" s="88" t="s">
         <v>157</v>
       </c>
       <c r="CV4" s="59"/>
@@ -3546,6 +3546,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="CU4:CV4"/>
+    <mergeCell ref="BQ4:BR4"/>
+    <mergeCell ref="BV4:BW4"/>
+    <mergeCell ref="BY4:BZ4"/>
+    <mergeCell ref="CA4:CB4"/>
+    <mergeCell ref="CE4:CF4"/>
+    <mergeCell ref="CH4:CI4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="BJ4:BL4"/>
+    <mergeCell ref="CJ4:CK4"/>
+    <mergeCell ref="CO4:CP4"/>
+    <mergeCell ref="CR4:CS4"/>
+    <mergeCell ref="CJ3:CK3"/>
+    <mergeCell ref="CO3:CP3"/>
+    <mergeCell ref="CR3:CS3"/>
+    <mergeCell ref="CU3:CV3"/>
+    <mergeCell ref="CE3:CF3"/>
+    <mergeCell ref="CH3:CI3"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BV3:BW3"/>
+    <mergeCell ref="BY3:BZ3"/>
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AZ3:BA3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BJ3:BL3"/>
+    <mergeCell ref="BM3:BN3"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="CU2:CV2"/>
     <mergeCell ref="AZ1:BU1"/>
     <mergeCell ref="BV1:CN1"/>
@@ -3562,57 +3606,13 @@
     <mergeCell ref="CE2:CI2"/>
     <mergeCell ref="CJ2:CN2"/>
     <mergeCell ref="CO2:CT2"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BV3:BW3"/>
-    <mergeCell ref="BY3:BZ3"/>
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AZ3:BA3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BJ3:BL3"/>
-    <mergeCell ref="BM3:BN3"/>
-    <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AN4:AP4"/>
-    <mergeCell ref="CJ3:CK3"/>
-    <mergeCell ref="CO3:CP3"/>
-    <mergeCell ref="CR3:CS3"/>
-    <mergeCell ref="CU3:CV3"/>
-    <mergeCell ref="CE3:CF3"/>
-    <mergeCell ref="CH3:CI3"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="BJ4:BL4"/>
-    <mergeCell ref="CJ4:CK4"/>
-    <mergeCell ref="CO4:CP4"/>
-    <mergeCell ref="CR4:CS4"/>
-    <mergeCell ref="CU4:CV4"/>
-    <mergeCell ref="BQ4:BR4"/>
-    <mergeCell ref="BV4:BW4"/>
-    <mergeCell ref="BY4:BZ4"/>
-    <mergeCell ref="CA4:CB4"/>
-    <mergeCell ref="CE4:CF4"/>
-    <mergeCell ref="CH4:CI4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194F176E-6500-4FC0-AC21-B10F4D2AD356}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CP5"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
@@ -3630,7 +3630,7 @@
       </c>
       <c r="AA1" s="11"/>
       <c r="AB1" s="11"/>
-      <c r="AC1" s="97" t="s">
+      <c r="AC1" s="89" t="s">
         <v>102</v>
       </c>
       <c r="AD1" s="90"/>
@@ -3652,7 +3652,7 @@
       <c r="AT1" s="90"/>
       <c r="AU1" s="90"/>
       <c r="AV1" s="90"/>
-      <c r="AW1" s="98" t="s">
+      <c r="AW1" s="91" t="s">
         <v>103</v>
       </c>
       <c r="AX1" s="90"/>
@@ -3669,7 +3669,7 @@
       <c r="BI1" s="90"/>
       <c r="BJ1" s="90"/>
       <c r="BK1" s="90"/>
-      <c r="BL1" s="99" t="s">
+      <c r="BL1" s="92" t="s">
         <v>104</v>
       </c>
       <c r="BM1" s="90"/>
@@ -3688,7 +3688,7 @@
       <c r="BZ1" s="90"/>
       <c r="CA1" s="90"/>
       <c r="CB1" s="90"/>
-      <c r="CC1" s="100" t="s">
+      <c r="CC1" s="93" t="s">
         <v>206</v>
       </c>
       <c r="CD1" s="90"/>
@@ -3710,27 +3710,27 @@
       </c>
       <c r="AA2" s="13"/>
       <c r="AB2" s="13"/>
-      <c r="AC2" s="101" t="s">
+      <c r="AC2" s="94" t="s">
         <v>107</v>
       </c>
       <c r="AD2" s="90"/>
       <c r="AE2" s="90"/>
       <c r="AF2" s="90"/>
       <c r="AG2" s="90"/>
-      <c r="AH2" s="96" t="s">
+      <c r="AH2" s="95" t="s">
         <v>108</v>
       </c>
       <c r="AI2" s="90"/>
       <c r="AJ2" s="90"/>
       <c r="AK2" s="90"/>
-      <c r="AL2" s="96" t="s">
+      <c r="AL2" s="95" t="s">
         <v>109</v>
       </c>
       <c r="AM2" s="90"/>
       <c r="AN2" s="90"/>
       <c r="AO2" s="90"/>
       <c r="AP2" s="90"/>
-      <c r="AQ2" s="96" t="s">
+      <c r="AQ2" s="95" t="s">
         <v>207</v>
       </c>
       <c r="AR2" s="90"/>
@@ -3738,55 +3738,55 @@
       <c r="AT2" s="90"/>
       <c r="AU2" s="90"/>
       <c r="AV2" s="90"/>
-      <c r="AW2" s="96" t="s">
+      <c r="AW2" s="95" t="s">
         <v>208</v>
       </c>
       <c r="AX2" s="90"/>
       <c r="AY2" s="90"/>
       <c r="AZ2" s="90"/>
       <c r="BA2" s="90"/>
-      <c r="BB2" s="96" t="s">
+      <c r="BB2" s="95" t="s">
         <v>209</v>
       </c>
       <c r="BC2" s="90"/>
       <c r="BD2" s="90"/>
-      <c r="BE2" s="96" t="s">
+      <c r="BE2" s="95" t="s">
         <v>109</v>
       </c>
       <c r="BF2" s="90"/>
-      <c r="BG2" s="96" t="s">
+      <c r="BG2" s="95" t="s">
         <v>110</v>
       </c>
       <c r="BH2" s="90"/>
       <c r="BI2" s="90"/>
       <c r="BJ2" s="90"/>
       <c r="BK2" s="90"/>
-      <c r="BL2" s="96" t="s">
+      <c r="BL2" s="95" t="s">
         <v>210</v>
       </c>
       <c r="BM2" s="90"/>
       <c r="BN2" s="90"/>
       <c r="BO2" s="90"/>
-      <c r="BP2" s="96" t="s">
+      <c r="BP2" s="95" t="s">
         <v>209</v>
       </c>
       <c r="BQ2" s="90"/>
       <c r="BR2" s="90"/>
       <c r="BS2" s="90"/>
-      <c r="BT2" s="96" t="s">
+      <c r="BT2" s="95" t="s">
         <v>211</v>
       </c>
       <c r="BU2" s="90"/>
       <c r="BV2" s="90"/>
       <c r="BW2" s="90"/>
-      <c r="BX2" s="96" t="s">
+      <c r="BX2" s="95" t="s">
         <v>212</v>
       </c>
       <c r="BY2" s="90"/>
       <c r="BZ2" s="90"/>
       <c r="CA2" s="90"/>
       <c r="CB2" s="90"/>
-      <c r="CC2" s="96" t="s">
+      <c r="CC2" s="95" t="s">
         <v>107</v>
       </c>
       <c r="CD2" s="90"/>
@@ -3795,7 +3795,7 @@
       <c r="CG2" s="90"/>
       <c r="CH2" s="90"/>
       <c r="CI2" s="90"/>
-      <c r="CJ2" s="96" t="s">
+      <c r="CJ2" s="95" t="s">
         <v>209</v>
       </c>
       <c r="CK2" s="90"/>
@@ -3805,11 +3805,11 @@
       <c r="Y3" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="Z3" s="77">
+      <c r="Z3" s="68">
         <v>0</v>
       </c>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="77"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="68"/>
       <c r="AC3" s="26">
         <v>1</v>
       </c>
@@ -3825,7 +3825,7 @@
       <c r="AG3" s="27">
         <v>5</v>
       </c>
-      <c r="AH3" s="94">
+      <c r="AH3" s="96">
         <v>6</v>
       </c>
       <c r="AI3" s="90"/>
@@ -3835,11 +3835,11 @@
       <c r="AK3" s="27">
         <v>8</v>
       </c>
-      <c r="AL3" s="94">
+      <c r="AL3" s="96">
         <v>9</v>
       </c>
       <c r="AM3" s="90"/>
-      <c r="AN3" s="94">
+      <c r="AN3" s="96">
         <v>10</v>
       </c>
       <c r="AO3" s="90"/>
@@ -3849,7 +3849,7 @@
       <c r="AQ3" s="27">
         <v>12</v>
       </c>
-      <c r="AR3" s="94">
+      <c r="AR3" s="96">
         <v>13</v>
       </c>
       <c r="AS3" s="90"/>
@@ -3865,7 +3865,7 @@
       <c r="AW3" s="27">
         <v>17</v>
       </c>
-      <c r="AX3" s="94">
+      <c r="AX3" s="96">
         <v>18</v>
       </c>
       <c r="AY3" s="90"/>
@@ -3875,7 +3875,7 @@
       <c r="BA3" s="27">
         <v>20</v>
       </c>
-      <c r="BB3" s="94">
+      <c r="BB3" s="96">
         <v>21</v>
       </c>
       <c r="BC3" s="90"/>
@@ -3888,7 +3888,7 @@
       <c r="BF3" s="27">
         <v>24</v>
       </c>
-      <c r="BG3" s="94">
+      <c r="BG3" s="96">
         <v>25</v>
       </c>
       <c r="BH3" s="90"/>
@@ -3901,15 +3901,15 @@
       <c r="BK3" s="27">
         <v>28</v>
       </c>
-      <c r="BL3" s="94">
+      <c r="BL3" s="96">
         <v>29</v>
       </c>
       <c r="BM3" s="90"/>
-      <c r="BN3" s="94">
+      <c r="BN3" s="96">
         <v>30</v>
       </c>
       <c r="BO3" s="90"/>
-      <c r="BP3" s="94">
+      <c r="BP3" s="96">
         <v>31</v>
       </c>
       <c r="BQ3" s="90"/>
@@ -3917,15 +3917,15 @@
       <c r="BS3" s="27">
         <v>32</v>
       </c>
-      <c r="BT3" s="94">
+      <c r="BT3" s="96">
         <v>33</v>
       </c>
       <c r="BU3" s="90"/>
-      <c r="BV3" s="94">
+      <c r="BV3" s="96">
         <v>34</v>
       </c>
       <c r="BW3" s="90"/>
-      <c r="BX3" s="94">
+      <c r="BX3" s="96">
         <v>35</v>
       </c>
       <c r="BY3" s="90"/>
@@ -3938,7 +3938,7 @@
       <c r="CB3" s="27">
         <v>38</v>
       </c>
-      <c r="CC3" s="94">
+      <c r="CC3" s="96">
         <v>39</v>
       </c>
       <c r="CD3" s="90"/>
@@ -3949,11 +3949,11 @@
       <c r="CG3" s="27">
         <v>41</v>
       </c>
-      <c r="CH3" s="94">
+      <c r="CH3" s="96">
         <v>42</v>
       </c>
       <c r="CI3" s="90"/>
-      <c r="CJ3" s="94">
+      <c r="CJ3" s="96">
         <v>43</v>
       </c>
       <c r="CK3" s="90"/>
@@ -3963,11 +3963,11 @@
       <c r="Y4" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="Z4" s="65" t="s">
+      <c r="Z4" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="80"/>
       <c r="AC4" s="28" t="s">
         <v>213</v>
       </c>
@@ -3983,7 +3983,7 @@
       <c r="AG4" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="AH4" s="92" t="s">
+      <c r="AH4" s="97" t="s">
         <v>218</v>
       </c>
       <c r="AI4" s="90"/>
@@ -3993,11 +3993,11 @@
       <c r="AK4" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="AL4" s="91" t="s">
+      <c r="AL4" s="98" t="s">
         <v>221</v>
       </c>
       <c r="AM4" s="90"/>
-      <c r="AN4" s="92" t="s">
+      <c r="AN4" s="97" t="s">
         <v>222</v>
       </c>
       <c r="AO4" s="90"/>
@@ -4007,7 +4007,7 @@
       <c r="AQ4" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="AR4" s="95" t="s">
+      <c r="AR4" s="99" t="s">
         <v>126</v>
       </c>
       <c r="AS4" s="90"/>
@@ -4023,7 +4023,7 @@
       <c r="AW4" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="AX4" s="92" t="s">
+      <c r="AX4" s="97" t="s">
         <v>229</v>
       </c>
       <c r="AY4" s="90"/>
@@ -4033,7 +4033,7 @@
       <c r="BA4" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="BB4" s="91" t="s">
+      <c r="BB4" s="98" t="s">
         <v>232</v>
       </c>
       <c r="BC4" s="90"/>
@@ -4046,7 +4046,7 @@
       <c r="BF4" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="BG4" s="89" t="s">
+      <c r="BG4" s="100" t="s">
         <v>236</v>
       </c>
       <c r="BH4" s="90"/>
@@ -4059,15 +4059,15 @@
       <c r="BK4" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="BL4" s="89" t="s">
+      <c r="BL4" s="100" t="s">
         <v>240</v>
       </c>
       <c r="BM4" s="90"/>
-      <c r="BN4" s="92" t="s">
+      <c r="BN4" s="97" t="s">
         <v>241</v>
       </c>
       <c r="BO4" s="90"/>
-      <c r="BP4" s="91" t="s">
+      <c r="BP4" s="98" t="s">
         <v>242</v>
       </c>
       <c r="BQ4" s="90"/>
@@ -4075,15 +4075,15 @@
       <c r="BS4" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="BT4" s="91" t="s">
+      <c r="BT4" s="98" t="s">
         <v>244</v>
       </c>
       <c r="BU4" s="90"/>
-      <c r="BV4" s="93" t="s">
+      <c r="BV4" s="101" t="s">
         <v>245</v>
       </c>
       <c r="BW4" s="90"/>
-      <c r="BX4" s="89" t="s">
+      <c r="BX4" s="100" t="s">
         <v>246</v>
       </c>
       <c r="BY4" s="90"/>
@@ -4096,7 +4096,7 @@
       <c r="CB4" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="CC4" s="91" t="s">
+      <c r="CC4" s="98" t="s">
         <v>250</v>
       </c>
       <c r="CD4" s="90"/>
@@ -4107,11 +4107,11 @@
       <c r="CG4" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="CH4" s="92" t="s">
+      <c r="CH4" s="97" t="s">
         <v>253</v>
       </c>
       <c r="CI4" s="90"/>
-      <c r="CJ4" s="91" t="s">
+      <c r="CJ4" s="98" t="s">
         <v>254</v>
       </c>
       <c r="CK4" s="90"/>
@@ -4403,6 +4403,42 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="BX4:BY4"/>
+    <mergeCell ref="CC4:CE4"/>
+    <mergeCell ref="CH4:CI4"/>
+    <mergeCell ref="CJ4:CL4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="BL4:BM4"/>
+    <mergeCell ref="BN4:BO4"/>
+    <mergeCell ref="BP4:BR4"/>
+    <mergeCell ref="BT4:BU4"/>
+    <mergeCell ref="BV4:BW4"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CH3:CI3"/>
+    <mergeCell ref="CJ3:CL3"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AX4:AY4"/>
+    <mergeCell ref="BB4:BC4"/>
+    <mergeCell ref="BL3:BM3"/>
+    <mergeCell ref="BN3:BO3"/>
+    <mergeCell ref="BP3:BR3"/>
+    <mergeCell ref="BT3:BU3"/>
+    <mergeCell ref="BV3:BW3"/>
+    <mergeCell ref="BX3:BY3"/>
+    <mergeCell ref="AX3:AY3"/>
+    <mergeCell ref="BB3:BC3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="BG2:BK2"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AR3:AS3"/>
     <mergeCell ref="AC1:AV1"/>
     <mergeCell ref="AW1:BK1"/>
     <mergeCell ref="BL1:CB1"/>
@@ -4419,49 +4455,13 @@
     <mergeCell ref="BP2:BS2"/>
     <mergeCell ref="BT2:BW2"/>
     <mergeCell ref="BX2:CB2"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="AX3:AY3"/>
-    <mergeCell ref="BB3:BC3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="BG2:BK2"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CH3:CI3"/>
-    <mergeCell ref="CJ3:CL3"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AX4:AY4"/>
-    <mergeCell ref="BB4:BC4"/>
-    <mergeCell ref="BL3:BM3"/>
-    <mergeCell ref="BN3:BO3"/>
-    <mergeCell ref="BP3:BR3"/>
-    <mergeCell ref="BT3:BU3"/>
-    <mergeCell ref="BV3:BW3"/>
-    <mergeCell ref="BX3:BY3"/>
-    <mergeCell ref="BX4:BY4"/>
-    <mergeCell ref="CC4:CE4"/>
-    <mergeCell ref="CH4:CI4"/>
-    <mergeCell ref="CJ4:CL4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="BL4:BM4"/>
-    <mergeCell ref="BN4:BO4"/>
-    <mergeCell ref="BP4:BR4"/>
-    <mergeCell ref="BT4:BU4"/>
-    <mergeCell ref="BV4:BW4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73224DA-ADE2-469A-96E7-462919D85311}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CK5"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
@@ -4479,71 +4479,71 @@
       </c>
       <c r="AA1" s="11"/>
       <c r="AB1" s="11"/>
-      <c r="AC1" s="114">
+      <c r="AC1" s="102">
         <v>1</v>
       </c>
-      <c r="AD1" s="107"/>
-      <c r="AE1" s="107"/>
-      <c r="AF1" s="107"/>
-      <c r="AG1" s="107"/>
-      <c r="AH1" s="107"/>
-      <c r="AI1" s="107"/>
-      <c r="AJ1" s="107"/>
-      <c r="AK1" s="107"/>
-      <c r="AL1" s="107"/>
-      <c r="AM1" s="107"/>
-      <c r="AN1" s="107"/>
-      <c r="AO1" s="107"/>
-      <c r="AP1" s="107"/>
-      <c r="AQ1" s="107"/>
-      <c r="AR1" s="107"/>
-      <c r="AS1" s="107"/>
-      <c r="AT1" s="107"/>
-      <c r="AU1" s="107"/>
-      <c r="AV1" s="107"/>
-      <c r="AW1" s="107"/>
-      <c r="AX1" s="107"/>
-      <c r="AY1" s="107"/>
-      <c r="AZ1" s="115">
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="103"/>
+      <c r="AF1" s="103"/>
+      <c r="AG1" s="103"/>
+      <c r="AH1" s="103"/>
+      <c r="AI1" s="103"/>
+      <c r="AJ1" s="103"/>
+      <c r="AK1" s="103"/>
+      <c r="AL1" s="103"/>
+      <c r="AM1" s="103"/>
+      <c r="AN1" s="103"/>
+      <c r="AO1" s="103"/>
+      <c r="AP1" s="103"/>
+      <c r="AQ1" s="103"/>
+      <c r="AR1" s="103"/>
+      <c r="AS1" s="103"/>
+      <c r="AT1" s="103"/>
+      <c r="AU1" s="103"/>
+      <c r="AV1" s="103"/>
+      <c r="AW1" s="103"/>
+      <c r="AX1" s="103"/>
+      <c r="AY1" s="103"/>
+      <c r="AZ1" s="104">
         <v>2</v>
       </c>
-      <c r="BA1" s="107"/>
-      <c r="BB1" s="107"/>
-      <c r="BC1" s="107"/>
-      <c r="BD1" s="107"/>
-      <c r="BE1" s="107"/>
-      <c r="BF1" s="107"/>
-      <c r="BG1" s="107"/>
-      <c r="BH1" s="107"/>
-      <c r="BI1" s="107"/>
-      <c r="BJ1" s="107"/>
-      <c r="BK1" s="116">
+      <c r="BA1" s="103"/>
+      <c r="BB1" s="103"/>
+      <c r="BC1" s="103"/>
+      <c r="BD1" s="103"/>
+      <c r="BE1" s="103"/>
+      <c r="BF1" s="103"/>
+      <c r="BG1" s="103"/>
+      <c r="BH1" s="103"/>
+      <c r="BI1" s="103"/>
+      <c r="BJ1" s="103"/>
+      <c r="BK1" s="105">
         <v>3</v>
       </c>
-      <c r="BL1" s="107"/>
-      <c r="BM1" s="107"/>
-      <c r="BN1" s="107"/>
-      <c r="BO1" s="107"/>
-      <c r="BP1" s="107"/>
-      <c r="BQ1" s="107"/>
-      <c r="BR1" s="107"/>
-      <c r="BS1" s="107"/>
-      <c r="BT1" s="107"/>
-      <c r="BU1" s="107"/>
-      <c r="BV1" s="107"/>
-      <c r="BW1" s="107"/>
-      <c r="BX1" s="107"/>
-      <c r="BY1" s="107"/>
-      <c r="BZ1" s="107"/>
-      <c r="CA1" s="107"/>
-      <c r="CB1" s="117" t="s">
+      <c r="BL1" s="103"/>
+      <c r="BM1" s="103"/>
+      <c r="BN1" s="103"/>
+      <c r="BO1" s="103"/>
+      <c r="BP1" s="103"/>
+      <c r="BQ1" s="103"/>
+      <c r="BR1" s="103"/>
+      <c r="BS1" s="103"/>
+      <c r="BT1" s="103"/>
+      <c r="BU1" s="103"/>
+      <c r="BV1" s="103"/>
+      <c r="BW1" s="103"/>
+      <c r="BX1" s="103"/>
+      <c r="BY1" s="103"/>
+      <c r="BZ1" s="103"/>
+      <c r="CA1" s="103"/>
+      <c r="CB1" s="106" t="s">
         <v>206</v>
       </c>
-      <c r="CC1" s="107"/>
-      <c r="CD1" s="107"/>
-      <c r="CE1" s="107"/>
-      <c r="CF1" s="107"/>
-      <c r="CG1" s="107"/>
+      <c r="CC1" s="103"/>
+      <c r="CD1" s="103"/>
+      <c r="CE1" s="103"/>
+      <c r="CF1" s="103"/>
+      <c r="CG1" s="103"/>
     </row>
     <row r="2" spans="1:89" ht="16.5">
       <c r="Y2" s="5" t="s">
@@ -4554,217 +4554,217 @@
       </c>
       <c r="AA2" s="13"/>
       <c r="AB2" s="13"/>
-      <c r="AC2" s="118">
+      <c r="AC2" s="107">
         <v>1</v>
       </c>
-      <c r="AD2" s="107"/>
-      <c r="AE2" s="107"/>
-      <c r="AF2" s="112">
+      <c r="AD2" s="103"/>
+      <c r="AE2" s="103"/>
+      <c r="AF2" s="108">
         <v>2</v>
       </c>
-      <c r="AG2" s="107"/>
-      <c r="AH2" s="107"/>
-      <c r="AI2" s="111">
+      <c r="AG2" s="103"/>
+      <c r="AH2" s="103"/>
+      <c r="AI2" s="109">
         <v>3</v>
       </c>
-      <c r="AJ2" s="107"/>
-      <c r="AK2" s="107"/>
-      <c r="AL2" s="107"/>
-      <c r="AM2" s="112">
+      <c r="AJ2" s="103"/>
+      <c r="AK2" s="103"/>
+      <c r="AL2" s="103"/>
+      <c r="AM2" s="108">
         <v>4</v>
       </c>
-      <c r="AN2" s="107"/>
-      <c r="AO2" s="107"/>
-      <c r="AP2" s="107"/>
-      <c r="AQ2" s="107"/>
-      <c r="AR2" s="111">
+      <c r="AN2" s="103"/>
+      <c r="AO2" s="103"/>
+      <c r="AP2" s="103"/>
+      <c r="AQ2" s="103"/>
+      <c r="AR2" s="109">
         <v>5</v>
       </c>
-      <c r="AS2" s="107"/>
-      <c r="AT2" s="107"/>
-      <c r="AU2" s="107"/>
-      <c r="AV2" s="112">
+      <c r="AS2" s="103"/>
+      <c r="AT2" s="103"/>
+      <c r="AU2" s="103"/>
+      <c r="AV2" s="108">
         <v>6</v>
       </c>
-      <c r="AW2" s="107"/>
-      <c r="AX2" s="107"/>
-      <c r="AY2" s="107"/>
-      <c r="AZ2" s="111">
+      <c r="AW2" s="103"/>
+      <c r="AX2" s="103"/>
+      <c r="AY2" s="103"/>
+      <c r="AZ2" s="109">
         <v>1</v>
       </c>
-      <c r="BA2" s="107"/>
-      <c r="BB2" s="107"/>
-      <c r="BC2" s="107"/>
-      <c r="BD2" s="107"/>
-      <c r="BE2" s="112">
+      <c r="BA2" s="103"/>
+      <c r="BB2" s="103"/>
+      <c r="BC2" s="103"/>
+      <c r="BD2" s="103"/>
+      <c r="BE2" s="108">
         <v>2</v>
       </c>
-      <c r="BF2" s="107"/>
-      <c r="BG2" s="107"/>
-      <c r="BH2" s="111">
+      <c r="BF2" s="103"/>
+      <c r="BG2" s="103"/>
+      <c r="BH2" s="109">
         <v>3</v>
       </c>
-      <c r="BI2" s="107"/>
-      <c r="BJ2" s="107"/>
-      <c r="BK2" s="112">
+      <c r="BI2" s="103"/>
+      <c r="BJ2" s="103"/>
+      <c r="BK2" s="108">
         <v>1</v>
       </c>
-      <c r="BL2" s="107"/>
-      <c r="BM2" s="107"/>
-      <c r="BN2" s="107"/>
-      <c r="BO2" s="111">
+      <c r="BL2" s="103"/>
+      <c r="BM2" s="103"/>
+      <c r="BN2" s="103"/>
+      <c r="BO2" s="109">
         <v>2</v>
       </c>
-      <c r="BP2" s="107"/>
-      <c r="BQ2" s="107"/>
-      <c r="BR2" s="107"/>
-      <c r="BS2" s="112">
+      <c r="BP2" s="103"/>
+      <c r="BQ2" s="103"/>
+      <c r="BR2" s="103"/>
+      <c r="BS2" s="108">
         <v>3</v>
       </c>
-      <c r="BT2" s="107"/>
-      <c r="BU2" s="107"/>
-      <c r="BV2" s="107"/>
-      <c r="BW2" s="107"/>
-      <c r="BX2" s="111">
+      <c r="BT2" s="103"/>
+      <c r="BU2" s="103"/>
+      <c r="BV2" s="103"/>
+      <c r="BW2" s="103"/>
+      <c r="BX2" s="109">
         <v>4</v>
       </c>
-      <c r="BY2" s="107"/>
-      <c r="BZ2" s="107"/>
-      <c r="CA2" s="107"/>
-      <c r="CB2" s="112">
+      <c r="BY2" s="103"/>
+      <c r="BZ2" s="103"/>
+      <c r="CA2" s="103"/>
+      <c r="CB2" s="108">
         <v>1</v>
       </c>
-      <c r="CC2" s="107"/>
-      <c r="CD2" s="107"/>
-      <c r="CE2" s="111">
+      <c r="CC2" s="103"/>
+      <c r="CD2" s="103"/>
+      <c r="CE2" s="109">
         <v>2</v>
       </c>
-      <c r="CF2" s="107"/>
-      <c r="CG2" s="107"/>
+      <c r="CF2" s="103"/>
+      <c r="CG2" s="103"/>
     </row>
     <row r="3" spans="1:89" ht="26.25" customHeight="1">
       <c r="Y3" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="Z3" s="77">
+      <c r="Z3" s="68">
         <v>0</v>
       </c>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="113">
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="110">
         <v>1</v>
       </c>
-      <c r="AD3" s="107"/>
+      <c r="AD3" s="103"/>
       <c r="AE3" s="40">
         <v>2</v>
       </c>
-      <c r="AF3" s="108">
+      <c r="AF3" s="111">
         <v>3</v>
       </c>
-      <c r="AG3" s="107"/>
+      <c r="AG3" s="103"/>
       <c r="AH3" s="41">
         <v>4</v>
       </c>
-      <c r="AI3" s="105">
+      <c r="AI3" s="112">
         <v>5</v>
       </c>
-      <c r="AJ3" s="107"/>
-      <c r="AK3" s="107"/>
+      <c r="AJ3" s="103"/>
+      <c r="AK3" s="103"/>
       <c r="AL3" s="40">
         <v>6</v>
       </c>
-      <c r="AM3" s="110">
+      <c r="AM3" s="113">
         <v>7</v>
       </c>
-      <c r="AN3" s="107"/>
-      <c r="AO3" s="107"/>
-      <c r="AP3" s="110">
+      <c r="AN3" s="103"/>
+      <c r="AO3" s="103"/>
+      <c r="AP3" s="113">
         <v>8</v>
       </c>
-      <c r="AQ3" s="107"/>
-      <c r="AR3" s="105">
+      <c r="AQ3" s="103"/>
+      <c r="AR3" s="112">
         <v>9</v>
       </c>
-      <c r="AS3" s="107"/>
-      <c r="AT3" s="105">
+      <c r="AS3" s="103"/>
+      <c r="AT3" s="112">
         <v>10</v>
       </c>
-      <c r="AU3" s="107"/>
-      <c r="AV3" s="108">
+      <c r="AU3" s="103"/>
+      <c r="AV3" s="111">
         <v>11</v>
       </c>
-      <c r="AW3" s="107"/>
-      <c r="AX3" s="107"/>
+      <c r="AW3" s="103"/>
+      <c r="AX3" s="103"/>
       <c r="AY3" s="41">
         <v>12</v>
       </c>
-      <c r="AZ3" s="106">
+      <c r="AZ3" s="114">
         <v>13</v>
       </c>
-      <c r="BA3" s="107"/>
-      <c r="BB3" s="106">
+      <c r="BA3" s="103"/>
+      <c r="BB3" s="114">
         <v>14</v>
       </c>
-      <c r="BC3" s="107"/>
-      <c r="BD3" s="107"/>
-      <c r="BE3" s="108">
+      <c r="BC3" s="103"/>
+      <c r="BD3" s="103"/>
+      <c r="BE3" s="111">
         <v>15</v>
       </c>
-      <c r="BF3" s="107"/>
+      <c r="BF3" s="103"/>
       <c r="BG3" s="41">
         <v>16</v>
       </c>
-      <c r="BH3" s="106">
+      <c r="BH3" s="114">
         <v>17</v>
       </c>
-      <c r="BI3" s="107"/>
+      <c r="BI3" s="103"/>
       <c r="BJ3" s="40">
         <v>18</v>
       </c>
-      <c r="BK3" s="108">
+      <c r="BK3" s="111">
         <v>19</v>
       </c>
-      <c r="BL3" s="107"/>
-      <c r="BM3" s="107"/>
+      <c r="BL3" s="103"/>
+      <c r="BM3" s="103"/>
       <c r="BN3" s="41">
         <v>20</v>
       </c>
-      <c r="BO3" s="106">
+      <c r="BO3" s="114">
         <v>21</v>
       </c>
-      <c r="BP3" s="107"/>
-      <c r="BQ3" s="106">
+      <c r="BP3" s="103"/>
+      <c r="BQ3" s="114">
         <v>22</v>
       </c>
-      <c r="BR3" s="107"/>
-      <c r="BS3" s="108">
+      <c r="BR3" s="103"/>
+      <c r="BS3" s="111">
         <v>23</v>
       </c>
-      <c r="BT3" s="107"/>
-      <c r="BU3" s="107"/>
-      <c r="BV3" s="108">
+      <c r="BT3" s="103"/>
+      <c r="BU3" s="103"/>
+      <c r="BV3" s="111">
         <v>24</v>
       </c>
-      <c r="BW3" s="107"/>
-      <c r="BX3" s="106">
+      <c r="BW3" s="103"/>
+      <c r="BX3" s="114">
         <v>25</v>
       </c>
-      <c r="BY3" s="107"/>
-      <c r="BZ3" s="106">
+      <c r="BY3" s="103"/>
+      <c r="BZ3" s="114">
         <v>26</v>
       </c>
-      <c r="CA3" s="107"/>
-      <c r="CB3" s="108">
+      <c r="CA3" s="103"/>
+      <c r="CB3" s="111">
         <v>27</v>
       </c>
-      <c r="CC3" s="107"/>
+      <c r="CC3" s="103"/>
       <c r="CD3" s="41">
         <v>28</v>
       </c>
-      <c r="CE3" s="106">
+      <c r="CE3" s="114">
         <v>29</v>
       </c>
-      <c r="CF3" s="107"/>
+      <c r="CF3" s="103"/>
       <c r="CG3" s="42">
         <v>30</v>
       </c>
@@ -4773,125 +4773,125 @@
       <c r="Y4" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="Z4" s="65" t="s">
+      <c r="Z4" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="109" t="s">
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="80"/>
+      <c r="AC4" s="117" t="s">
         <v>295</v>
       </c>
-      <c r="AD4" s="103"/>
+      <c r="AD4" s="116"/>
       <c r="AE4" s="43" t="s">
         <v>296</v>
       </c>
-      <c r="AF4" s="104" t="s">
+      <c r="AF4" s="118" t="s">
         <v>297</v>
       </c>
-      <c r="AG4" s="103"/>
+      <c r="AG4" s="116"/>
       <c r="AH4" s="44" t="s">
         <v>298</v>
       </c>
-      <c r="AI4" s="105" t="s">
+      <c r="AI4" s="112" t="s">
         <v>299</v>
       </c>
-      <c r="AJ4" s="103"/>
-      <c r="AK4" s="103"/>
+      <c r="AJ4" s="116"/>
+      <c r="AK4" s="116"/>
       <c r="AL4" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="AM4" s="110" t="s">
+      <c r="AM4" s="113" t="s">
         <v>301</v>
       </c>
-      <c r="AN4" s="103"/>
-      <c r="AO4" s="103"/>
-      <c r="AP4" s="110" t="s">
+      <c r="AN4" s="116"/>
+      <c r="AO4" s="116"/>
+      <c r="AP4" s="113" t="s">
         <v>302</v>
       </c>
-      <c r="AQ4" s="103"/>
-      <c r="AR4" s="105" t="s">
+      <c r="AQ4" s="116"/>
+      <c r="AR4" s="112" t="s">
         <v>303</v>
       </c>
-      <c r="AS4" s="103"/>
-      <c r="AT4" s="105" t="s">
+      <c r="AS4" s="116"/>
+      <c r="AT4" s="112" t="s">
         <v>304</v>
       </c>
-      <c r="AU4" s="103"/>
-      <c r="AV4" s="104" t="s">
+      <c r="AU4" s="116"/>
+      <c r="AV4" s="118" t="s">
         <v>305</v>
       </c>
-      <c r="AW4" s="103"/>
-      <c r="AX4" s="103"/>
+      <c r="AW4" s="116"/>
+      <c r="AX4" s="116"/>
       <c r="AY4" s="44" t="s">
         <v>306</v>
       </c>
-      <c r="AZ4" s="102" t="s">
+      <c r="AZ4" s="115" t="s">
         <v>307</v>
       </c>
-      <c r="BA4" s="103"/>
-      <c r="BB4" s="102" t="s">
+      <c r="BA4" s="116"/>
+      <c r="BB4" s="115" t="s">
         <v>308</v>
       </c>
-      <c r="BC4" s="103"/>
-      <c r="BD4" s="103"/>
-      <c r="BE4" s="104" t="s">
+      <c r="BC4" s="116"/>
+      <c r="BD4" s="116"/>
+      <c r="BE4" s="118" t="s">
         <v>309</v>
       </c>
-      <c r="BF4" s="103"/>
+      <c r="BF4" s="116"/>
       <c r="BG4" s="44" t="s">
         <v>310</v>
       </c>
-      <c r="BH4" s="102" t="s">
+      <c r="BH4" s="115" t="s">
         <v>311</v>
       </c>
-      <c r="BI4" s="103"/>
+      <c r="BI4" s="116"/>
       <c r="BJ4" s="45" t="s">
         <v>312</v>
       </c>
-      <c r="BK4" s="104" t="s">
+      <c r="BK4" s="118" t="s">
         <v>313</v>
       </c>
-      <c r="BL4" s="103"/>
-      <c r="BM4" s="103"/>
+      <c r="BL4" s="116"/>
+      <c r="BM4" s="116"/>
       <c r="BN4" s="44" t="s">
         <v>314</v>
       </c>
-      <c r="BO4" s="102" t="s">
+      <c r="BO4" s="115" t="s">
         <v>315</v>
       </c>
-      <c r="BP4" s="103"/>
-      <c r="BQ4" s="102" t="s">
+      <c r="BP4" s="116"/>
+      <c r="BQ4" s="115" t="s">
         <v>316</v>
       </c>
-      <c r="BR4" s="103"/>
-      <c r="BS4" s="104" t="s">
+      <c r="BR4" s="116"/>
+      <c r="BS4" s="118" t="s">
         <v>317</v>
       </c>
-      <c r="BT4" s="103"/>
-      <c r="BU4" s="103"/>
-      <c r="BV4" s="104" t="s">
+      <c r="BT4" s="116"/>
+      <c r="BU4" s="116"/>
+      <c r="BV4" s="118" t="s">
         <v>318</v>
       </c>
-      <c r="BW4" s="103"/>
-      <c r="BX4" s="102" t="s">
+      <c r="BW4" s="116"/>
+      <c r="BX4" s="115" t="s">
         <v>319</v>
       </c>
-      <c r="BY4" s="103"/>
-      <c r="BZ4" s="102" t="s">
+      <c r="BY4" s="116"/>
+      <c r="BZ4" s="115" t="s">
         <v>320</v>
       </c>
-      <c r="CA4" s="103"/>
-      <c r="CB4" s="104" t="s">
+      <c r="CA4" s="116"/>
+      <c r="CB4" s="118" t="s">
         <v>321</v>
       </c>
-      <c r="CC4" s="103"/>
+      <c r="CC4" s="116"/>
       <c r="CD4" s="44" t="s">
         <v>322</v>
       </c>
-      <c r="CE4" s="102" t="s">
+      <c r="CE4" s="115" t="s">
         <v>323</v>
       </c>
-      <c r="CF4" s="103"/>
+      <c r="CF4" s="116"/>
       <c r="CG4" s="45" t="s">
         <v>324</v>
       </c>
@@ -5167,6 +5167,53 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="BZ4:CA4"/>
+    <mergeCell ref="CB4:CC4"/>
+    <mergeCell ref="CE4:CF4"/>
+    <mergeCell ref="BK4:BM4"/>
+    <mergeCell ref="BO4:BP4"/>
+    <mergeCell ref="BQ4:BR4"/>
+    <mergeCell ref="BS4:BU4"/>
+    <mergeCell ref="BV4:BW4"/>
+    <mergeCell ref="BX4:BY4"/>
+    <mergeCell ref="AT4:AU4"/>
+    <mergeCell ref="AV4:AX4"/>
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="BB4:BD4"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BH4:BI4"/>
+    <mergeCell ref="BZ3:CA3"/>
+    <mergeCell ref="CB3:CC3"/>
+    <mergeCell ref="CE3:CF3"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="AM4:AO4"/>
+    <mergeCell ref="AP4:AQ4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BO3:BP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BS3:BU3"/>
+    <mergeCell ref="BV3:BW3"/>
+    <mergeCell ref="BX3:BY3"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AZ3:BA3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BH3:BI3"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="AZ2:BD2"/>
+    <mergeCell ref="BE2:BG2"/>
+    <mergeCell ref="BH2:BJ2"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AM3:AO3"/>
     <mergeCell ref="AC1:AY1"/>
     <mergeCell ref="AZ1:BJ1"/>
     <mergeCell ref="BK1:CA1"/>
@@ -5183,60 +5230,13 @@
     <mergeCell ref="BK2:BN2"/>
     <mergeCell ref="BO2:BR2"/>
     <mergeCell ref="BS2:BW2"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AI3:AK3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="AZ2:BD2"/>
-    <mergeCell ref="BE2:BG2"/>
-    <mergeCell ref="BH2:BJ2"/>
-    <mergeCell ref="BX3:BY3"/>
-    <mergeCell ref="AT3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AZ3:BA3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BH3:BI3"/>
-    <mergeCell ref="BH4:BI4"/>
-    <mergeCell ref="BZ3:CA3"/>
-    <mergeCell ref="CB3:CC3"/>
-    <mergeCell ref="CE3:CF3"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="AM4:AO4"/>
-    <mergeCell ref="AP4:AQ4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BO3:BP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BS3:BU3"/>
-    <mergeCell ref="BV3:BW3"/>
-    <mergeCell ref="AT4:AU4"/>
-    <mergeCell ref="AV4:AX4"/>
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="BB4:BD4"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BZ4:CA4"/>
-    <mergeCell ref="CB4:CC4"/>
-    <mergeCell ref="CE4:CF4"/>
-    <mergeCell ref="BK4:BM4"/>
-    <mergeCell ref="BO4:BP4"/>
-    <mergeCell ref="BQ4:BR4"/>
-    <mergeCell ref="BS4:BU4"/>
-    <mergeCell ref="BV4:BW4"/>
-    <mergeCell ref="BX4:BY4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24DBF0F-D65B-4755-A123-E8481AA1923A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:YW5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5249,81 +5249,81 @@
       <c r="Y1" s="119" t="s">
         <v>336</v>
       </c>
-      <c r="Z1" s="121" t="s">
+      <c r="Z1" s="132" t="s">
         <v>337</v>
       </c>
-      <c r="AA1" s="122"/>
-      <c r="AB1" s="122"/>
-      <c r="AC1" s="123" t="s">
+      <c r="AA1" s="133"/>
+      <c r="AB1" s="133"/>
+      <c r="AC1" s="134" t="s">
         <v>338</v>
       </c>
-      <c r="AD1" s="124"/>
-      <c r="AE1" s="124"/>
-      <c r="AF1" s="124"/>
-      <c r="AG1" s="124"/>
-      <c r="AH1" s="124"/>
-      <c r="AI1" s="124"/>
-      <c r="AJ1" s="124"/>
-      <c r="AK1" s="124"/>
+      <c r="AD1" s="135"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="135"/>
+      <c r="AG1" s="135"/>
+      <c r="AH1" s="135"/>
+      <c r="AI1" s="135"/>
+      <c r="AJ1" s="135"/>
+      <c r="AK1" s="135"/>
     </row>
     <row r="2" spans="1:673" ht="18">
       <c r="Y2" s="120"/>
-      <c r="Z2" s="125" t="s">
+      <c r="Z2" s="136" t="s">
         <v>339</v>
       </c>
-      <c r="AA2" s="126"/>
-      <c r="AB2" s="126"/>
-      <c r="AC2" s="127" t="s">
+      <c r="AA2" s="137"/>
+      <c r="AB2" s="137"/>
+      <c r="AC2" s="138" t="s">
         <v>339</v>
       </c>
-      <c r="AD2" s="128"/>
-      <c r="AE2" s="128"/>
-      <c r="AF2" s="128"/>
-      <c r="AG2" s="128"/>
-      <c r="AH2" s="128"/>
-      <c r="AI2" s="128"/>
-      <c r="AJ2" s="128"/>
-      <c r="AK2" s="128"/>
+      <c r="AD2" s="139"/>
+      <c r="AE2" s="139"/>
+      <c r="AF2" s="139"/>
+      <c r="AG2" s="139"/>
+      <c r="AH2" s="139"/>
+      <c r="AI2" s="139"/>
+      <c r="AJ2" s="139"/>
+      <c r="AK2" s="139"/>
     </row>
     <row r="3" spans="1:673" ht="18">
       <c r="Y3" s="119" t="s">
         <v>112</v>
       </c>
-      <c r="Z3" s="129" t="s">
+      <c r="Z3" s="121" t="s">
         <v>340</v>
       </c>
-      <c r="AA3" s="130"/>
-      <c r="AB3" s="130"/>
-      <c r="AC3" s="131" t="s">
+      <c r="AA3" s="122"/>
+      <c r="AB3" s="122"/>
+      <c r="AC3" s="123" t="s">
         <v>341</v>
       </c>
-      <c r="AD3" s="132"/>
-      <c r="AE3" s="132"/>
-      <c r="AF3" s="132"/>
-      <c r="AG3" s="135" t="s">
+      <c r="AD3" s="124"/>
+      <c r="AE3" s="124"/>
+      <c r="AF3" s="124"/>
+      <c r="AG3" s="127" t="s">
         <v>342</v>
       </c>
-      <c r="AH3" s="136"/>
-      <c r="AI3" s="136"/>
-      <c r="AJ3" s="136"/>
-      <c r="AK3" s="136"/>
+      <c r="AH3" s="128"/>
+      <c r="AI3" s="128"/>
+      <c r="AJ3" s="128"/>
+      <c r="AK3" s="128"/>
     </row>
     <row r="4" spans="1:673" ht="18">
       <c r="Y4" s="120"/>
-      <c r="Z4" s="139" t="s">
+      <c r="Z4" s="131" t="s">
         <v>343</v>
       </c>
-      <c r="AA4" s="134"/>
-      <c r="AB4" s="134"/>
-      <c r="AC4" s="133"/>
-      <c r="AD4" s="134"/>
-      <c r="AE4" s="134"/>
-      <c r="AF4" s="134"/>
-      <c r="AG4" s="137"/>
-      <c r="AH4" s="138"/>
-      <c r="AI4" s="138"/>
-      <c r="AJ4" s="138"/>
-      <c r="AK4" s="138"/>
+      <c r="AA4" s="126"/>
+      <c r="AB4" s="126"/>
+      <c r="AC4" s="125"/>
+      <c r="AD4" s="126"/>
+      <c r="AE4" s="126"/>
+      <c r="AF4" s="126"/>
+      <c r="AG4" s="129"/>
+      <c r="AH4" s="130"/>
+      <c r="AI4" s="130"/>
+      <c r="AJ4" s="130"/>
+      <c r="AK4" s="130"/>
     </row>
     <row r="5" spans="1:673" s="51" customFormat="1" ht="105.75" customHeight="1">
       <c r="A5" s="35" t="s">
@@ -6076,23 +6076,23 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AK1"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AK2"/>
     <mergeCell ref="Y3:Y4"/>
     <mergeCell ref="Z3:AB3"/>
     <mergeCell ref="AC3:AF4"/>
     <mergeCell ref="AG3:AK4"/>
     <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AK1"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AK2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A9B0B9-FB03-4F01-AD7B-D680759B4C23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -6106,33 +6106,33 @@
         <v>344</v>
       </c>
       <c r="B1" s="52"/>
-      <c r="Y1" s="163" t="s">
+      <c r="Y1" s="140" t="s">
         <v>347</v>
       </c>
-      <c r="Z1" s="141" t="s">
+      <c r="Z1" s="143" t="s">
         <v>348</v>
       </c>
-      <c r="AA1" s="141"/>
-      <c r="AB1" s="141"/>
-      <c r="AC1" s="141"/>
-      <c r="AD1" s="142" t="s">
+      <c r="AA1" s="143"/>
+      <c r="AB1" s="143"/>
+      <c r="AC1" s="143"/>
+      <c r="AD1" s="144" t="s">
         <v>349</v>
       </c>
-      <c r="AE1" s="143"/>
-      <c r="AF1" s="143"/>
-      <c r="AG1" s="144"/>
-      <c r="AH1" s="151" t="s">
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="145"/>
+      <c r="AG1" s="146"/>
+      <c r="AH1" s="153" t="s">
         <v>350</v>
       </c>
-      <c r="AI1" s="152"/>
-      <c r="AJ1" s="152"/>
-      <c r="AK1" s="153"/>
-      <c r="AL1" s="157" t="s">
+      <c r="AI1" s="154"/>
+      <c r="AJ1" s="154"/>
+      <c r="AK1" s="155"/>
+      <c r="AL1" s="159" t="s">
         <v>351</v>
       </c>
-      <c r="AM1" s="158"/>
-      <c r="AN1" s="159"/>
-      <c r="AO1" s="140" t="s">
+      <c r="AM1" s="160"/>
+      <c r="AN1" s="161"/>
+      <c r="AO1" s="142" t="s">
         <v>352</v>
       </c>
     </row>
@@ -6141,65 +6141,65 @@
         <v>345</v>
       </c>
       <c r="B2" s="52"/>
-      <c r="Y2" s="163"/>
-      <c r="Z2" s="141"/>
-      <c r="AA2" s="141"/>
-      <c r="AB2" s="141"/>
-      <c r="AC2" s="141"/>
-      <c r="AD2" s="145"/>
-      <c r="AE2" s="146"/>
-      <c r="AF2" s="146"/>
-      <c r="AG2" s="147"/>
-      <c r="AH2" s="154"/>
-      <c r="AI2" s="155"/>
-      <c r="AJ2" s="155"/>
-      <c r="AK2" s="156"/>
-      <c r="AL2" s="160"/>
-      <c r="AM2" s="161"/>
-      <c r="AN2" s="162"/>
-      <c r="AO2" s="140"/>
+      <c r="Y2" s="140"/>
+      <c r="Z2" s="143"/>
+      <c r="AA2" s="143"/>
+      <c r="AB2" s="143"/>
+      <c r="AC2" s="143"/>
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="148"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="149"/>
+      <c r="AH2" s="156"/>
+      <c r="AI2" s="157"/>
+      <c r="AJ2" s="157"/>
+      <c r="AK2" s="158"/>
+      <c r="AL2" s="162"/>
+      <c r="AM2" s="163"/>
+      <c r="AN2" s="164"/>
+      <c r="AO2" s="142"/>
     </row>
     <row r="3" spans="1:46" s="53" customFormat="1" ht="15.75" customHeight="1">
-      <c r="Y3" s="163"/>
-      <c r="Z3" s="141"/>
-      <c r="AA3" s="141"/>
-      <c r="AB3" s="141"/>
-      <c r="AC3" s="141"/>
-      <c r="AD3" s="145"/>
-      <c r="AE3" s="146"/>
-      <c r="AF3" s="146"/>
-      <c r="AG3" s="147"/>
-      <c r="AH3" s="154"/>
-      <c r="AI3" s="155"/>
-      <c r="AJ3" s="155"/>
-      <c r="AK3" s="156"/>
-      <c r="AL3" s="160"/>
-      <c r="AM3" s="161"/>
-      <c r="AN3" s="162"/>
-      <c r="AO3" s="140"/>
+      <c r="Y3" s="140"/>
+      <c r="Z3" s="143"/>
+      <c r="AA3" s="143"/>
+      <c r="AB3" s="143"/>
+      <c r="AC3" s="143"/>
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="148"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="149"/>
+      <c r="AH3" s="156"/>
+      <c r="AI3" s="157"/>
+      <c r="AJ3" s="157"/>
+      <c r="AK3" s="158"/>
+      <c r="AL3" s="162"/>
+      <c r="AM3" s="163"/>
+      <c r="AN3" s="164"/>
+      <c r="AO3" s="142"/>
     </row>
     <row r="4" spans="1:46" s="53" customFormat="1" ht="36.950000000000003" customHeight="1">
       <c r="A4" s="52" t="s">
         <v>346</v>
       </c>
       <c r="B4" s="52"/>
-      <c r="Y4" s="164"/>
-      <c r="Z4" s="141"/>
-      <c r="AA4" s="141"/>
-      <c r="AB4" s="141"/>
-      <c r="AC4" s="141"/>
-      <c r="AD4" s="148"/>
-      <c r="AE4" s="149"/>
-      <c r="AF4" s="149"/>
-      <c r="AG4" s="150"/>
-      <c r="AH4" s="154"/>
-      <c r="AI4" s="155"/>
-      <c r="AJ4" s="155"/>
-      <c r="AK4" s="156"/>
-      <c r="AL4" s="160"/>
-      <c r="AM4" s="161"/>
-      <c r="AN4" s="162"/>
-      <c r="AO4" s="140"/>
+      <c r="Y4" s="141"/>
+      <c r="Z4" s="143"/>
+      <c r="AA4" s="143"/>
+      <c r="AB4" s="143"/>
+      <c r="AC4" s="143"/>
+      <c r="AD4" s="150"/>
+      <c r="AE4" s="151"/>
+      <c r="AF4" s="151"/>
+      <c r="AG4" s="152"/>
+      <c r="AH4" s="156"/>
+      <c r="AI4" s="157"/>
+      <c r="AJ4" s="157"/>
+      <c r="AK4" s="158"/>
+      <c r="AL4" s="162"/>
+      <c r="AM4" s="163"/>
+      <c r="AN4" s="164"/>
+      <c r="AO4" s="142"/>
     </row>
     <row r="5" spans="1:46" s="57" customFormat="1" ht="122.25" customHeight="1">
       <c r="A5" s="1" t="s">

--- a/static/documentos/chequeo_2017.xlsx
+++ b/static/documentos/chequeo_2017.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SISTEMAS\PycharmProjects\sican_2017\static\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="InnovaTIC" sheetId="1" r:id="rId1"/>
     <sheet name="TecnoTIC" sheetId="2" r:id="rId2"/>
     <sheet name="DirecTIC" sheetId="3" r:id="rId3"/>
-    <sheet name="EscuelaTIC" sheetId="4" r:id="rId4"/>
-    <sheet name="ESCUELATIC DOCENTES INNOVADORES" sheetId="5" r:id="rId5"/>
+    <sheet name="DocenTIC" sheetId="6" r:id="rId4"/>
+    <sheet name="EscuelaTIC" sheetId="4" r:id="rId5"/>
+    <sheet name="ESCUELATIC DOCENTES INNOVADORES" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="406">
   <si>
     <t>REGION</t>
   </si>
@@ -1165,6 +1166,122 @@
   <si>
     <t>Mapa Mental Digital realizado en Mindmeister
 (jpg/pdf)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIVEL </t>
+  </si>
+  <si>
+    <t>1.Diagnóstico de las competencias de los estudiantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.LEstructuración del Proyecto Educativo en TIC </t>
+  </si>
+  <si>
+    <t>3. Ejecución y evaluación del Proyecto Educativo TIC.</t>
+  </si>
+  <si>
+    <t>4. Socialización</t>
+  </si>
+  <si>
+    <t>1. Sensibilización de los docentes</t>
+  </si>
+  <si>
+    <t>2. Uso de Plataformas Educativas y REDAS</t>
+  </si>
+  <si>
+    <t>3. Diseño y aplicación de pruebas.</t>
+  </si>
+  <si>
+    <t>4. Formulación del Proyecto Educativo TIC (Pregunta y objetivos)</t>
+  </si>
+  <si>
+    <t>1. Estructuración del proyecto</t>
+  </si>
+  <si>
+    <t>2. Cierre del nivel.</t>
+  </si>
+  <si>
+    <t>1. Preparando la ejecución.</t>
+  </si>
+  <si>
+    <t>2.  Ejecución del proyecto.</t>
+  </si>
+  <si>
+    <t>3. Rúbricas, evaluación y cierre del Nivel</t>
+  </si>
+  <si>
+    <t>1. Preparando la socialización del Proyecto Educativo TIC.</t>
+  </si>
+  <si>
+    <t>2. Uso responsable de las TIC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Discutiendo sobre TIC y medio ambiente.  </t>
+  </si>
+  <si>
+    <t>4. Aprendiendo de la experiencia de mis compañeros en eventos nacionales.</t>
+  </si>
+  <si>
+    <t>5. Comparto mi experiencia con mi comunidad educativa</t>
+  </si>
+  <si>
+    <t>1. Conociendo el contenido del diplomado.
+2. Conociendo la plataforma educativa Blackboard y portales educativos</t>
+  </si>
+  <si>
+    <t>5. Evaluando los Recursos Educativos Digitales Abiertos (REDA)</t>
+  </si>
+  <si>
+    <t>8. Valorando la secuencia didactica de mi clase y la de mis pares.
+9. Explorando y diseñando a partir de pruebas estadarizadas (SABER, SABER 11 y PISA)</t>
+  </si>
+  <si>
+    <t>12. Formulando un Proyecto Educativo en TIC</t>
+  </si>
+  <si>
+    <t>18. Fundamentando conceptos del Nivel 1</t>
+  </si>
+  <si>
+    <t>23.Valorando las actividades de una secuencia didactica.
+24.Evaluando sus competencias adquiridas del Nivel 2 .</t>
+  </si>
+  <si>
+    <t>27. Generando actividades participativas y constructivas en el Proyecto Educativo TIC</t>
+  </si>
+  <si>
+    <t>30. Reflexionando para ajustar y mejorar la actividad bajo un enfoque socioconstructivista</t>
+  </si>
+  <si>
+    <t>33¿Cómo realizar rúbricas o rejillas de evaluación para Proyectos Educativos TIC?
+34.Evaluación formativa (auto, co y heteroevaluación) del Proyecto Educativo TIC a través de rejillas.
+35.Realimentación final.</t>
+  </si>
+  <si>
+    <t>39. Preparando la presentación del Proyecto final.</t>
+  </si>
+  <si>
+    <t>41. Compartiendo el Proyecto Educativo TIC a través de redes sociales</t>
+  </si>
+  <si>
+    <t>43.  Conociendo la gestión de los  Residuos de Aparatos Eléctricos y Electrónicos  (RAEE)</t>
+  </si>
+  <si>
+    <t>45. Realizar  y asistir al evento Educa Digital, regional y nacional articulado con el evento de la oficina de innovación del Ministerio de Educación Nacional</t>
+  </si>
+  <si>
+    <t>46. Comparto con mi comunidad educativa</t>
+  </si>
+  <si>
+    <t>MODALIDAD</t>
+  </si>
+  <si>
+    <t>Presencial</t>
+  </si>
+  <si>
+    <t>Virtual</t>
+  </si>
+  <si>
+    <t>DOCENTES CON DIPLOMADO APROBADO</t>
   </si>
 </sst>
 </file>
@@ -1175,7 +1292,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1308,8 +1425,45 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="32">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1494,6 +1648,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
         <bgColor rgb="FFBDD7EE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1847,7 +2007,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2026,12 +2186,75 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2056,73 +2279,31 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2135,33 +2316,45 @@
     <xf numFmtId="0" fontId="7" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2174,76 +2367,10 @@
     <xf numFmtId="0" fontId="14" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="22" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2270,6 +2397,39 @@
     <xf numFmtId="0" fontId="18" fillId="24" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="5" fillId="26" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2344,6 +2504,75 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="26" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="26" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2664,7 +2893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CZ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -2704,61 +2933,61 @@
       <c r="AW1" s="11"/>
       <c r="AX1" s="11"/>
       <c r="AY1" s="12"/>
-      <c r="AZ1" s="60" t="s">
+      <c r="AZ1" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="BA1" s="61"/>
-      <c r="BB1" s="61"/>
-      <c r="BC1" s="61"/>
-      <c r="BD1" s="61"/>
-      <c r="BE1" s="61"/>
-      <c r="BF1" s="61"/>
-      <c r="BG1" s="61"/>
-      <c r="BH1" s="61"/>
-      <c r="BI1" s="61"/>
-      <c r="BJ1" s="61"/>
-      <c r="BK1" s="61"/>
-      <c r="BL1" s="61"/>
-      <c r="BM1" s="61"/>
-      <c r="BN1" s="61"/>
-      <c r="BO1" s="61"/>
-      <c r="BP1" s="61"/>
-      <c r="BQ1" s="61"/>
-      <c r="BR1" s="61"/>
-      <c r="BS1" s="61"/>
-      <c r="BT1" s="61"/>
-      <c r="BU1" s="61"/>
-      <c r="BV1" s="62" t="s">
+      <c r="BA1" s="82"/>
+      <c r="BB1" s="82"/>
+      <c r="BC1" s="82"/>
+      <c r="BD1" s="82"/>
+      <c r="BE1" s="82"/>
+      <c r="BF1" s="82"/>
+      <c r="BG1" s="82"/>
+      <c r="BH1" s="82"/>
+      <c r="BI1" s="82"/>
+      <c r="BJ1" s="82"/>
+      <c r="BK1" s="82"/>
+      <c r="BL1" s="82"/>
+      <c r="BM1" s="82"/>
+      <c r="BN1" s="82"/>
+      <c r="BO1" s="82"/>
+      <c r="BP1" s="82"/>
+      <c r="BQ1" s="82"/>
+      <c r="BR1" s="82"/>
+      <c r="BS1" s="82"/>
+      <c r="BT1" s="82"/>
+      <c r="BU1" s="82"/>
+      <c r="BV1" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="BW1" s="61"/>
-      <c r="BX1" s="61"/>
-      <c r="BY1" s="61"/>
-      <c r="BZ1" s="61"/>
-      <c r="CA1" s="61"/>
-      <c r="CB1" s="61"/>
-      <c r="CC1" s="61"/>
-      <c r="CD1" s="61"/>
-      <c r="CE1" s="61"/>
-      <c r="CF1" s="61"/>
-      <c r="CG1" s="61"/>
-      <c r="CH1" s="61"/>
-      <c r="CI1" s="61"/>
-      <c r="CJ1" s="61"/>
-      <c r="CK1" s="61"/>
-      <c r="CL1" s="61"/>
-      <c r="CM1" s="61"/>
-      <c r="CN1" s="61"/>
-      <c r="CO1" s="63" t="s">
+      <c r="BW1" s="82"/>
+      <c r="BX1" s="82"/>
+      <c r="BY1" s="82"/>
+      <c r="BZ1" s="82"/>
+      <c r="CA1" s="82"/>
+      <c r="CB1" s="82"/>
+      <c r="CC1" s="82"/>
+      <c r="CD1" s="82"/>
+      <c r="CE1" s="82"/>
+      <c r="CF1" s="82"/>
+      <c r="CG1" s="82"/>
+      <c r="CH1" s="82"/>
+      <c r="CI1" s="82"/>
+      <c r="CJ1" s="82"/>
+      <c r="CK1" s="82"/>
+      <c r="CL1" s="82"/>
+      <c r="CM1" s="82"/>
+      <c r="CN1" s="82"/>
+      <c r="CO1" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="CP1" s="61"/>
-      <c r="CQ1" s="61"/>
-      <c r="CR1" s="61"/>
-      <c r="CS1" s="61"/>
-      <c r="CT1" s="61"/>
-      <c r="CU1" s="61"/>
-      <c r="CV1" s="61"/>
+      <c r="CP1" s="82"/>
+      <c r="CQ1" s="82"/>
+      <c r="CR1" s="82"/>
+      <c r="CS1" s="82"/>
+      <c r="CT1" s="82"/>
+      <c r="CU1" s="82"/>
+      <c r="CV1" s="82"/>
     </row>
     <row r="2" spans="1:104" ht="16.5">
       <c r="Y2" s="5" t="s">
@@ -2777,44 +3006,44 @@
       <c r="AF2" s="13"/>
       <c r="AG2" s="13"/>
       <c r="AH2" s="14"/>
-      <c r="AI2" s="64" t="s">
+      <c r="AI2" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="AJ2" s="65"/>
-      <c r="AK2" s="65"/>
-      <c r="AL2" s="65"/>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="64" t="s">
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="86"/>
+      <c r="AL2" s="86"/>
+      <c r="AM2" s="87"/>
+      <c r="AN2" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="65"/>
-      <c r="AQ2" s="65"/>
-      <c r="AR2" s="65"/>
-      <c r="AS2" s="65"/>
-      <c r="AT2" s="66"/>
-      <c r="AU2" s="64" t="s">
+      <c r="AO2" s="86"/>
+      <c r="AP2" s="86"/>
+      <c r="AQ2" s="86"/>
+      <c r="AR2" s="86"/>
+      <c r="AS2" s="86"/>
+      <c r="AT2" s="87"/>
+      <c r="AU2" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="AV2" s="65"/>
-      <c r="AW2" s="65"/>
-      <c r="AX2" s="65"/>
-      <c r="AY2" s="66"/>
-      <c r="AZ2" s="67" t="s">
+      <c r="AV2" s="86"/>
+      <c r="AW2" s="86"/>
+      <c r="AX2" s="86"/>
+      <c r="AY2" s="87"/>
+      <c r="AZ2" s="88" t="s">
         <v>107</v>
       </c>
       <c r="BA2" s="59"/>
       <c r="BB2" s="59"/>
       <c r="BC2" s="59"/>
       <c r="BD2" s="59"/>
-      <c r="BE2" s="67" t="s">
+      <c r="BE2" s="88" t="s">
         <v>108</v>
       </c>
       <c r="BF2" s="59"/>
       <c r="BG2" s="59"/>
       <c r="BH2" s="59"/>
       <c r="BI2" s="59"/>
-      <c r="BJ2" s="67" t="s">
+      <c r="BJ2" s="88" t="s">
         <v>109</v>
       </c>
       <c r="BK2" s="59"/>
@@ -2823,41 +3052,41 @@
       <c r="BN2" s="59"/>
       <c r="BO2" s="59"/>
       <c r="BP2" s="59"/>
-      <c r="BQ2" s="67" t="s">
+      <c r="BQ2" s="88" t="s">
         <v>110</v>
       </c>
       <c r="BR2" s="59"/>
       <c r="BS2" s="59"/>
       <c r="BT2" s="59"/>
       <c r="BU2" s="59"/>
-      <c r="BV2" s="67" t="s">
+      <c r="BV2" s="88" t="s">
         <v>107</v>
       </c>
       <c r="BW2" s="59"/>
       <c r="BX2" s="59"/>
       <c r="BY2" s="59"/>
       <c r="BZ2" s="59"/>
-      <c r="CA2" s="67" t="s">
+      <c r="CA2" s="88" t="s">
         <v>108</v>
       </c>
       <c r="CB2" s="59"/>
       <c r="CC2" s="59"/>
       <c r="CD2" s="59"/>
-      <c r="CE2" s="58" t="s">
+      <c r="CE2" s="80" t="s">
         <v>109</v>
       </c>
       <c r="CF2" s="59"/>
       <c r="CG2" s="59"/>
       <c r="CH2" s="59"/>
       <c r="CI2" s="59"/>
-      <c r="CJ2" s="58" t="s">
+      <c r="CJ2" s="80" t="s">
         <v>110</v>
       </c>
       <c r="CK2" s="59"/>
       <c r="CL2" s="59"/>
       <c r="CM2" s="59"/>
       <c r="CN2" s="59"/>
-      <c r="CO2" s="58" t="s">
+      <c r="CO2" s="80" t="s">
         <v>107</v>
       </c>
       <c r="CP2" s="59"/>
@@ -2865,7 +3094,7 @@
       <c r="CR2" s="59"/>
       <c r="CS2" s="59"/>
       <c r="CT2" s="59"/>
-      <c r="CU2" s="58" t="s">
+      <c r="CU2" s="80" t="s">
         <v>108</v>
       </c>
       <c r="CV2" s="59"/>
@@ -2874,57 +3103,57 @@
       <c r="Y3" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="Z3" s="68">
+      <c r="Z3" s="77">
         <v>0</v>
       </c>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68">
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="77">
         <v>1</v>
       </c>
-      <c r="AD3" s="69"/>
+      <c r="AD3" s="75"/>
       <c r="AE3" s="15">
         <v>2</v>
       </c>
       <c r="AF3" s="16">
         <v>3</v>
       </c>
-      <c r="AG3" s="70">
+      <c r="AG3" s="78">
         <v>4</v>
       </c>
-      <c r="AH3" s="71"/>
+      <c r="AH3" s="79"/>
       <c r="AI3" s="16">
         <v>5</v>
       </c>
       <c r="AJ3" s="15">
         <v>6</v>
       </c>
-      <c r="AK3" s="72">
+      <c r="AK3" s="74">
         <v>7</v>
       </c>
-      <c r="AL3" s="69"/>
+      <c r="AL3" s="75"/>
       <c r="AM3" s="15">
         <v>8</v>
       </c>
-      <c r="AN3" s="72">
+      <c r="AN3" s="74">
         <v>9</v>
       </c>
-      <c r="AO3" s="68"/>
-      <c r="AP3" s="69"/>
+      <c r="AO3" s="77"/>
+      <c r="AP3" s="75"/>
       <c r="AQ3" s="15">
         <v>10</v>
       </c>
-      <c r="AR3" s="72">
+      <c r="AR3" s="74">
         <v>11</v>
       </c>
-      <c r="AS3" s="69"/>
+      <c r="AS3" s="75"/>
       <c r="AT3" s="15">
         <v>12</v>
       </c>
-      <c r="AU3" s="72">
+      <c r="AU3" s="74">
         <v>13</v>
       </c>
-      <c r="AV3" s="69"/>
+      <c r="AV3" s="75"/>
       <c r="AW3" s="15">
         <v>14</v>
       </c>
@@ -2934,7 +3163,7 @@
       <c r="AY3" s="15">
         <v>16</v>
       </c>
-      <c r="AZ3" s="78">
+      <c r="AZ3" s="76">
         <v>17</v>
       </c>
       <c r="BA3" s="59"/>
@@ -2947,23 +3176,23 @@
       <c r="BD3" s="15">
         <v>20</v>
       </c>
-      <c r="BE3" s="78">
+      <c r="BE3" s="76">
         <v>21</v>
       </c>
       <c r="BF3" s="59"/>
-      <c r="BG3" s="76">
+      <c r="BG3" s="72">
         <v>22</v>
       </c>
       <c r="BH3" s="59"/>
       <c r="BI3" s="16">
         <v>23</v>
       </c>
-      <c r="BJ3" s="76">
+      <c r="BJ3" s="72">
         <v>24</v>
       </c>
       <c r="BK3" s="59"/>
       <c r="BL3" s="59"/>
-      <c r="BM3" s="78">
+      <c r="BM3" s="76">
         <v>25</v>
       </c>
       <c r="BN3" s="59"/>
@@ -2973,7 +3202,7 @@
       <c r="BP3" s="16">
         <v>27</v>
       </c>
-      <c r="BQ3" s="75">
+      <c r="BQ3" s="71">
         <v>28</v>
       </c>
       <c r="BR3" s="59"/>
@@ -2986,18 +3215,18 @@
       <c r="BU3" s="17">
         <v>31</v>
       </c>
-      <c r="BV3" s="76">
+      <c r="BV3" s="72">
         <v>32</v>
       </c>
       <c r="BW3" s="59"/>
       <c r="BX3" s="16">
         <v>33</v>
       </c>
-      <c r="BY3" s="76">
+      <c r="BY3" s="72">
         <v>34</v>
       </c>
       <c r="BZ3" s="59"/>
-      <c r="CA3" s="77">
+      <c r="CA3" s="73">
         <v>35</v>
       </c>
       <c r="CB3" s="59"/>
@@ -3007,18 +3236,18 @@
       <c r="CD3" s="20">
         <v>37</v>
       </c>
-      <c r="CE3" s="86">
+      <c r="CE3" s="64">
         <v>38</v>
       </c>
       <c r="CF3" s="59"/>
       <c r="CG3" s="21">
         <v>39</v>
       </c>
-      <c r="CH3" s="86">
+      <c r="CH3" s="64">
         <v>40</v>
       </c>
       <c r="CI3" s="59"/>
-      <c r="CJ3" s="84">
+      <c r="CJ3" s="62">
         <v>41</v>
       </c>
       <c r="CK3" s="59"/>
@@ -3031,21 +3260,21 @@
       <c r="CN3" s="22">
         <v>44</v>
       </c>
-      <c r="CO3" s="84">
+      <c r="CO3" s="62">
         <v>45</v>
       </c>
       <c r="CP3" s="59"/>
       <c r="CQ3" s="22">
         <v>46</v>
       </c>
-      <c r="CR3" s="85">
+      <c r="CR3" s="63">
         <v>47</v>
       </c>
       <c r="CS3" s="59"/>
       <c r="CT3" s="21">
         <v>48</v>
       </c>
-      <c r="CU3" s="85">
+      <c r="CU3" s="63">
         <v>49</v>
       </c>
       <c r="CV3" s="59"/>
@@ -3054,57 +3283,57 @@
       <c r="Y4" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="Z4" s="80" t="s">
+      <c r="Z4" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="AA4" s="80"/>
-      <c r="AB4" s="80"/>
-      <c r="AC4" s="80" t="s">
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="AD4" s="80"/>
+      <c r="AD4" s="65"/>
       <c r="AE4" s="23" t="s">
         <v>115</v>
       </c>
       <c r="AF4" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="AG4" s="81" t="s">
+      <c r="AG4" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="AH4" s="82"/>
+      <c r="AH4" s="67"/>
       <c r="AI4" s="20" t="s">
         <v>118</v>
       </c>
       <c r="AJ4" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="AK4" s="73" t="s">
+      <c r="AK4" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="AL4" s="74"/>
+      <c r="AL4" s="69"/>
       <c r="AM4" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AN4" s="73" t="s">
+      <c r="AN4" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="AO4" s="83"/>
-      <c r="AP4" s="74"/>
+      <c r="AO4" s="70"/>
+      <c r="AP4" s="69"/>
       <c r="AQ4" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="AR4" s="73" t="s">
+      <c r="AR4" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="AS4" s="74"/>
+      <c r="AS4" s="69"/>
       <c r="AT4" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="AU4" s="73" t="s">
+      <c r="AU4" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="AV4" s="74"/>
+      <c r="AV4" s="69"/>
       <c r="AW4" s="19" t="s">
         <v>127</v>
       </c>
@@ -3114,7 +3343,7 @@
       <c r="AY4" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="AZ4" s="79" t="s">
+      <c r="AZ4" s="61" t="s">
         <v>130</v>
       </c>
       <c r="BA4" s="59"/>
@@ -3127,23 +3356,23 @@
       <c r="BD4" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="BE4" s="79" t="s">
+      <c r="BE4" s="61" t="s">
         <v>134</v>
       </c>
       <c r="BF4" s="59"/>
-      <c r="BG4" s="87" t="s">
+      <c r="BG4" s="60" t="s">
         <v>135</v>
       </c>
       <c r="BH4" s="59"/>
       <c r="BI4" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="BJ4" s="87" t="s">
+      <c r="BJ4" s="60" t="s">
         <v>137</v>
       </c>
       <c r="BK4" s="59"/>
       <c r="BL4" s="59"/>
-      <c r="BM4" s="79" t="s">
+      <c r="BM4" s="61" t="s">
         <v>138</v>
       </c>
       <c r="BN4" s="59"/>
@@ -3153,7 +3382,7 @@
       <c r="BP4" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="BQ4" s="87" t="s">
+      <c r="BQ4" s="60" t="s">
         <v>141</v>
       </c>
       <c r="BR4" s="59"/>
@@ -3166,18 +3395,18 @@
       <c r="BU4" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="BV4" s="87" t="s">
+      <c r="BV4" s="60" t="s">
         <v>143</v>
       </c>
       <c r="BW4" s="59"/>
       <c r="BX4" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="BY4" s="87" t="s">
+      <c r="BY4" s="60" t="s">
         <v>145</v>
       </c>
       <c r="BZ4" s="59"/>
-      <c r="CA4" s="79" t="s">
+      <c r="CA4" s="61" t="s">
         <v>146</v>
       </c>
       <c r="CB4" s="59"/>
@@ -3187,18 +3416,18 @@
       <c r="CD4" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="CE4" s="87" t="s">
+      <c r="CE4" s="60" t="s">
         <v>149</v>
       </c>
       <c r="CF4" s="59"/>
       <c r="CG4" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="CH4" s="87" t="s">
+      <c r="CH4" s="60" t="s">
         <v>151</v>
       </c>
       <c r="CI4" s="59"/>
-      <c r="CJ4" s="79" t="s">
+      <c r="CJ4" s="61" t="s">
         <v>152</v>
       </c>
       <c r="CK4" s="59"/>
@@ -3211,21 +3440,21 @@
       <c r="CN4" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="CO4" s="79" t="s">
+      <c r="CO4" s="61" t="s">
         <v>153</v>
       </c>
       <c r="CP4" s="59"/>
       <c r="CQ4" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="CR4" s="88" t="s">
+      <c r="CR4" s="58" t="s">
         <v>155</v>
       </c>
       <c r="CS4" s="59"/>
       <c r="CT4" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="CU4" s="88" t="s">
+      <c r="CU4" s="58" t="s">
         <v>157</v>
       </c>
       <c r="CV4" s="59"/>
@@ -3546,29 +3775,27 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="CU4:CV4"/>
-    <mergeCell ref="BQ4:BR4"/>
-    <mergeCell ref="BV4:BW4"/>
-    <mergeCell ref="BY4:BZ4"/>
-    <mergeCell ref="CA4:CB4"/>
-    <mergeCell ref="CE4:CF4"/>
-    <mergeCell ref="CH4:CI4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="BJ4:BL4"/>
-    <mergeCell ref="CJ4:CK4"/>
-    <mergeCell ref="CO4:CP4"/>
-    <mergeCell ref="CR4:CS4"/>
-    <mergeCell ref="CJ3:CK3"/>
-    <mergeCell ref="CO3:CP3"/>
-    <mergeCell ref="CR3:CS3"/>
-    <mergeCell ref="CU3:CV3"/>
-    <mergeCell ref="CE3:CF3"/>
-    <mergeCell ref="CH3:CI3"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="CU2:CV2"/>
+    <mergeCell ref="AZ1:BU1"/>
+    <mergeCell ref="BV1:CN1"/>
+    <mergeCell ref="CO1:CV1"/>
+    <mergeCell ref="AI2:AM2"/>
+    <mergeCell ref="AN2:AT2"/>
+    <mergeCell ref="AU2:AY2"/>
+    <mergeCell ref="AZ2:BD2"/>
+    <mergeCell ref="BE2:BI2"/>
+    <mergeCell ref="BJ2:BP2"/>
+    <mergeCell ref="BQ2:BU2"/>
+    <mergeCell ref="BV2:BZ2"/>
+    <mergeCell ref="CA2:CD2"/>
+    <mergeCell ref="CE2:CI2"/>
+    <mergeCell ref="CJ2:CN2"/>
+    <mergeCell ref="CO2:CT2"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="AR4:AS4"/>
     <mergeCell ref="BQ3:BR3"/>
     <mergeCell ref="BV3:BW3"/>
@@ -3585,27 +3812,29 @@
     <mergeCell ref="AU4:AV4"/>
     <mergeCell ref="AZ4:BA4"/>
     <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="CU2:CV2"/>
-    <mergeCell ref="AZ1:BU1"/>
-    <mergeCell ref="BV1:CN1"/>
-    <mergeCell ref="CO1:CV1"/>
-    <mergeCell ref="AI2:AM2"/>
-    <mergeCell ref="AN2:AT2"/>
-    <mergeCell ref="AU2:AY2"/>
-    <mergeCell ref="AZ2:BD2"/>
-    <mergeCell ref="BE2:BI2"/>
-    <mergeCell ref="BJ2:BP2"/>
-    <mergeCell ref="BQ2:BU2"/>
-    <mergeCell ref="BV2:BZ2"/>
-    <mergeCell ref="CA2:CD2"/>
-    <mergeCell ref="CE2:CI2"/>
-    <mergeCell ref="CJ2:CN2"/>
-    <mergeCell ref="CO2:CT2"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="CJ3:CK3"/>
+    <mergeCell ref="CO3:CP3"/>
+    <mergeCell ref="CR3:CS3"/>
+    <mergeCell ref="CU3:CV3"/>
+    <mergeCell ref="CE3:CF3"/>
+    <mergeCell ref="CH3:CI3"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="BJ4:BL4"/>
+    <mergeCell ref="CJ4:CK4"/>
+    <mergeCell ref="CO4:CP4"/>
+    <mergeCell ref="CR4:CS4"/>
+    <mergeCell ref="CU4:CV4"/>
+    <mergeCell ref="BQ4:BR4"/>
+    <mergeCell ref="BV4:BW4"/>
+    <mergeCell ref="BY4:BZ4"/>
+    <mergeCell ref="CA4:CB4"/>
+    <mergeCell ref="CE4:CF4"/>
+    <mergeCell ref="CH4:CI4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3630,7 +3859,7 @@
       </c>
       <c r="AA1" s="11"/>
       <c r="AB1" s="11"/>
-      <c r="AC1" s="89" t="s">
+      <c r="AC1" s="97" t="s">
         <v>102</v>
       </c>
       <c r="AD1" s="90"/>
@@ -3652,7 +3881,7 @@
       <c r="AT1" s="90"/>
       <c r="AU1" s="90"/>
       <c r="AV1" s="90"/>
-      <c r="AW1" s="91" t="s">
+      <c r="AW1" s="98" t="s">
         <v>103</v>
       </c>
       <c r="AX1" s="90"/>
@@ -3669,7 +3898,7 @@
       <c r="BI1" s="90"/>
       <c r="BJ1" s="90"/>
       <c r="BK1" s="90"/>
-      <c r="BL1" s="92" t="s">
+      <c r="BL1" s="99" t="s">
         <v>104</v>
       </c>
       <c r="BM1" s="90"/>
@@ -3688,7 +3917,7 @@
       <c r="BZ1" s="90"/>
       <c r="CA1" s="90"/>
       <c r="CB1" s="90"/>
-      <c r="CC1" s="93" t="s">
+      <c r="CC1" s="100" t="s">
         <v>206</v>
       </c>
       <c r="CD1" s="90"/>
@@ -3710,27 +3939,27 @@
       </c>
       <c r="AA2" s="13"/>
       <c r="AB2" s="13"/>
-      <c r="AC2" s="94" t="s">
+      <c r="AC2" s="101" t="s">
         <v>107</v>
       </c>
       <c r="AD2" s="90"/>
       <c r="AE2" s="90"/>
       <c r="AF2" s="90"/>
       <c r="AG2" s="90"/>
-      <c r="AH2" s="95" t="s">
+      <c r="AH2" s="96" t="s">
         <v>108</v>
       </c>
       <c r="AI2" s="90"/>
       <c r="AJ2" s="90"/>
       <c r="AK2" s="90"/>
-      <c r="AL2" s="95" t="s">
+      <c r="AL2" s="96" t="s">
         <v>109</v>
       </c>
       <c r="AM2" s="90"/>
       <c r="AN2" s="90"/>
       <c r="AO2" s="90"/>
       <c r="AP2" s="90"/>
-      <c r="AQ2" s="95" t="s">
+      <c r="AQ2" s="96" t="s">
         <v>207</v>
       </c>
       <c r="AR2" s="90"/>
@@ -3738,55 +3967,55 @@
       <c r="AT2" s="90"/>
       <c r="AU2" s="90"/>
       <c r="AV2" s="90"/>
-      <c r="AW2" s="95" t="s">
+      <c r="AW2" s="96" t="s">
         <v>208</v>
       </c>
       <c r="AX2" s="90"/>
       <c r="AY2" s="90"/>
       <c r="AZ2" s="90"/>
       <c r="BA2" s="90"/>
-      <c r="BB2" s="95" t="s">
+      <c r="BB2" s="96" t="s">
         <v>209</v>
       </c>
       <c r="BC2" s="90"/>
       <c r="BD2" s="90"/>
-      <c r="BE2" s="95" t="s">
+      <c r="BE2" s="96" t="s">
         <v>109</v>
       </c>
       <c r="BF2" s="90"/>
-      <c r="BG2" s="95" t="s">
+      <c r="BG2" s="96" t="s">
         <v>110</v>
       </c>
       <c r="BH2" s="90"/>
       <c r="BI2" s="90"/>
       <c r="BJ2" s="90"/>
       <c r="BK2" s="90"/>
-      <c r="BL2" s="95" t="s">
+      <c r="BL2" s="96" t="s">
         <v>210</v>
       </c>
       <c r="BM2" s="90"/>
       <c r="BN2" s="90"/>
       <c r="BO2" s="90"/>
-      <c r="BP2" s="95" t="s">
+      <c r="BP2" s="96" t="s">
         <v>209</v>
       </c>
       <c r="BQ2" s="90"/>
       <c r="BR2" s="90"/>
       <c r="BS2" s="90"/>
-      <c r="BT2" s="95" t="s">
+      <c r="BT2" s="96" t="s">
         <v>211</v>
       </c>
       <c r="BU2" s="90"/>
       <c r="BV2" s="90"/>
       <c r="BW2" s="90"/>
-      <c r="BX2" s="95" t="s">
+      <c r="BX2" s="96" t="s">
         <v>212</v>
       </c>
       <c r="BY2" s="90"/>
       <c r="BZ2" s="90"/>
       <c r="CA2" s="90"/>
       <c r="CB2" s="90"/>
-      <c r="CC2" s="95" t="s">
+      <c r="CC2" s="96" t="s">
         <v>107</v>
       </c>
       <c r="CD2" s="90"/>
@@ -3795,7 +4024,7 @@
       <c r="CG2" s="90"/>
       <c r="CH2" s="90"/>
       <c r="CI2" s="90"/>
-      <c r="CJ2" s="95" t="s">
+      <c r="CJ2" s="96" t="s">
         <v>209</v>
       </c>
       <c r="CK2" s="90"/>
@@ -3805,11 +4034,11 @@
       <c r="Y3" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="Z3" s="68">
+      <c r="Z3" s="77">
         <v>0</v>
       </c>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="68"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77"/>
       <c r="AC3" s="26">
         <v>1</v>
       </c>
@@ -3825,7 +4054,7 @@
       <c r="AG3" s="27">
         <v>5</v>
       </c>
-      <c r="AH3" s="96">
+      <c r="AH3" s="94">
         <v>6</v>
       </c>
       <c r="AI3" s="90"/>
@@ -3835,11 +4064,11 @@
       <c r="AK3" s="27">
         <v>8</v>
       </c>
-      <c r="AL3" s="96">
+      <c r="AL3" s="94">
         <v>9</v>
       </c>
       <c r="AM3" s="90"/>
-      <c r="AN3" s="96">
+      <c r="AN3" s="94">
         <v>10</v>
       </c>
       <c r="AO3" s="90"/>
@@ -3849,7 +4078,7 @@
       <c r="AQ3" s="27">
         <v>12</v>
       </c>
-      <c r="AR3" s="96">
+      <c r="AR3" s="94">
         <v>13</v>
       </c>
       <c r="AS3" s="90"/>
@@ -3865,7 +4094,7 @@
       <c r="AW3" s="27">
         <v>17</v>
       </c>
-      <c r="AX3" s="96">
+      <c r="AX3" s="94">
         <v>18</v>
       </c>
       <c r="AY3" s="90"/>
@@ -3875,7 +4104,7 @@
       <c r="BA3" s="27">
         <v>20</v>
       </c>
-      <c r="BB3" s="96">
+      <c r="BB3" s="94">
         <v>21</v>
       </c>
       <c r="BC3" s="90"/>
@@ -3888,7 +4117,7 @@
       <c r="BF3" s="27">
         <v>24</v>
       </c>
-      <c r="BG3" s="96">
+      <c r="BG3" s="94">
         <v>25</v>
       </c>
       <c r="BH3" s="90"/>
@@ -3901,15 +4130,15 @@
       <c r="BK3" s="27">
         <v>28</v>
       </c>
-      <c r="BL3" s="96">
+      <c r="BL3" s="94">
         <v>29</v>
       </c>
       <c r="BM3" s="90"/>
-      <c r="BN3" s="96">
+      <c r="BN3" s="94">
         <v>30</v>
       </c>
       <c r="BO3" s="90"/>
-      <c r="BP3" s="96">
+      <c r="BP3" s="94">
         <v>31</v>
       </c>
       <c r="BQ3" s="90"/>
@@ -3917,15 +4146,15 @@
       <c r="BS3" s="27">
         <v>32</v>
       </c>
-      <c r="BT3" s="96">
+      <c r="BT3" s="94">
         <v>33</v>
       </c>
       <c r="BU3" s="90"/>
-      <c r="BV3" s="96">
+      <c r="BV3" s="94">
         <v>34</v>
       </c>
       <c r="BW3" s="90"/>
-      <c r="BX3" s="96">
+      <c r="BX3" s="94">
         <v>35</v>
       </c>
       <c r="BY3" s="90"/>
@@ -3938,7 +4167,7 @@
       <c r="CB3" s="27">
         <v>38</v>
       </c>
-      <c r="CC3" s="96">
+      <c r="CC3" s="94">
         <v>39</v>
       </c>
       <c r="CD3" s="90"/>
@@ -3949,11 +4178,11 @@
       <c r="CG3" s="27">
         <v>41</v>
       </c>
-      <c r="CH3" s="96">
+      <c r="CH3" s="94">
         <v>42</v>
       </c>
       <c r="CI3" s="90"/>
-      <c r="CJ3" s="96">
+      <c r="CJ3" s="94">
         <v>43</v>
       </c>
       <c r="CK3" s="90"/>
@@ -3963,11 +4192,11 @@
       <c r="Y4" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="Z4" s="80" t="s">
+      <c r="Z4" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="AA4" s="80"/>
-      <c r="AB4" s="80"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
       <c r="AC4" s="28" t="s">
         <v>213</v>
       </c>
@@ -3983,7 +4212,7 @@
       <c r="AG4" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="AH4" s="97" t="s">
+      <c r="AH4" s="92" t="s">
         <v>218</v>
       </c>
       <c r="AI4" s="90"/>
@@ -3993,11 +4222,11 @@
       <c r="AK4" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="AL4" s="98" t="s">
+      <c r="AL4" s="91" t="s">
         <v>221</v>
       </c>
       <c r="AM4" s="90"/>
-      <c r="AN4" s="97" t="s">
+      <c r="AN4" s="92" t="s">
         <v>222</v>
       </c>
       <c r="AO4" s="90"/>
@@ -4007,7 +4236,7 @@
       <c r="AQ4" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="AR4" s="99" t="s">
+      <c r="AR4" s="95" t="s">
         <v>126</v>
       </c>
       <c r="AS4" s="90"/>
@@ -4023,7 +4252,7 @@
       <c r="AW4" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="AX4" s="97" t="s">
+      <c r="AX4" s="92" t="s">
         <v>229</v>
       </c>
       <c r="AY4" s="90"/>
@@ -4033,7 +4262,7 @@
       <c r="BA4" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="BB4" s="98" t="s">
+      <c r="BB4" s="91" t="s">
         <v>232</v>
       </c>
       <c r="BC4" s="90"/>
@@ -4046,7 +4275,7 @@
       <c r="BF4" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="BG4" s="100" t="s">
+      <c r="BG4" s="89" t="s">
         <v>236</v>
       </c>
       <c r="BH4" s="90"/>
@@ -4059,15 +4288,15 @@
       <c r="BK4" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="BL4" s="100" t="s">
+      <c r="BL4" s="89" t="s">
         <v>240</v>
       </c>
       <c r="BM4" s="90"/>
-      <c r="BN4" s="97" t="s">
+      <c r="BN4" s="92" t="s">
         <v>241</v>
       </c>
       <c r="BO4" s="90"/>
-      <c r="BP4" s="98" t="s">
+      <c r="BP4" s="91" t="s">
         <v>242</v>
       </c>
       <c r="BQ4" s="90"/>
@@ -4075,15 +4304,15 @@
       <c r="BS4" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="BT4" s="98" t="s">
+      <c r="BT4" s="91" t="s">
         <v>244</v>
       </c>
       <c r="BU4" s="90"/>
-      <c r="BV4" s="101" t="s">
+      <c r="BV4" s="93" t="s">
         <v>245</v>
       </c>
       <c r="BW4" s="90"/>
-      <c r="BX4" s="100" t="s">
+      <c r="BX4" s="89" t="s">
         <v>246</v>
       </c>
       <c r="BY4" s="90"/>
@@ -4096,7 +4325,7 @@
       <c r="CB4" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="CC4" s="98" t="s">
+      <c r="CC4" s="91" t="s">
         <v>250</v>
       </c>
       <c r="CD4" s="90"/>
@@ -4107,11 +4336,11 @@
       <c r="CG4" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="CH4" s="97" t="s">
+      <c r="CH4" s="92" t="s">
         <v>253</v>
       </c>
       <c r="CI4" s="90"/>
-      <c r="CJ4" s="98" t="s">
+      <c r="CJ4" s="91" t="s">
         <v>254</v>
       </c>
       <c r="CK4" s="90"/>
@@ -4403,16 +4632,32 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="BX4:BY4"/>
-    <mergeCell ref="CC4:CE4"/>
-    <mergeCell ref="CH4:CI4"/>
-    <mergeCell ref="CJ4:CL4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="BL4:BM4"/>
-    <mergeCell ref="BN4:BO4"/>
-    <mergeCell ref="BP4:BR4"/>
-    <mergeCell ref="BT4:BU4"/>
-    <mergeCell ref="BV4:BW4"/>
+    <mergeCell ref="AC1:AV1"/>
+    <mergeCell ref="AW1:BK1"/>
+    <mergeCell ref="BL1:CB1"/>
+    <mergeCell ref="CC1:CL1"/>
+    <mergeCell ref="AC2:AG2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="AL2:AP2"/>
+    <mergeCell ref="AQ2:AV2"/>
+    <mergeCell ref="AW2:BA2"/>
+    <mergeCell ref="BB2:BD2"/>
+    <mergeCell ref="CC2:CI2"/>
+    <mergeCell ref="CJ2:CL2"/>
+    <mergeCell ref="BL2:BO2"/>
+    <mergeCell ref="BP2:BS2"/>
+    <mergeCell ref="BT2:BW2"/>
+    <mergeCell ref="BX2:CB2"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="AX3:AY3"/>
+    <mergeCell ref="BB3:BC3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="BG2:BK2"/>
     <mergeCell ref="CC3:CE3"/>
     <mergeCell ref="CH3:CI3"/>
     <mergeCell ref="CJ3:CL3"/>
@@ -4429,32 +4674,16 @@
     <mergeCell ref="BT3:BU3"/>
     <mergeCell ref="BV3:BW3"/>
     <mergeCell ref="BX3:BY3"/>
-    <mergeCell ref="AX3:AY3"/>
-    <mergeCell ref="BB3:BC3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="BG2:BK2"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="AC1:AV1"/>
-    <mergeCell ref="AW1:BK1"/>
-    <mergeCell ref="BL1:CB1"/>
-    <mergeCell ref="CC1:CL1"/>
-    <mergeCell ref="AC2:AG2"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="AL2:AP2"/>
-    <mergeCell ref="AQ2:AV2"/>
-    <mergeCell ref="AW2:BA2"/>
-    <mergeCell ref="BB2:BD2"/>
-    <mergeCell ref="CC2:CI2"/>
-    <mergeCell ref="CJ2:CL2"/>
-    <mergeCell ref="BL2:BO2"/>
-    <mergeCell ref="BP2:BS2"/>
-    <mergeCell ref="BT2:BW2"/>
-    <mergeCell ref="BX2:CB2"/>
+    <mergeCell ref="BX4:BY4"/>
+    <mergeCell ref="CC4:CE4"/>
+    <mergeCell ref="CH4:CI4"/>
+    <mergeCell ref="CJ4:CL4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="BL4:BM4"/>
+    <mergeCell ref="BN4:BO4"/>
+    <mergeCell ref="BP4:BR4"/>
+    <mergeCell ref="BT4:BU4"/>
+    <mergeCell ref="BV4:BW4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4465,7 +4694,7 @@
   <dimension ref="A1:CK5"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4479,71 +4708,71 @@
       </c>
       <c r="AA1" s="11"/>
       <c r="AB1" s="11"/>
-      <c r="AC1" s="102">
+      <c r="AC1" s="114">
         <v>1</v>
       </c>
-      <c r="AD1" s="103"/>
-      <c r="AE1" s="103"/>
-      <c r="AF1" s="103"/>
-      <c r="AG1" s="103"/>
-      <c r="AH1" s="103"/>
-      <c r="AI1" s="103"/>
-      <c r="AJ1" s="103"/>
-      <c r="AK1" s="103"/>
-      <c r="AL1" s="103"/>
-      <c r="AM1" s="103"/>
-      <c r="AN1" s="103"/>
-      <c r="AO1" s="103"/>
-      <c r="AP1" s="103"/>
-      <c r="AQ1" s="103"/>
-      <c r="AR1" s="103"/>
-      <c r="AS1" s="103"/>
-      <c r="AT1" s="103"/>
-      <c r="AU1" s="103"/>
-      <c r="AV1" s="103"/>
-      <c r="AW1" s="103"/>
-      <c r="AX1" s="103"/>
-      <c r="AY1" s="103"/>
-      <c r="AZ1" s="104">
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="107"/>
+      <c r="AG1" s="107"/>
+      <c r="AH1" s="107"/>
+      <c r="AI1" s="107"/>
+      <c r="AJ1" s="107"/>
+      <c r="AK1" s="107"/>
+      <c r="AL1" s="107"/>
+      <c r="AM1" s="107"/>
+      <c r="AN1" s="107"/>
+      <c r="AO1" s="107"/>
+      <c r="AP1" s="107"/>
+      <c r="AQ1" s="107"/>
+      <c r="AR1" s="107"/>
+      <c r="AS1" s="107"/>
+      <c r="AT1" s="107"/>
+      <c r="AU1" s="107"/>
+      <c r="AV1" s="107"/>
+      <c r="AW1" s="107"/>
+      <c r="AX1" s="107"/>
+      <c r="AY1" s="107"/>
+      <c r="AZ1" s="115">
         <v>2</v>
       </c>
-      <c r="BA1" s="103"/>
-      <c r="BB1" s="103"/>
-      <c r="BC1" s="103"/>
-      <c r="BD1" s="103"/>
-      <c r="BE1" s="103"/>
-      <c r="BF1" s="103"/>
-      <c r="BG1" s="103"/>
-      <c r="BH1" s="103"/>
-      <c r="BI1" s="103"/>
-      <c r="BJ1" s="103"/>
-      <c r="BK1" s="105">
+      <c r="BA1" s="107"/>
+      <c r="BB1" s="107"/>
+      <c r="BC1" s="107"/>
+      <c r="BD1" s="107"/>
+      <c r="BE1" s="107"/>
+      <c r="BF1" s="107"/>
+      <c r="BG1" s="107"/>
+      <c r="BH1" s="107"/>
+      <c r="BI1" s="107"/>
+      <c r="BJ1" s="107"/>
+      <c r="BK1" s="116">
         <v>3</v>
       </c>
-      <c r="BL1" s="103"/>
-      <c r="BM1" s="103"/>
-      <c r="BN1" s="103"/>
-      <c r="BO1" s="103"/>
-      <c r="BP1" s="103"/>
-      <c r="BQ1" s="103"/>
-      <c r="BR1" s="103"/>
-      <c r="BS1" s="103"/>
-      <c r="BT1" s="103"/>
-      <c r="BU1" s="103"/>
-      <c r="BV1" s="103"/>
-      <c r="BW1" s="103"/>
-      <c r="BX1" s="103"/>
-      <c r="BY1" s="103"/>
-      <c r="BZ1" s="103"/>
-      <c r="CA1" s="103"/>
-      <c r="CB1" s="106" t="s">
+      <c r="BL1" s="107"/>
+      <c r="BM1" s="107"/>
+      <c r="BN1" s="107"/>
+      <c r="BO1" s="107"/>
+      <c r="BP1" s="107"/>
+      <c r="BQ1" s="107"/>
+      <c r="BR1" s="107"/>
+      <c r="BS1" s="107"/>
+      <c r="BT1" s="107"/>
+      <c r="BU1" s="107"/>
+      <c r="BV1" s="107"/>
+      <c r="BW1" s="107"/>
+      <c r="BX1" s="107"/>
+      <c r="BY1" s="107"/>
+      <c r="BZ1" s="107"/>
+      <c r="CA1" s="107"/>
+      <c r="CB1" s="117" t="s">
         <v>206</v>
       </c>
-      <c r="CC1" s="103"/>
-      <c r="CD1" s="103"/>
-      <c r="CE1" s="103"/>
-      <c r="CF1" s="103"/>
-      <c r="CG1" s="103"/>
+      <c r="CC1" s="107"/>
+      <c r="CD1" s="107"/>
+      <c r="CE1" s="107"/>
+      <c r="CF1" s="107"/>
+      <c r="CG1" s="107"/>
     </row>
     <row r="2" spans="1:89" ht="16.5">
       <c r="Y2" s="5" t="s">
@@ -4554,217 +4783,217 @@
       </c>
       <c r="AA2" s="13"/>
       <c r="AB2" s="13"/>
-      <c r="AC2" s="107">
+      <c r="AC2" s="118">
         <v>1</v>
       </c>
-      <c r="AD2" s="103"/>
-      <c r="AE2" s="103"/>
-      <c r="AF2" s="108">
+      <c r="AD2" s="107"/>
+      <c r="AE2" s="107"/>
+      <c r="AF2" s="112">
         <v>2</v>
       </c>
-      <c r="AG2" s="103"/>
-      <c r="AH2" s="103"/>
-      <c r="AI2" s="109">
+      <c r="AG2" s="107"/>
+      <c r="AH2" s="107"/>
+      <c r="AI2" s="111">
         <v>3</v>
       </c>
-      <c r="AJ2" s="103"/>
-      <c r="AK2" s="103"/>
-      <c r="AL2" s="103"/>
-      <c r="AM2" s="108">
+      <c r="AJ2" s="107"/>
+      <c r="AK2" s="107"/>
+      <c r="AL2" s="107"/>
+      <c r="AM2" s="112">
         <v>4</v>
       </c>
-      <c r="AN2" s="103"/>
-      <c r="AO2" s="103"/>
-      <c r="AP2" s="103"/>
-      <c r="AQ2" s="103"/>
-      <c r="AR2" s="109">
+      <c r="AN2" s="107"/>
+      <c r="AO2" s="107"/>
+      <c r="AP2" s="107"/>
+      <c r="AQ2" s="107"/>
+      <c r="AR2" s="111">
         <v>5</v>
       </c>
-      <c r="AS2" s="103"/>
-      <c r="AT2" s="103"/>
-      <c r="AU2" s="103"/>
-      <c r="AV2" s="108">
+      <c r="AS2" s="107"/>
+      <c r="AT2" s="107"/>
+      <c r="AU2" s="107"/>
+      <c r="AV2" s="112">
         <v>6</v>
       </c>
-      <c r="AW2" s="103"/>
-      <c r="AX2" s="103"/>
-      <c r="AY2" s="103"/>
-      <c r="AZ2" s="109">
+      <c r="AW2" s="107"/>
+      <c r="AX2" s="107"/>
+      <c r="AY2" s="107"/>
+      <c r="AZ2" s="111">
         <v>1</v>
       </c>
-      <c r="BA2" s="103"/>
-      <c r="BB2" s="103"/>
-      <c r="BC2" s="103"/>
-      <c r="BD2" s="103"/>
-      <c r="BE2" s="108">
+      <c r="BA2" s="107"/>
+      <c r="BB2" s="107"/>
+      <c r="BC2" s="107"/>
+      <c r="BD2" s="107"/>
+      <c r="BE2" s="112">
         <v>2</v>
       </c>
-      <c r="BF2" s="103"/>
-      <c r="BG2" s="103"/>
-      <c r="BH2" s="109">
+      <c r="BF2" s="107"/>
+      <c r="BG2" s="107"/>
+      <c r="BH2" s="111">
         <v>3</v>
       </c>
-      <c r="BI2" s="103"/>
-      <c r="BJ2" s="103"/>
-      <c r="BK2" s="108">
+      <c r="BI2" s="107"/>
+      <c r="BJ2" s="107"/>
+      <c r="BK2" s="112">
         <v>1</v>
       </c>
-      <c r="BL2" s="103"/>
-      <c r="BM2" s="103"/>
-      <c r="BN2" s="103"/>
-      <c r="BO2" s="109">
+      <c r="BL2" s="107"/>
+      <c r="BM2" s="107"/>
+      <c r="BN2" s="107"/>
+      <c r="BO2" s="111">
         <v>2</v>
       </c>
-      <c r="BP2" s="103"/>
-      <c r="BQ2" s="103"/>
-      <c r="BR2" s="103"/>
-      <c r="BS2" s="108">
+      <c r="BP2" s="107"/>
+      <c r="BQ2" s="107"/>
+      <c r="BR2" s="107"/>
+      <c r="BS2" s="112">
         <v>3</v>
       </c>
-      <c r="BT2" s="103"/>
-      <c r="BU2" s="103"/>
-      <c r="BV2" s="103"/>
-      <c r="BW2" s="103"/>
-      <c r="BX2" s="109">
+      <c r="BT2" s="107"/>
+      <c r="BU2" s="107"/>
+      <c r="BV2" s="107"/>
+      <c r="BW2" s="107"/>
+      <c r="BX2" s="111">
         <v>4</v>
       </c>
-      <c r="BY2" s="103"/>
-      <c r="BZ2" s="103"/>
-      <c r="CA2" s="103"/>
-      <c r="CB2" s="108">
+      <c r="BY2" s="107"/>
+      <c r="BZ2" s="107"/>
+      <c r="CA2" s="107"/>
+      <c r="CB2" s="112">
         <v>1</v>
       </c>
-      <c r="CC2" s="103"/>
-      <c r="CD2" s="103"/>
-      <c r="CE2" s="109">
+      <c r="CC2" s="107"/>
+      <c r="CD2" s="107"/>
+      <c r="CE2" s="111">
         <v>2</v>
       </c>
-      <c r="CF2" s="103"/>
-      <c r="CG2" s="103"/>
+      <c r="CF2" s="107"/>
+      <c r="CG2" s="107"/>
     </row>
     <row r="3" spans="1:89" ht="26.25" customHeight="1">
       <c r="Y3" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="Z3" s="68">
+      <c r="Z3" s="77">
         <v>0</v>
       </c>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="110">
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="113">
         <v>1</v>
       </c>
-      <c r="AD3" s="103"/>
+      <c r="AD3" s="107"/>
       <c r="AE3" s="40">
         <v>2</v>
       </c>
-      <c r="AF3" s="111">
+      <c r="AF3" s="108">
         <v>3</v>
       </c>
-      <c r="AG3" s="103"/>
+      <c r="AG3" s="107"/>
       <c r="AH3" s="41">
         <v>4</v>
       </c>
-      <c r="AI3" s="112">
+      <c r="AI3" s="105">
         <v>5</v>
       </c>
-      <c r="AJ3" s="103"/>
-      <c r="AK3" s="103"/>
+      <c r="AJ3" s="107"/>
+      <c r="AK3" s="107"/>
       <c r="AL3" s="40">
         <v>6</v>
       </c>
-      <c r="AM3" s="113">
+      <c r="AM3" s="110">
         <v>7</v>
       </c>
-      <c r="AN3" s="103"/>
-      <c r="AO3" s="103"/>
-      <c r="AP3" s="113">
+      <c r="AN3" s="107"/>
+      <c r="AO3" s="107"/>
+      <c r="AP3" s="110">
         <v>8</v>
       </c>
-      <c r="AQ3" s="103"/>
-      <c r="AR3" s="112">
+      <c r="AQ3" s="107"/>
+      <c r="AR3" s="105">
         <v>9</v>
       </c>
-      <c r="AS3" s="103"/>
-      <c r="AT3" s="112">
+      <c r="AS3" s="107"/>
+      <c r="AT3" s="105">
         <v>10</v>
       </c>
-      <c r="AU3" s="103"/>
-      <c r="AV3" s="111">
+      <c r="AU3" s="107"/>
+      <c r="AV3" s="108">
         <v>11</v>
       </c>
-      <c r="AW3" s="103"/>
-      <c r="AX3" s="103"/>
+      <c r="AW3" s="107"/>
+      <c r="AX3" s="107"/>
       <c r="AY3" s="41">
         <v>12</v>
       </c>
-      <c r="AZ3" s="114">
+      <c r="AZ3" s="106">
         <v>13</v>
       </c>
-      <c r="BA3" s="103"/>
-      <c r="BB3" s="114">
+      <c r="BA3" s="107"/>
+      <c r="BB3" s="106">
         <v>14</v>
       </c>
-      <c r="BC3" s="103"/>
-      <c r="BD3" s="103"/>
-      <c r="BE3" s="111">
+      <c r="BC3" s="107"/>
+      <c r="BD3" s="107"/>
+      <c r="BE3" s="108">
         <v>15</v>
       </c>
-      <c r="BF3" s="103"/>
+      <c r="BF3" s="107"/>
       <c r="BG3" s="41">
         <v>16</v>
       </c>
-      <c r="BH3" s="114">
+      <c r="BH3" s="106">
         <v>17</v>
       </c>
-      <c r="BI3" s="103"/>
+      <c r="BI3" s="107"/>
       <c r="BJ3" s="40">
         <v>18</v>
       </c>
-      <c r="BK3" s="111">
+      <c r="BK3" s="108">
         <v>19</v>
       </c>
-      <c r="BL3" s="103"/>
-      <c r="BM3" s="103"/>
+      <c r="BL3" s="107"/>
+      <c r="BM3" s="107"/>
       <c r="BN3" s="41">
         <v>20</v>
       </c>
-      <c r="BO3" s="114">
+      <c r="BO3" s="106">
         <v>21</v>
       </c>
-      <c r="BP3" s="103"/>
-      <c r="BQ3" s="114">
+      <c r="BP3" s="107"/>
+      <c r="BQ3" s="106">
         <v>22</v>
       </c>
-      <c r="BR3" s="103"/>
-      <c r="BS3" s="111">
+      <c r="BR3" s="107"/>
+      <c r="BS3" s="108">
         <v>23</v>
       </c>
-      <c r="BT3" s="103"/>
-      <c r="BU3" s="103"/>
-      <c r="BV3" s="111">
+      <c r="BT3" s="107"/>
+      <c r="BU3" s="107"/>
+      <c r="BV3" s="108">
         <v>24</v>
       </c>
-      <c r="BW3" s="103"/>
-      <c r="BX3" s="114">
+      <c r="BW3" s="107"/>
+      <c r="BX3" s="106">
         <v>25</v>
       </c>
-      <c r="BY3" s="103"/>
-      <c r="BZ3" s="114">
+      <c r="BY3" s="107"/>
+      <c r="BZ3" s="106">
         <v>26</v>
       </c>
-      <c r="CA3" s="103"/>
-      <c r="CB3" s="111">
+      <c r="CA3" s="107"/>
+      <c r="CB3" s="108">
         <v>27</v>
       </c>
-      <c r="CC3" s="103"/>
+      <c r="CC3" s="107"/>
       <c r="CD3" s="41">
         <v>28</v>
       </c>
-      <c r="CE3" s="114">
+      <c r="CE3" s="106">
         <v>29</v>
       </c>
-      <c r="CF3" s="103"/>
+      <c r="CF3" s="107"/>
       <c r="CG3" s="42">
         <v>30</v>
       </c>
@@ -4773,125 +5002,125 @@
       <c r="Y4" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="Z4" s="80" t="s">
+      <c r="Z4" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="AA4" s="80"/>
-      <c r="AB4" s="80"/>
-      <c r="AC4" s="117" t="s">
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="109" t="s">
         <v>295</v>
       </c>
-      <c r="AD4" s="116"/>
+      <c r="AD4" s="103"/>
       <c r="AE4" s="43" t="s">
         <v>296</v>
       </c>
-      <c r="AF4" s="118" t="s">
+      <c r="AF4" s="104" t="s">
         <v>297</v>
       </c>
-      <c r="AG4" s="116"/>
+      <c r="AG4" s="103"/>
       <c r="AH4" s="44" t="s">
         <v>298</v>
       </c>
-      <c r="AI4" s="112" t="s">
+      <c r="AI4" s="105" t="s">
         <v>299</v>
       </c>
-      <c r="AJ4" s="116"/>
-      <c r="AK4" s="116"/>
+      <c r="AJ4" s="103"/>
+      <c r="AK4" s="103"/>
       <c r="AL4" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="AM4" s="113" t="s">
+      <c r="AM4" s="110" t="s">
         <v>301</v>
       </c>
-      <c r="AN4" s="116"/>
-      <c r="AO4" s="116"/>
-      <c r="AP4" s="113" t="s">
+      <c r="AN4" s="103"/>
+      <c r="AO4" s="103"/>
+      <c r="AP4" s="110" t="s">
         <v>302</v>
       </c>
-      <c r="AQ4" s="116"/>
-      <c r="AR4" s="112" t="s">
+      <c r="AQ4" s="103"/>
+      <c r="AR4" s="105" t="s">
         <v>303</v>
       </c>
-      <c r="AS4" s="116"/>
-      <c r="AT4" s="112" t="s">
+      <c r="AS4" s="103"/>
+      <c r="AT4" s="105" t="s">
         <v>304</v>
       </c>
-      <c r="AU4" s="116"/>
-      <c r="AV4" s="118" t="s">
+      <c r="AU4" s="103"/>
+      <c r="AV4" s="104" t="s">
         <v>305</v>
       </c>
-      <c r="AW4" s="116"/>
-      <c r="AX4" s="116"/>
+      <c r="AW4" s="103"/>
+      <c r="AX4" s="103"/>
       <c r="AY4" s="44" t="s">
         <v>306</v>
       </c>
-      <c r="AZ4" s="115" t="s">
+      <c r="AZ4" s="102" t="s">
         <v>307</v>
       </c>
-      <c r="BA4" s="116"/>
-      <c r="BB4" s="115" t="s">
+      <c r="BA4" s="103"/>
+      <c r="BB4" s="102" t="s">
         <v>308</v>
       </c>
-      <c r="BC4" s="116"/>
-      <c r="BD4" s="116"/>
-      <c r="BE4" s="118" t="s">
+      <c r="BC4" s="103"/>
+      <c r="BD4" s="103"/>
+      <c r="BE4" s="104" t="s">
         <v>309</v>
       </c>
-      <c r="BF4" s="116"/>
+      <c r="BF4" s="103"/>
       <c r="BG4" s="44" t="s">
         <v>310</v>
       </c>
-      <c r="BH4" s="115" t="s">
+      <c r="BH4" s="102" t="s">
         <v>311</v>
       </c>
-      <c r="BI4" s="116"/>
+      <c r="BI4" s="103"/>
       <c r="BJ4" s="45" t="s">
         <v>312</v>
       </c>
-      <c r="BK4" s="118" t="s">
+      <c r="BK4" s="104" t="s">
         <v>313</v>
       </c>
-      <c r="BL4" s="116"/>
-      <c r="BM4" s="116"/>
+      <c r="BL4" s="103"/>
+      <c r="BM4" s="103"/>
       <c r="BN4" s="44" t="s">
         <v>314</v>
       </c>
-      <c r="BO4" s="115" t="s">
+      <c r="BO4" s="102" t="s">
         <v>315</v>
       </c>
-      <c r="BP4" s="116"/>
-      <c r="BQ4" s="115" t="s">
+      <c r="BP4" s="103"/>
+      <c r="BQ4" s="102" t="s">
         <v>316</v>
       </c>
-      <c r="BR4" s="116"/>
-      <c r="BS4" s="118" t="s">
+      <c r="BR4" s="103"/>
+      <c r="BS4" s="104" t="s">
         <v>317</v>
       </c>
-      <c r="BT4" s="116"/>
-      <c r="BU4" s="116"/>
-      <c r="BV4" s="118" t="s">
+      <c r="BT4" s="103"/>
+      <c r="BU4" s="103"/>
+      <c r="BV4" s="104" t="s">
         <v>318</v>
       </c>
-      <c r="BW4" s="116"/>
-      <c r="BX4" s="115" t="s">
+      <c r="BW4" s="103"/>
+      <c r="BX4" s="102" t="s">
         <v>319</v>
       </c>
-      <c r="BY4" s="116"/>
-      <c r="BZ4" s="115" t="s">
+      <c r="BY4" s="103"/>
+      <c r="BZ4" s="102" t="s">
         <v>320</v>
       </c>
-      <c r="CA4" s="116"/>
-      <c r="CB4" s="118" t="s">
+      <c r="CA4" s="103"/>
+      <c r="CB4" s="104" t="s">
         <v>321</v>
       </c>
-      <c r="CC4" s="116"/>
+      <c r="CC4" s="103"/>
       <c r="CD4" s="44" t="s">
         <v>322</v>
       </c>
-      <c r="CE4" s="115" t="s">
+      <c r="CE4" s="102" t="s">
         <v>323</v>
       </c>
-      <c r="CF4" s="116"/>
+      <c r="CF4" s="103"/>
       <c r="CG4" s="45" t="s">
         <v>324</v>
       </c>
@@ -5167,20 +5396,39 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="BZ4:CA4"/>
-    <mergeCell ref="CB4:CC4"/>
-    <mergeCell ref="CE4:CF4"/>
-    <mergeCell ref="BK4:BM4"/>
-    <mergeCell ref="BO4:BP4"/>
-    <mergeCell ref="BQ4:BR4"/>
-    <mergeCell ref="BS4:BU4"/>
-    <mergeCell ref="BV4:BW4"/>
-    <mergeCell ref="BX4:BY4"/>
-    <mergeCell ref="AT4:AU4"/>
-    <mergeCell ref="AV4:AX4"/>
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="BB4:BD4"/>
-    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="AC1:AY1"/>
+    <mergeCell ref="AZ1:BJ1"/>
+    <mergeCell ref="BK1:CA1"/>
+    <mergeCell ref="CB1:CG1"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AR2:AU2"/>
+    <mergeCell ref="AV2:AY2"/>
+    <mergeCell ref="BX2:CA2"/>
+    <mergeCell ref="CB2:CD2"/>
+    <mergeCell ref="CE2:CG2"/>
+    <mergeCell ref="BK2:BN2"/>
+    <mergeCell ref="BO2:BR2"/>
+    <mergeCell ref="BS2:BW2"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="AZ2:BD2"/>
+    <mergeCell ref="BE2:BG2"/>
+    <mergeCell ref="BH2:BJ2"/>
+    <mergeCell ref="BX3:BY3"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AZ3:BA3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BH3:BI3"/>
     <mergeCell ref="BH4:BI4"/>
     <mergeCell ref="BZ3:CA3"/>
     <mergeCell ref="CB3:CC3"/>
@@ -5197,39 +5445,20 @@
     <mergeCell ref="BQ3:BR3"/>
     <mergeCell ref="BS3:BU3"/>
     <mergeCell ref="BV3:BW3"/>
-    <mergeCell ref="BX3:BY3"/>
-    <mergeCell ref="AT3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AZ3:BA3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BH3:BI3"/>
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="AZ2:BD2"/>
-    <mergeCell ref="BE2:BG2"/>
-    <mergeCell ref="BH2:BJ2"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AI3:AK3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AC1:AY1"/>
-    <mergeCell ref="AZ1:BJ1"/>
-    <mergeCell ref="BK1:CA1"/>
-    <mergeCell ref="CB1:CG1"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AR2:AU2"/>
-    <mergeCell ref="AV2:AY2"/>
-    <mergeCell ref="BX2:CA2"/>
-    <mergeCell ref="CB2:CD2"/>
-    <mergeCell ref="CE2:CG2"/>
-    <mergeCell ref="BK2:BN2"/>
-    <mergeCell ref="BO2:BR2"/>
-    <mergeCell ref="BS2:BW2"/>
+    <mergeCell ref="AT4:AU4"/>
+    <mergeCell ref="AV4:AX4"/>
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="BB4:BD4"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BZ4:CA4"/>
+    <mergeCell ref="CB4:CC4"/>
+    <mergeCell ref="CE4:CF4"/>
+    <mergeCell ref="BK4:BM4"/>
+    <mergeCell ref="BO4:BP4"/>
+    <mergeCell ref="BQ4:BR4"/>
+    <mergeCell ref="BS4:BU4"/>
+    <mergeCell ref="BV4:BW4"/>
+    <mergeCell ref="BX4:BY4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5237,9 +5466,365 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AS5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:45" ht="16.5" customHeight="1">
+      <c r="Y1" s="166" t="s">
+        <v>369</v>
+      </c>
+      <c r="Z1" s="181" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA1" s="181"/>
+      <c r="AB1" s="181"/>
+      <c r="AC1" s="181"/>
+      <c r="AD1" s="182"/>
+      <c r="AE1" s="167" t="s">
+        <v>371</v>
+      </c>
+      <c r="AF1" s="167"/>
+      <c r="AG1" s="168" t="s">
+        <v>372</v>
+      </c>
+      <c r="AH1" s="168"/>
+      <c r="AI1" s="169"/>
+      <c r="AJ1" s="170" t="s">
+        <v>373</v>
+      </c>
+      <c r="AK1" s="170"/>
+      <c r="AL1" s="171"/>
+      <c r="AM1" s="171"/>
+      <c r="AN1" s="171"/>
+      <c r="AO1" s="165"/>
+      <c r="AP1" s="165"/>
+      <c r="AQ1" s="165"/>
+      <c r="AR1" s="165"/>
+      <c r="AS1" s="165"/>
+    </row>
+    <row r="2" spans="1:45" ht="16.5" customHeight="1">
+      <c r="Y2" s="166" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z2" s="172" t="s">
+        <v>374</v>
+      </c>
+      <c r="AA2" s="172" t="s">
+        <v>374</v>
+      </c>
+      <c r="AB2" s="172" t="s">
+        <v>375</v>
+      </c>
+      <c r="AC2" s="172" t="s">
+        <v>376</v>
+      </c>
+      <c r="AD2" s="172" t="s">
+        <v>377</v>
+      </c>
+      <c r="AE2" s="173" t="s">
+        <v>378</v>
+      </c>
+      <c r="AF2" s="173" t="s">
+        <v>379</v>
+      </c>
+      <c r="AG2" s="174" t="s">
+        <v>380</v>
+      </c>
+      <c r="AH2" s="174" t="s">
+        <v>381</v>
+      </c>
+      <c r="AI2" s="174" t="s">
+        <v>382</v>
+      </c>
+      <c r="AJ2" s="175" t="s">
+        <v>383</v>
+      </c>
+      <c r="AK2" s="175" t="s">
+        <v>384</v>
+      </c>
+      <c r="AL2" s="175" t="s">
+        <v>385</v>
+      </c>
+      <c r="AM2" s="175" t="s">
+        <v>386</v>
+      </c>
+      <c r="AN2" s="175" t="s">
+        <v>387</v>
+      </c>
+      <c r="AO2" s="165"/>
+      <c r="AP2" s="165"/>
+      <c r="AQ2" s="165"/>
+      <c r="AR2" s="165"/>
+      <c r="AS2" s="165"/>
+    </row>
+    <row r="3" spans="1:45" ht="26.25" customHeight="1">
+      <c r="Y3" s="166" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z3" s="176" t="s">
+        <v>388</v>
+      </c>
+      <c r="AA3" s="176" t="s">
+        <v>388</v>
+      </c>
+      <c r="AB3" s="176" t="s">
+        <v>389</v>
+      </c>
+      <c r="AC3" s="176" t="s">
+        <v>390</v>
+      </c>
+      <c r="AD3" s="176" t="s">
+        <v>391</v>
+      </c>
+      <c r="AE3" s="176" t="s">
+        <v>392</v>
+      </c>
+      <c r="AF3" s="176" t="s">
+        <v>393</v>
+      </c>
+      <c r="AG3" s="176" t="s">
+        <v>394</v>
+      </c>
+      <c r="AH3" s="176" t="s">
+        <v>395</v>
+      </c>
+      <c r="AI3" s="176" t="s">
+        <v>396</v>
+      </c>
+      <c r="AJ3" s="176" t="s">
+        <v>397</v>
+      </c>
+      <c r="AK3" s="176" t="s">
+        <v>398</v>
+      </c>
+      <c r="AL3" s="176" t="s">
+        <v>399</v>
+      </c>
+      <c r="AM3" s="176" t="s">
+        <v>400</v>
+      </c>
+      <c r="AN3" s="176" t="s">
+        <v>401</v>
+      </c>
+      <c r="AO3" s="165"/>
+      <c r="AP3" s="165"/>
+      <c r="AQ3" s="165"/>
+      <c r="AR3" s="165"/>
+      <c r="AS3" s="165"/>
+    </row>
+    <row r="4" spans="1:45" ht="72" customHeight="1">
+      <c r="Y4" s="166" t="s">
+        <v>402</v>
+      </c>
+      <c r="Z4" s="176" t="s">
+        <v>403</v>
+      </c>
+      <c r="AA4" s="176" t="s">
+        <v>403</v>
+      </c>
+      <c r="AB4" s="176" t="s">
+        <v>403</v>
+      </c>
+      <c r="AC4" s="176" t="s">
+        <v>403</v>
+      </c>
+      <c r="AD4" s="176" t="s">
+        <v>403</v>
+      </c>
+      <c r="AE4" s="176" t="s">
+        <v>403</v>
+      </c>
+      <c r="AF4" s="176" t="s">
+        <v>403</v>
+      </c>
+      <c r="AG4" s="176" t="s">
+        <v>403</v>
+      </c>
+      <c r="AH4" s="176" t="s">
+        <v>403</v>
+      </c>
+      <c r="AI4" s="176" t="s">
+        <v>403</v>
+      </c>
+      <c r="AJ4" s="176" t="s">
+        <v>403</v>
+      </c>
+      <c r="AK4" s="176" t="s">
+        <v>403</v>
+      </c>
+      <c r="AL4" s="176" t="s">
+        <v>403</v>
+      </c>
+      <c r="AM4" s="176" t="s">
+        <v>404</v>
+      </c>
+      <c r="AN4" s="176" t="s">
+        <v>403</v>
+      </c>
+      <c r="AO4" s="165"/>
+      <c r="AP4" s="165"/>
+      <c r="AQ4" s="165"/>
+      <c r="AR4" s="165"/>
+      <c r="AS4" s="165"/>
+    </row>
+    <row r="5" spans="1:45" s="25" customFormat="1" ht="103.5" customHeight="1">
+      <c r="A5" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="S5" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="T5" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="V5" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="W5" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="X5" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y5" s="178" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z5" s="55" t="s">
+        <v>353</v>
+      </c>
+      <c r="AA5" s="179" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB5" s="179" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC5" s="179" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD5" s="179" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE5" s="179" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF5" s="179" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG5" s="179" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH5" s="179" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI5" s="179" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ5" s="179" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK5" s="179" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL5" s="179" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM5" s="179" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN5" s="179" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO5" s="180" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP5" s="180" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ5" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR5" s="179" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS5" s="177" t="s">
+        <v>405</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="Z1:AD1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:YW5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -5249,81 +5834,81 @@
       <c r="Y1" s="119" t="s">
         <v>336</v>
       </c>
-      <c r="Z1" s="132" t="s">
+      <c r="Z1" s="121" t="s">
         <v>337</v>
       </c>
-      <c r="AA1" s="133"/>
-      <c r="AB1" s="133"/>
-      <c r="AC1" s="134" t="s">
+      <c r="AA1" s="122"/>
+      <c r="AB1" s="122"/>
+      <c r="AC1" s="123" t="s">
         <v>338</v>
       </c>
-      <c r="AD1" s="135"/>
-      <c r="AE1" s="135"/>
-      <c r="AF1" s="135"/>
-      <c r="AG1" s="135"/>
-      <c r="AH1" s="135"/>
-      <c r="AI1" s="135"/>
-      <c r="AJ1" s="135"/>
-      <c r="AK1" s="135"/>
+      <c r="AD1" s="124"/>
+      <c r="AE1" s="124"/>
+      <c r="AF1" s="124"/>
+      <c r="AG1" s="124"/>
+      <c r="AH1" s="124"/>
+      <c r="AI1" s="124"/>
+      <c r="AJ1" s="124"/>
+      <c r="AK1" s="124"/>
     </row>
     <row r="2" spans="1:673" ht="18">
       <c r="Y2" s="120"/>
-      <c r="Z2" s="136" t="s">
+      <c r="Z2" s="125" t="s">
         <v>339</v>
       </c>
-      <c r="AA2" s="137"/>
-      <c r="AB2" s="137"/>
-      <c r="AC2" s="138" t="s">
+      <c r="AA2" s="126"/>
+      <c r="AB2" s="126"/>
+      <c r="AC2" s="127" t="s">
         <v>339</v>
       </c>
-      <c r="AD2" s="139"/>
-      <c r="AE2" s="139"/>
-      <c r="AF2" s="139"/>
-      <c r="AG2" s="139"/>
-      <c r="AH2" s="139"/>
-      <c r="AI2" s="139"/>
-      <c r="AJ2" s="139"/>
-      <c r="AK2" s="139"/>
+      <c r="AD2" s="128"/>
+      <c r="AE2" s="128"/>
+      <c r="AF2" s="128"/>
+      <c r="AG2" s="128"/>
+      <c r="AH2" s="128"/>
+      <c r="AI2" s="128"/>
+      <c r="AJ2" s="128"/>
+      <c r="AK2" s="128"/>
     </row>
     <row r="3" spans="1:673" ht="18">
       <c r="Y3" s="119" t="s">
         <v>112</v>
       </c>
-      <c r="Z3" s="121" t="s">
+      <c r="Z3" s="129" t="s">
         <v>340</v>
       </c>
-      <c r="AA3" s="122"/>
-      <c r="AB3" s="122"/>
-      <c r="AC3" s="123" t="s">
+      <c r="AA3" s="130"/>
+      <c r="AB3" s="130"/>
+      <c r="AC3" s="131" t="s">
         <v>341</v>
       </c>
-      <c r="AD3" s="124"/>
-      <c r="AE3" s="124"/>
-      <c r="AF3" s="124"/>
-      <c r="AG3" s="127" t="s">
+      <c r="AD3" s="132"/>
+      <c r="AE3" s="132"/>
+      <c r="AF3" s="132"/>
+      <c r="AG3" s="135" t="s">
         <v>342</v>
       </c>
-      <c r="AH3" s="128"/>
-      <c r="AI3" s="128"/>
-      <c r="AJ3" s="128"/>
-      <c r="AK3" s="128"/>
+      <c r="AH3" s="136"/>
+      <c r="AI3" s="136"/>
+      <c r="AJ3" s="136"/>
+      <c r="AK3" s="136"/>
     </row>
     <row r="4" spans="1:673" ht="18">
       <c r="Y4" s="120"/>
-      <c r="Z4" s="131" t="s">
+      <c r="Z4" s="139" t="s">
         <v>343</v>
       </c>
-      <c r="AA4" s="126"/>
-      <c r="AB4" s="126"/>
-      <c r="AC4" s="125"/>
-      <c r="AD4" s="126"/>
-      <c r="AE4" s="126"/>
-      <c r="AF4" s="126"/>
-      <c r="AG4" s="129"/>
-      <c r="AH4" s="130"/>
-      <c r="AI4" s="130"/>
-      <c r="AJ4" s="130"/>
-      <c r="AK4" s="130"/>
+      <c r="AA4" s="134"/>
+      <c r="AB4" s="134"/>
+      <c r="AC4" s="133"/>
+      <c r="AD4" s="134"/>
+      <c r="AE4" s="134"/>
+      <c r="AF4" s="134"/>
+      <c r="AG4" s="137"/>
+      <c r="AH4" s="138"/>
+      <c r="AI4" s="138"/>
+      <c r="AJ4" s="138"/>
+      <c r="AK4" s="138"/>
     </row>
     <row r="5" spans="1:673" s="51" customFormat="1" ht="105.75" customHeight="1">
       <c r="A5" s="35" t="s">
@@ -6076,26 +6661,26 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AF4"/>
+    <mergeCell ref="AG3:AK4"/>
+    <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="AC1:AK1"/>
     <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="AC2:AK2"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AF4"/>
-    <mergeCell ref="AG3:AK4"/>
-    <mergeCell ref="Z4:AB4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/static/documentos/chequeo_2017.xlsx
+++ b/static/documentos/chequeo_2017.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="410">
   <si>
     <t>REGION</t>
   </si>
@@ -1282,6 +1282,18 @@
   </si>
   <si>
     <t>DOCENTES CON DIPLOMADO APROBADO</t>
+  </si>
+  <si>
+    <t>ASISTENCIA 1</t>
+  </si>
+  <si>
+    <t>ASISTENCIA 2</t>
+  </si>
+  <si>
+    <t>ASISTENCIA 3</t>
+  </si>
+  <si>
+    <t>ASISTENCIA 4</t>
   </si>
 </sst>
 </file>
@@ -2186,16 +2198,125 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="26" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="26" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2207,170 +2328,163 @@
     <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="22" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2397,39 +2511,6 @@
     <xf numFmtId="0" fontId="18" fillId="24" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="5" fillId="26" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2504,75 +2585,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="26" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="26" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2933,61 +2945,61 @@
       <c r="AW1" s="11"/>
       <c r="AX1" s="11"/>
       <c r="AY1" s="12"/>
-      <c r="AZ1" s="81" t="s">
+      <c r="AZ1" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="BA1" s="82"/>
-      <c r="BB1" s="82"/>
-      <c r="BC1" s="82"/>
-      <c r="BD1" s="82"/>
-      <c r="BE1" s="82"/>
-      <c r="BF1" s="82"/>
-      <c r="BG1" s="82"/>
-      <c r="BH1" s="82"/>
-      <c r="BI1" s="82"/>
-      <c r="BJ1" s="82"/>
-      <c r="BK1" s="82"/>
-      <c r="BL1" s="82"/>
-      <c r="BM1" s="82"/>
-      <c r="BN1" s="82"/>
-      <c r="BO1" s="82"/>
-      <c r="BP1" s="82"/>
-      <c r="BQ1" s="82"/>
-      <c r="BR1" s="82"/>
-      <c r="BS1" s="82"/>
-      <c r="BT1" s="82"/>
-      <c r="BU1" s="82"/>
-      <c r="BV1" s="83" t="s">
+      <c r="BA1" s="72"/>
+      <c r="BB1" s="72"/>
+      <c r="BC1" s="72"/>
+      <c r="BD1" s="72"/>
+      <c r="BE1" s="72"/>
+      <c r="BF1" s="72"/>
+      <c r="BG1" s="72"/>
+      <c r="BH1" s="72"/>
+      <c r="BI1" s="72"/>
+      <c r="BJ1" s="72"/>
+      <c r="BK1" s="72"/>
+      <c r="BL1" s="72"/>
+      <c r="BM1" s="72"/>
+      <c r="BN1" s="72"/>
+      <c r="BO1" s="72"/>
+      <c r="BP1" s="72"/>
+      <c r="BQ1" s="72"/>
+      <c r="BR1" s="72"/>
+      <c r="BS1" s="72"/>
+      <c r="BT1" s="72"/>
+      <c r="BU1" s="72"/>
+      <c r="BV1" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="BW1" s="82"/>
-      <c r="BX1" s="82"/>
-      <c r="BY1" s="82"/>
-      <c r="BZ1" s="82"/>
-      <c r="CA1" s="82"/>
-      <c r="CB1" s="82"/>
-      <c r="CC1" s="82"/>
-      <c r="CD1" s="82"/>
-      <c r="CE1" s="82"/>
-      <c r="CF1" s="82"/>
-      <c r="CG1" s="82"/>
-      <c r="CH1" s="82"/>
-      <c r="CI1" s="82"/>
-      <c r="CJ1" s="82"/>
-      <c r="CK1" s="82"/>
-      <c r="CL1" s="82"/>
-      <c r="CM1" s="82"/>
-      <c r="CN1" s="82"/>
-      <c r="CO1" s="84" t="s">
+      <c r="BW1" s="72"/>
+      <c r="BX1" s="72"/>
+      <c r="BY1" s="72"/>
+      <c r="BZ1" s="72"/>
+      <c r="CA1" s="72"/>
+      <c r="CB1" s="72"/>
+      <c r="CC1" s="72"/>
+      <c r="CD1" s="72"/>
+      <c r="CE1" s="72"/>
+      <c r="CF1" s="72"/>
+      <c r="CG1" s="72"/>
+      <c r="CH1" s="72"/>
+      <c r="CI1" s="72"/>
+      <c r="CJ1" s="72"/>
+      <c r="CK1" s="72"/>
+      <c r="CL1" s="72"/>
+      <c r="CM1" s="72"/>
+      <c r="CN1" s="72"/>
+      <c r="CO1" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="CP1" s="82"/>
-      <c r="CQ1" s="82"/>
-      <c r="CR1" s="82"/>
-      <c r="CS1" s="82"/>
-      <c r="CT1" s="82"/>
-      <c r="CU1" s="82"/>
-      <c r="CV1" s="82"/>
+      <c r="CP1" s="72"/>
+      <c r="CQ1" s="72"/>
+      <c r="CR1" s="72"/>
+      <c r="CS1" s="72"/>
+      <c r="CT1" s="72"/>
+      <c r="CU1" s="72"/>
+      <c r="CV1" s="72"/>
     </row>
     <row r="2" spans="1:104" ht="16.5">
       <c r="Y2" s="5" t="s">
@@ -3006,154 +3018,154 @@
       <c r="AF2" s="13"/>
       <c r="AG2" s="13"/>
       <c r="AH2" s="14"/>
-      <c r="AI2" s="85" t="s">
+      <c r="AI2" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="AJ2" s="86"/>
-      <c r="AK2" s="86"/>
-      <c r="AL2" s="86"/>
-      <c r="AM2" s="87"/>
-      <c r="AN2" s="85" t="s">
+      <c r="AJ2" s="76"/>
+      <c r="AK2" s="76"/>
+      <c r="AL2" s="76"/>
+      <c r="AM2" s="77"/>
+      <c r="AN2" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="AO2" s="86"/>
-      <c r="AP2" s="86"/>
-      <c r="AQ2" s="86"/>
-      <c r="AR2" s="86"/>
-      <c r="AS2" s="86"/>
-      <c r="AT2" s="87"/>
-      <c r="AU2" s="85" t="s">
+      <c r="AO2" s="76"/>
+      <c r="AP2" s="76"/>
+      <c r="AQ2" s="76"/>
+      <c r="AR2" s="76"/>
+      <c r="AS2" s="76"/>
+      <c r="AT2" s="77"/>
+      <c r="AU2" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="AV2" s="86"/>
-      <c r="AW2" s="86"/>
-      <c r="AX2" s="86"/>
-      <c r="AY2" s="87"/>
-      <c r="AZ2" s="88" t="s">
+      <c r="AV2" s="76"/>
+      <c r="AW2" s="76"/>
+      <c r="AX2" s="76"/>
+      <c r="AY2" s="77"/>
+      <c r="AZ2" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="BA2" s="59"/>
-      <c r="BB2" s="59"/>
-      <c r="BC2" s="59"/>
-      <c r="BD2" s="59"/>
-      <c r="BE2" s="88" t="s">
+      <c r="BA2" s="70"/>
+      <c r="BB2" s="70"/>
+      <c r="BC2" s="70"/>
+      <c r="BD2" s="70"/>
+      <c r="BE2" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="BF2" s="59"/>
-      <c r="BG2" s="59"/>
-      <c r="BH2" s="59"/>
-      <c r="BI2" s="59"/>
-      <c r="BJ2" s="88" t="s">
+      <c r="BF2" s="70"/>
+      <c r="BG2" s="70"/>
+      <c r="BH2" s="70"/>
+      <c r="BI2" s="70"/>
+      <c r="BJ2" s="78" t="s">
         <v>109</v>
       </c>
-      <c r="BK2" s="59"/>
-      <c r="BL2" s="59"/>
-      <c r="BM2" s="59"/>
-      <c r="BN2" s="59"/>
-      <c r="BO2" s="59"/>
-      <c r="BP2" s="59"/>
-      <c r="BQ2" s="88" t="s">
+      <c r="BK2" s="70"/>
+      <c r="BL2" s="70"/>
+      <c r="BM2" s="70"/>
+      <c r="BN2" s="70"/>
+      <c r="BO2" s="70"/>
+      <c r="BP2" s="70"/>
+      <c r="BQ2" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="BR2" s="59"/>
-      <c r="BS2" s="59"/>
-      <c r="BT2" s="59"/>
-      <c r="BU2" s="59"/>
-      <c r="BV2" s="88" t="s">
+      <c r="BR2" s="70"/>
+      <c r="BS2" s="70"/>
+      <c r="BT2" s="70"/>
+      <c r="BU2" s="70"/>
+      <c r="BV2" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="BW2" s="59"/>
-      <c r="BX2" s="59"/>
-      <c r="BY2" s="59"/>
-      <c r="BZ2" s="59"/>
-      <c r="CA2" s="88" t="s">
+      <c r="BW2" s="70"/>
+      <c r="BX2" s="70"/>
+      <c r="BY2" s="70"/>
+      <c r="BZ2" s="70"/>
+      <c r="CA2" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="CB2" s="59"/>
-      <c r="CC2" s="59"/>
-      <c r="CD2" s="59"/>
-      <c r="CE2" s="80" t="s">
+      <c r="CB2" s="70"/>
+      <c r="CC2" s="70"/>
+      <c r="CD2" s="70"/>
+      <c r="CE2" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="CF2" s="59"/>
-      <c r="CG2" s="59"/>
-      <c r="CH2" s="59"/>
-      <c r="CI2" s="59"/>
-      <c r="CJ2" s="80" t="s">
+      <c r="CF2" s="70"/>
+      <c r="CG2" s="70"/>
+      <c r="CH2" s="70"/>
+      <c r="CI2" s="70"/>
+      <c r="CJ2" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="CK2" s="59"/>
-      <c r="CL2" s="59"/>
-      <c r="CM2" s="59"/>
-      <c r="CN2" s="59"/>
-      <c r="CO2" s="80" t="s">
+      <c r="CK2" s="70"/>
+      <c r="CL2" s="70"/>
+      <c r="CM2" s="70"/>
+      <c r="CN2" s="70"/>
+      <c r="CO2" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="CP2" s="59"/>
-      <c r="CQ2" s="59"/>
-      <c r="CR2" s="59"/>
-      <c r="CS2" s="59"/>
-      <c r="CT2" s="59"/>
-      <c r="CU2" s="80" t="s">
+      <c r="CP2" s="70"/>
+      <c r="CQ2" s="70"/>
+      <c r="CR2" s="70"/>
+      <c r="CS2" s="70"/>
+      <c r="CT2" s="70"/>
+      <c r="CU2" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="CV2" s="59"/>
+      <c r="CV2" s="70"/>
     </row>
     <row r="3" spans="1:104" ht="16.5">
       <c r="Y3" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="Z3" s="77">
+      <c r="Z3" s="79">
         <v>0</v>
       </c>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="77">
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="79">
         <v>1</v>
       </c>
-      <c r="AD3" s="75"/>
+      <c r="AD3" s="80"/>
       <c r="AE3" s="15">
         <v>2</v>
       </c>
       <c r="AF3" s="16">
         <v>3</v>
       </c>
-      <c r="AG3" s="78">
+      <c r="AG3" s="81">
         <v>4</v>
       </c>
-      <c r="AH3" s="79"/>
+      <c r="AH3" s="82"/>
       <c r="AI3" s="16">
         <v>5</v>
       </c>
       <c r="AJ3" s="15">
         <v>6</v>
       </c>
-      <c r="AK3" s="74">
+      <c r="AK3" s="83">
         <v>7</v>
       </c>
-      <c r="AL3" s="75"/>
+      <c r="AL3" s="80"/>
       <c r="AM3" s="15">
         <v>8</v>
       </c>
-      <c r="AN3" s="74">
+      <c r="AN3" s="83">
         <v>9</v>
       </c>
-      <c r="AO3" s="77"/>
-      <c r="AP3" s="75"/>
+      <c r="AO3" s="79"/>
+      <c r="AP3" s="80"/>
       <c r="AQ3" s="15">
         <v>10</v>
       </c>
-      <c r="AR3" s="74">
+      <c r="AR3" s="83">
         <v>11</v>
       </c>
-      <c r="AS3" s="75"/>
+      <c r="AS3" s="80"/>
       <c r="AT3" s="15">
         <v>12</v>
       </c>
-      <c r="AU3" s="74">
+      <c r="AU3" s="83">
         <v>13</v>
       </c>
-      <c r="AV3" s="75"/>
+      <c r="AV3" s="80"/>
       <c r="AW3" s="15">
         <v>14</v>
       </c>
@@ -3163,10 +3175,10 @@
       <c r="AY3" s="15">
         <v>16</v>
       </c>
-      <c r="AZ3" s="76">
+      <c r="AZ3" s="89">
         <v>17</v>
       </c>
-      <c r="BA3" s="59"/>
+      <c r="BA3" s="70"/>
       <c r="BB3" s="15">
         <v>18</v>
       </c>
@@ -3176,36 +3188,36 @@
       <c r="BD3" s="15">
         <v>20</v>
       </c>
-      <c r="BE3" s="76">
+      <c r="BE3" s="89">
         <v>21</v>
       </c>
-      <c r="BF3" s="59"/>
-      <c r="BG3" s="72">
+      <c r="BF3" s="70"/>
+      <c r="BG3" s="87">
         <v>22</v>
       </c>
-      <c r="BH3" s="59"/>
+      <c r="BH3" s="70"/>
       <c r="BI3" s="16">
         <v>23</v>
       </c>
-      <c r="BJ3" s="72">
+      <c r="BJ3" s="87">
         <v>24</v>
       </c>
-      <c r="BK3" s="59"/>
-      <c r="BL3" s="59"/>
-      <c r="BM3" s="76">
+      <c r="BK3" s="70"/>
+      <c r="BL3" s="70"/>
+      <c r="BM3" s="89">
         <v>25</v>
       </c>
-      <c r="BN3" s="59"/>
+      <c r="BN3" s="70"/>
       <c r="BO3" s="15">
         <v>26</v>
       </c>
       <c r="BP3" s="16">
         <v>27</v>
       </c>
-      <c r="BQ3" s="71">
+      <c r="BQ3" s="86">
         <v>28</v>
       </c>
-      <c r="BR3" s="59"/>
+      <c r="BR3" s="70"/>
       <c r="BS3" s="17">
         <v>29</v>
       </c>
@@ -3215,42 +3227,42 @@
       <c r="BU3" s="17">
         <v>31</v>
       </c>
-      <c r="BV3" s="72">
+      <c r="BV3" s="87">
         <v>32</v>
       </c>
-      <c r="BW3" s="59"/>
+      <c r="BW3" s="70"/>
       <c r="BX3" s="16">
         <v>33</v>
       </c>
-      <c r="BY3" s="72">
+      <c r="BY3" s="87">
         <v>34</v>
       </c>
-      <c r="BZ3" s="59"/>
-      <c r="CA3" s="73">
+      <c r="BZ3" s="70"/>
+      <c r="CA3" s="88">
         <v>35</v>
       </c>
-      <c r="CB3" s="59"/>
+      <c r="CB3" s="70"/>
       <c r="CC3" s="19">
         <v>36</v>
       </c>
       <c r="CD3" s="20">
         <v>37</v>
       </c>
-      <c r="CE3" s="64">
+      <c r="CE3" s="97">
         <v>38</v>
       </c>
-      <c r="CF3" s="59"/>
+      <c r="CF3" s="70"/>
       <c r="CG3" s="21">
         <v>39</v>
       </c>
-      <c r="CH3" s="64">
+      <c r="CH3" s="97">
         <v>40</v>
       </c>
-      <c r="CI3" s="59"/>
-      <c r="CJ3" s="62">
+      <c r="CI3" s="70"/>
+      <c r="CJ3" s="95">
         <v>41</v>
       </c>
-      <c r="CK3" s="59"/>
+      <c r="CK3" s="70"/>
       <c r="CL3" s="22">
         <v>42</v>
       </c>
@@ -3260,80 +3272,80 @@
       <c r="CN3" s="22">
         <v>44</v>
       </c>
-      <c r="CO3" s="62">
+      <c r="CO3" s="95">
         <v>45</v>
       </c>
-      <c r="CP3" s="59"/>
+      <c r="CP3" s="70"/>
       <c r="CQ3" s="22">
         <v>46</v>
       </c>
-      <c r="CR3" s="63">
+      <c r="CR3" s="96">
         <v>47</v>
       </c>
-      <c r="CS3" s="59"/>
+      <c r="CS3" s="70"/>
       <c r="CT3" s="21">
         <v>48</v>
       </c>
-      <c r="CU3" s="63">
+      <c r="CU3" s="96">
         <v>49</v>
       </c>
-      <c r="CV3" s="59"/>
+      <c r="CV3" s="70"/>
     </row>
     <row r="4" spans="1:104" ht="108.75" customHeight="1">
       <c r="Y4" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="Z4" s="65" t="s">
+      <c r="Z4" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65" t="s">
+      <c r="AA4" s="91"/>
+      <c r="AB4" s="91"/>
+      <c r="AC4" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="AD4" s="65"/>
+      <c r="AD4" s="91"/>
       <c r="AE4" s="23" t="s">
         <v>115</v>
       </c>
       <c r="AF4" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="AG4" s="66" t="s">
+      <c r="AG4" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="AH4" s="67"/>
+      <c r="AH4" s="93"/>
       <c r="AI4" s="20" t="s">
         <v>118</v>
       </c>
       <c r="AJ4" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="AK4" s="68" t="s">
+      <c r="AK4" s="84" t="s">
         <v>120</v>
       </c>
-      <c r="AL4" s="69"/>
+      <c r="AL4" s="85"/>
       <c r="AM4" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AN4" s="68" t="s">
+      <c r="AN4" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="AO4" s="70"/>
-      <c r="AP4" s="69"/>
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="85"/>
       <c r="AQ4" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="AR4" s="68" t="s">
+      <c r="AR4" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="AS4" s="69"/>
+      <c r="AS4" s="85"/>
       <c r="AT4" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="AU4" s="68" t="s">
+      <c r="AU4" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="AV4" s="69"/>
+      <c r="AV4" s="85"/>
       <c r="AW4" s="19" t="s">
         <v>127</v>
       </c>
@@ -3343,10 +3355,10 @@
       <c r="AY4" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="AZ4" s="61" t="s">
+      <c r="AZ4" s="90" t="s">
         <v>130</v>
       </c>
-      <c r="BA4" s="59"/>
+      <c r="BA4" s="70"/>
       <c r="BB4" s="19" t="s">
         <v>131</v>
       </c>
@@ -3356,36 +3368,36 @@
       <c r="BD4" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="BE4" s="61" t="s">
+      <c r="BE4" s="90" t="s">
         <v>134</v>
       </c>
-      <c r="BF4" s="59"/>
-      <c r="BG4" s="60" t="s">
+      <c r="BF4" s="70"/>
+      <c r="BG4" s="98" t="s">
         <v>135</v>
       </c>
-      <c r="BH4" s="59"/>
+      <c r="BH4" s="70"/>
       <c r="BI4" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="BJ4" s="60" t="s">
+      <c r="BJ4" s="98" t="s">
         <v>137</v>
       </c>
-      <c r="BK4" s="59"/>
-      <c r="BL4" s="59"/>
-      <c r="BM4" s="61" t="s">
+      <c r="BK4" s="70"/>
+      <c r="BL4" s="70"/>
+      <c r="BM4" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="BN4" s="59"/>
+      <c r="BN4" s="70"/>
       <c r="BO4" s="19" t="s">
         <v>139</v>
       </c>
       <c r="BP4" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="BQ4" s="60" t="s">
+      <c r="BQ4" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="BR4" s="59"/>
+      <c r="BR4" s="70"/>
       <c r="BS4" s="20" t="s">
         <v>127</v>
       </c>
@@ -3395,42 +3407,42 @@
       <c r="BU4" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="BV4" s="60" t="s">
+      <c r="BV4" s="98" t="s">
         <v>143</v>
       </c>
-      <c r="BW4" s="59"/>
+      <c r="BW4" s="70"/>
       <c r="BX4" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="BY4" s="60" t="s">
+      <c r="BY4" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="BZ4" s="59"/>
-      <c r="CA4" s="61" t="s">
+      <c r="BZ4" s="70"/>
+      <c r="CA4" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="CB4" s="59"/>
+      <c r="CB4" s="70"/>
       <c r="CC4" s="19" t="s">
         <v>147</v>
       </c>
       <c r="CD4" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="CE4" s="60" t="s">
+      <c r="CE4" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="CF4" s="59"/>
+      <c r="CF4" s="70"/>
       <c r="CG4" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="CH4" s="60" t="s">
+      <c r="CH4" s="98" t="s">
         <v>151</v>
       </c>
-      <c r="CI4" s="59"/>
-      <c r="CJ4" s="61" t="s">
+      <c r="CI4" s="70"/>
+      <c r="CJ4" s="90" t="s">
         <v>152</v>
       </c>
-      <c r="CK4" s="59"/>
+      <c r="CK4" s="70"/>
       <c r="CL4" s="19" t="s">
         <v>127</v>
       </c>
@@ -3440,24 +3452,24 @@
       <c r="CN4" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="CO4" s="61" t="s">
+      <c r="CO4" s="90" t="s">
         <v>153</v>
       </c>
-      <c r="CP4" s="59"/>
+      <c r="CP4" s="70"/>
       <c r="CQ4" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="CR4" s="58" t="s">
+      <c r="CR4" s="99" t="s">
         <v>155</v>
       </c>
-      <c r="CS4" s="59"/>
+      <c r="CS4" s="70"/>
       <c r="CT4" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="CU4" s="58" t="s">
+      <c r="CU4" s="99" t="s">
         <v>157</v>
       </c>
-      <c r="CV4" s="59"/>
+      <c r="CV4" s="70"/>
     </row>
     <row r="5" spans="1:104" ht="144.75" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -3775,6 +3787,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="CU4:CV4"/>
+    <mergeCell ref="BQ4:BR4"/>
+    <mergeCell ref="BV4:BW4"/>
+    <mergeCell ref="BY4:BZ4"/>
+    <mergeCell ref="CA4:CB4"/>
+    <mergeCell ref="CE4:CF4"/>
+    <mergeCell ref="CH4:CI4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="BJ4:BL4"/>
+    <mergeCell ref="CJ4:CK4"/>
+    <mergeCell ref="CO4:CP4"/>
+    <mergeCell ref="CR4:CS4"/>
+    <mergeCell ref="CJ3:CK3"/>
+    <mergeCell ref="CO3:CP3"/>
+    <mergeCell ref="CR3:CS3"/>
+    <mergeCell ref="CU3:CV3"/>
+    <mergeCell ref="CE3:CF3"/>
+    <mergeCell ref="CH3:CI3"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BV3:BW3"/>
+    <mergeCell ref="BY3:BZ3"/>
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AZ3:BA3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BJ3:BL3"/>
+    <mergeCell ref="BM3:BN3"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="CU2:CV2"/>
     <mergeCell ref="AZ1:BU1"/>
     <mergeCell ref="BV1:CN1"/>
@@ -3791,50 +3847,6 @@
     <mergeCell ref="CE2:CI2"/>
     <mergeCell ref="CJ2:CN2"/>
     <mergeCell ref="CO2:CT2"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BV3:BW3"/>
-    <mergeCell ref="BY3:BZ3"/>
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AZ3:BA3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BJ3:BL3"/>
-    <mergeCell ref="BM3:BN3"/>
-    <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AN4:AP4"/>
-    <mergeCell ref="CJ3:CK3"/>
-    <mergeCell ref="CO3:CP3"/>
-    <mergeCell ref="CR3:CS3"/>
-    <mergeCell ref="CU3:CV3"/>
-    <mergeCell ref="CE3:CF3"/>
-    <mergeCell ref="CH3:CI3"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="BJ4:BL4"/>
-    <mergeCell ref="CJ4:CK4"/>
-    <mergeCell ref="CO4:CP4"/>
-    <mergeCell ref="CR4:CS4"/>
-    <mergeCell ref="CU4:CV4"/>
-    <mergeCell ref="BQ4:BR4"/>
-    <mergeCell ref="BV4:BW4"/>
-    <mergeCell ref="BY4:BZ4"/>
-    <mergeCell ref="CA4:CB4"/>
-    <mergeCell ref="CE4:CF4"/>
-    <mergeCell ref="CH4:CI4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3859,76 +3871,76 @@
       </c>
       <c r="AA1" s="11"/>
       <c r="AB1" s="11"/>
-      <c r="AC1" s="97" t="s">
+      <c r="AC1" s="100" t="s">
         <v>102</v>
       </c>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="90"/>
-      <c r="AF1" s="90"/>
-      <c r="AG1" s="90"/>
-      <c r="AH1" s="90"/>
-      <c r="AI1" s="90"/>
-      <c r="AJ1" s="90"/>
-      <c r="AK1" s="90"/>
-      <c r="AL1" s="90"/>
-      <c r="AM1" s="90"/>
-      <c r="AN1" s="90"/>
-      <c r="AO1" s="90"/>
-      <c r="AP1" s="90"/>
-      <c r="AQ1" s="90"/>
-      <c r="AR1" s="90"/>
-      <c r="AS1" s="90"/>
-      <c r="AT1" s="90"/>
-      <c r="AU1" s="90"/>
-      <c r="AV1" s="90"/>
-      <c r="AW1" s="98" t="s">
+      <c r="AD1" s="101"/>
+      <c r="AE1" s="101"/>
+      <c r="AF1" s="101"/>
+      <c r="AG1" s="101"/>
+      <c r="AH1" s="101"/>
+      <c r="AI1" s="101"/>
+      <c r="AJ1" s="101"/>
+      <c r="AK1" s="101"/>
+      <c r="AL1" s="101"/>
+      <c r="AM1" s="101"/>
+      <c r="AN1" s="101"/>
+      <c r="AO1" s="101"/>
+      <c r="AP1" s="101"/>
+      <c r="AQ1" s="101"/>
+      <c r="AR1" s="101"/>
+      <c r="AS1" s="101"/>
+      <c r="AT1" s="101"/>
+      <c r="AU1" s="101"/>
+      <c r="AV1" s="101"/>
+      <c r="AW1" s="102" t="s">
         <v>103</v>
       </c>
-      <c r="AX1" s="90"/>
-      <c r="AY1" s="90"/>
-      <c r="AZ1" s="90"/>
-      <c r="BA1" s="90"/>
-      <c r="BB1" s="90"/>
-      <c r="BC1" s="90"/>
-      <c r="BD1" s="90"/>
-      <c r="BE1" s="90"/>
-      <c r="BF1" s="90"/>
-      <c r="BG1" s="90"/>
-      <c r="BH1" s="90"/>
-      <c r="BI1" s="90"/>
-      <c r="BJ1" s="90"/>
-      <c r="BK1" s="90"/>
-      <c r="BL1" s="99" t="s">
+      <c r="AX1" s="101"/>
+      <c r="AY1" s="101"/>
+      <c r="AZ1" s="101"/>
+      <c r="BA1" s="101"/>
+      <c r="BB1" s="101"/>
+      <c r="BC1" s="101"/>
+      <c r="BD1" s="101"/>
+      <c r="BE1" s="101"/>
+      <c r="BF1" s="101"/>
+      <c r="BG1" s="101"/>
+      <c r="BH1" s="101"/>
+      <c r="BI1" s="101"/>
+      <c r="BJ1" s="101"/>
+      <c r="BK1" s="101"/>
+      <c r="BL1" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="BM1" s="90"/>
-      <c r="BN1" s="90"/>
-      <c r="BO1" s="90"/>
-      <c r="BP1" s="90"/>
-      <c r="BQ1" s="90"/>
-      <c r="BR1" s="90"/>
-      <c r="BS1" s="90"/>
-      <c r="BT1" s="90"/>
-      <c r="BU1" s="90"/>
-      <c r="BV1" s="90"/>
-      <c r="BW1" s="90"/>
-      <c r="BX1" s="90"/>
-      <c r="BY1" s="90"/>
-      <c r="BZ1" s="90"/>
-      <c r="CA1" s="90"/>
-      <c r="CB1" s="90"/>
-      <c r="CC1" s="100" t="s">
+      <c r="BM1" s="101"/>
+      <c r="BN1" s="101"/>
+      <c r="BO1" s="101"/>
+      <c r="BP1" s="101"/>
+      <c r="BQ1" s="101"/>
+      <c r="BR1" s="101"/>
+      <c r="BS1" s="101"/>
+      <c r="BT1" s="101"/>
+      <c r="BU1" s="101"/>
+      <c r="BV1" s="101"/>
+      <c r="BW1" s="101"/>
+      <c r="BX1" s="101"/>
+      <c r="BY1" s="101"/>
+      <c r="BZ1" s="101"/>
+      <c r="CA1" s="101"/>
+      <c r="CB1" s="101"/>
+      <c r="CC1" s="104" t="s">
         <v>206</v>
       </c>
-      <c r="CD1" s="90"/>
-      <c r="CE1" s="90"/>
-      <c r="CF1" s="90"/>
-      <c r="CG1" s="90"/>
-      <c r="CH1" s="90"/>
-      <c r="CI1" s="90"/>
-      <c r="CJ1" s="90"/>
-      <c r="CK1" s="90"/>
-      <c r="CL1" s="90"/>
+      <c r="CD1" s="101"/>
+      <c r="CE1" s="101"/>
+      <c r="CF1" s="101"/>
+      <c r="CG1" s="101"/>
+      <c r="CH1" s="101"/>
+      <c r="CI1" s="101"/>
+      <c r="CJ1" s="101"/>
+      <c r="CK1" s="101"/>
+      <c r="CL1" s="101"/>
     </row>
     <row r="2" spans="1:94" ht="16.5">
       <c r="Y2" s="5" t="s">
@@ -3939,106 +3951,106 @@
       </c>
       <c r="AA2" s="13"/>
       <c r="AB2" s="13"/>
-      <c r="AC2" s="101" t="s">
+      <c r="AC2" s="105" t="s">
         <v>107</v>
       </c>
-      <c r="AD2" s="90"/>
-      <c r="AE2" s="90"/>
-      <c r="AF2" s="90"/>
-      <c r="AG2" s="90"/>
-      <c r="AH2" s="96" t="s">
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="101"/>
+      <c r="AG2" s="101"/>
+      <c r="AH2" s="106" t="s">
         <v>108</v>
       </c>
-      <c r="AI2" s="90"/>
-      <c r="AJ2" s="90"/>
-      <c r="AK2" s="90"/>
-      <c r="AL2" s="96" t="s">
+      <c r="AI2" s="101"/>
+      <c r="AJ2" s="101"/>
+      <c r="AK2" s="101"/>
+      <c r="AL2" s="106" t="s">
         <v>109</v>
       </c>
-      <c r="AM2" s="90"/>
-      <c r="AN2" s="90"/>
-      <c r="AO2" s="90"/>
-      <c r="AP2" s="90"/>
-      <c r="AQ2" s="96" t="s">
+      <c r="AM2" s="101"/>
+      <c r="AN2" s="101"/>
+      <c r="AO2" s="101"/>
+      <c r="AP2" s="101"/>
+      <c r="AQ2" s="106" t="s">
         <v>207</v>
       </c>
-      <c r="AR2" s="90"/>
-      <c r="AS2" s="90"/>
-      <c r="AT2" s="90"/>
-      <c r="AU2" s="90"/>
-      <c r="AV2" s="90"/>
-      <c r="AW2" s="96" t="s">
+      <c r="AR2" s="101"/>
+      <c r="AS2" s="101"/>
+      <c r="AT2" s="101"/>
+      <c r="AU2" s="101"/>
+      <c r="AV2" s="101"/>
+      <c r="AW2" s="106" t="s">
         <v>208</v>
       </c>
-      <c r="AX2" s="90"/>
-      <c r="AY2" s="90"/>
-      <c r="AZ2" s="90"/>
-      <c r="BA2" s="90"/>
-      <c r="BB2" s="96" t="s">
+      <c r="AX2" s="101"/>
+      <c r="AY2" s="101"/>
+      <c r="AZ2" s="101"/>
+      <c r="BA2" s="101"/>
+      <c r="BB2" s="106" t="s">
         <v>209</v>
       </c>
-      <c r="BC2" s="90"/>
-      <c r="BD2" s="90"/>
-      <c r="BE2" s="96" t="s">
+      <c r="BC2" s="101"/>
+      <c r="BD2" s="101"/>
+      <c r="BE2" s="106" t="s">
         <v>109</v>
       </c>
-      <c r="BF2" s="90"/>
-      <c r="BG2" s="96" t="s">
+      <c r="BF2" s="101"/>
+      <c r="BG2" s="106" t="s">
         <v>110</v>
       </c>
-      <c r="BH2" s="90"/>
-      <c r="BI2" s="90"/>
-      <c r="BJ2" s="90"/>
-      <c r="BK2" s="90"/>
-      <c r="BL2" s="96" t="s">
+      <c r="BH2" s="101"/>
+      <c r="BI2" s="101"/>
+      <c r="BJ2" s="101"/>
+      <c r="BK2" s="101"/>
+      <c r="BL2" s="106" t="s">
         <v>210</v>
       </c>
-      <c r="BM2" s="90"/>
-      <c r="BN2" s="90"/>
-      <c r="BO2" s="90"/>
-      <c r="BP2" s="96" t="s">
+      <c r="BM2" s="101"/>
+      <c r="BN2" s="101"/>
+      <c r="BO2" s="101"/>
+      <c r="BP2" s="106" t="s">
         <v>209</v>
       </c>
-      <c r="BQ2" s="90"/>
-      <c r="BR2" s="90"/>
-      <c r="BS2" s="90"/>
-      <c r="BT2" s="96" t="s">
+      <c r="BQ2" s="101"/>
+      <c r="BR2" s="101"/>
+      <c r="BS2" s="101"/>
+      <c r="BT2" s="106" t="s">
         <v>211</v>
       </c>
-      <c r="BU2" s="90"/>
-      <c r="BV2" s="90"/>
-      <c r="BW2" s="90"/>
-      <c r="BX2" s="96" t="s">
+      <c r="BU2" s="101"/>
+      <c r="BV2" s="101"/>
+      <c r="BW2" s="101"/>
+      <c r="BX2" s="106" t="s">
         <v>212</v>
       </c>
-      <c r="BY2" s="90"/>
-      <c r="BZ2" s="90"/>
-      <c r="CA2" s="90"/>
-      <c r="CB2" s="90"/>
-      <c r="CC2" s="96" t="s">
+      <c r="BY2" s="101"/>
+      <c r="BZ2" s="101"/>
+      <c r="CA2" s="101"/>
+      <c r="CB2" s="101"/>
+      <c r="CC2" s="106" t="s">
         <v>107</v>
       </c>
-      <c r="CD2" s="90"/>
-      <c r="CE2" s="90"/>
-      <c r="CF2" s="90"/>
-      <c r="CG2" s="90"/>
-      <c r="CH2" s="90"/>
-      <c r="CI2" s="90"/>
-      <c r="CJ2" s="96" t="s">
+      <c r="CD2" s="101"/>
+      <c r="CE2" s="101"/>
+      <c r="CF2" s="101"/>
+      <c r="CG2" s="101"/>
+      <c r="CH2" s="101"/>
+      <c r="CI2" s="101"/>
+      <c r="CJ2" s="106" t="s">
         <v>209</v>
       </c>
-      <c r="CK2" s="90"/>
-      <c r="CL2" s="90"/>
+      <c r="CK2" s="101"/>
+      <c r="CL2" s="101"/>
     </row>
     <row r="3" spans="1:94" ht="16.5">
       <c r="Y3" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="Z3" s="77">
+      <c r="Z3" s="79">
         <v>0</v>
       </c>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="77"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
       <c r="AC3" s="26">
         <v>1</v>
       </c>
@@ -4054,34 +4066,34 @@
       <c r="AG3" s="27">
         <v>5</v>
       </c>
-      <c r="AH3" s="94">
+      <c r="AH3" s="107">
         <v>6</v>
       </c>
-      <c r="AI3" s="90"/>
+      <c r="AI3" s="101"/>
       <c r="AJ3" s="27">
         <v>7</v>
       </c>
       <c r="AK3" s="27">
         <v>8</v>
       </c>
-      <c r="AL3" s="94">
+      <c r="AL3" s="107">
         <v>9</v>
       </c>
-      <c r="AM3" s="90"/>
-      <c r="AN3" s="94">
+      <c r="AM3" s="101"/>
+      <c r="AN3" s="107">
         <v>10</v>
       </c>
-      <c r="AO3" s="90"/>
+      <c r="AO3" s="101"/>
       <c r="AP3" s="27">
         <v>11</v>
       </c>
       <c r="AQ3" s="27">
         <v>12</v>
       </c>
-      <c r="AR3" s="94">
+      <c r="AR3" s="107">
         <v>13</v>
       </c>
-      <c r="AS3" s="90"/>
+      <c r="AS3" s="101"/>
       <c r="AT3" s="27">
         <v>14</v>
       </c>
@@ -4094,20 +4106,20 @@
       <c r="AW3" s="27">
         <v>17</v>
       </c>
-      <c r="AX3" s="94">
+      <c r="AX3" s="107">
         <v>18</v>
       </c>
-      <c r="AY3" s="90"/>
+      <c r="AY3" s="101"/>
       <c r="AZ3" s="27">
         <v>19</v>
       </c>
       <c r="BA3" s="27">
         <v>20</v>
       </c>
-      <c r="BB3" s="94">
+      <c r="BB3" s="107">
         <v>21</v>
       </c>
-      <c r="BC3" s="90"/>
+      <c r="BC3" s="101"/>
       <c r="BD3" s="27">
         <v>22</v>
       </c>
@@ -4117,10 +4129,10 @@
       <c r="BF3" s="27">
         <v>24</v>
       </c>
-      <c r="BG3" s="94">
+      <c r="BG3" s="107">
         <v>25</v>
       </c>
-      <c r="BH3" s="90"/>
+      <c r="BH3" s="101"/>
       <c r="BI3" s="27">
         <v>26</v>
       </c>
@@ -4130,34 +4142,34 @@
       <c r="BK3" s="27">
         <v>28</v>
       </c>
-      <c r="BL3" s="94">
+      <c r="BL3" s="107">
         <v>29</v>
       </c>
-      <c r="BM3" s="90"/>
-      <c r="BN3" s="94">
+      <c r="BM3" s="101"/>
+      <c r="BN3" s="107">
         <v>30</v>
       </c>
-      <c r="BO3" s="90"/>
-      <c r="BP3" s="94">
+      <c r="BO3" s="101"/>
+      <c r="BP3" s="107">
         <v>31</v>
       </c>
-      <c r="BQ3" s="90"/>
-      <c r="BR3" s="90"/>
+      <c r="BQ3" s="101"/>
+      <c r="BR3" s="101"/>
       <c r="BS3" s="27">
         <v>32</v>
       </c>
-      <c r="BT3" s="94">
+      <c r="BT3" s="107">
         <v>33</v>
       </c>
-      <c r="BU3" s="90"/>
-      <c r="BV3" s="94">
+      <c r="BU3" s="101"/>
+      <c r="BV3" s="107">
         <v>34</v>
       </c>
-      <c r="BW3" s="90"/>
-      <c r="BX3" s="94">
+      <c r="BW3" s="101"/>
+      <c r="BX3" s="107">
         <v>35</v>
       </c>
-      <c r="BY3" s="90"/>
+      <c r="BY3" s="101"/>
       <c r="BZ3" s="27">
         <v>36</v>
       </c>
@@ -4167,36 +4179,36 @@
       <c r="CB3" s="27">
         <v>38</v>
       </c>
-      <c r="CC3" s="94">
+      <c r="CC3" s="107">
         <v>39</v>
       </c>
-      <c r="CD3" s="90"/>
-      <c r="CE3" s="90"/>
+      <c r="CD3" s="101"/>
+      <c r="CE3" s="101"/>
       <c r="CF3" s="27">
         <v>40</v>
       </c>
       <c r="CG3" s="27">
         <v>41</v>
       </c>
-      <c r="CH3" s="94">
+      <c r="CH3" s="107">
         <v>42</v>
       </c>
-      <c r="CI3" s="90"/>
-      <c r="CJ3" s="94">
+      <c r="CI3" s="101"/>
+      <c r="CJ3" s="107">
         <v>43</v>
       </c>
-      <c r="CK3" s="90"/>
-      <c r="CL3" s="90"/>
+      <c r="CK3" s="101"/>
+      <c r="CL3" s="101"/>
     </row>
     <row r="4" spans="1:94" ht="115.5" customHeight="1">
       <c r="Y4" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="Z4" s="65" t="s">
+      <c r="Z4" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
+      <c r="AA4" s="91"/>
+      <c r="AB4" s="91"/>
       <c r="AC4" s="28" t="s">
         <v>213</v>
       </c>
@@ -4212,34 +4224,34 @@
       <c r="AG4" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="AH4" s="92" t="s">
+      <c r="AH4" s="108" t="s">
         <v>218</v>
       </c>
-      <c r="AI4" s="90"/>
+      <c r="AI4" s="101"/>
       <c r="AJ4" s="30" t="s">
         <v>219</v>
       </c>
       <c r="AK4" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="AL4" s="91" t="s">
+      <c r="AL4" s="109" t="s">
         <v>221</v>
       </c>
-      <c r="AM4" s="90"/>
-      <c r="AN4" s="92" t="s">
+      <c r="AM4" s="101"/>
+      <c r="AN4" s="108" t="s">
         <v>222</v>
       </c>
-      <c r="AO4" s="90"/>
+      <c r="AO4" s="101"/>
       <c r="AP4" s="31" t="s">
         <v>223</v>
       </c>
       <c r="AQ4" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="AR4" s="95" t="s">
+      <c r="AR4" s="110" t="s">
         <v>126</v>
       </c>
-      <c r="AS4" s="90"/>
+      <c r="AS4" s="101"/>
       <c r="AT4" s="29" t="s">
         <v>225</v>
       </c>
@@ -4252,20 +4264,20 @@
       <c r="AW4" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="AX4" s="92" t="s">
+      <c r="AX4" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="AY4" s="90"/>
+      <c r="AY4" s="101"/>
       <c r="AZ4" s="30" t="s">
         <v>230</v>
       </c>
       <c r="BA4" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="BB4" s="91" t="s">
+      <c r="BB4" s="109" t="s">
         <v>232</v>
       </c>
-      <c r="BC4" s="90"/>
+      <c r="BC4" s="101"/>
       <c r="BD4" s="29" t="s">
         <v>233</v>
       </c>
@@ -4275,10 +4287,10 @@
       <c r="BF4" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="BG4" s="89" t="s">
+      <c r="BG4" s="111" t="s">
         <v>236</v>
       </c>
-      <c r="BH4" s="90"/>
+      <c r="BH4" s="101"/>
       <c r="BI4" s="32" t="s">
         <v>237</v>
       </c>
@@ -4288,34 +4300,34 @@
       <c r="BK4" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="BL4" s="89" t="s">
+      <c r="BL4" s="111" t="s">
         <v>240</v>
       </c>
-      <c r="BM4" s="90"/>
-      <c r="BN4" s="92" t="s">
+      <c r="BM4" s="101"/>
+      <c r="BN4" s="108" t="s">
         <v>241</v>
       </c>
-      <c r="BO4" s="90"/>
-      <c r="BP4" s="91" t="s">
+      <c r="BO4" s="101"/>
+      <c r="BP4" s="109" t="s">
         <v>242</v>
       </c>
-      <c r="BQ4" s="90"/>
-      <c r="BR4" s="90"/>
+      <c r="BQ4" s="101"/>
+      <c r="BR4" s="101"/>
       <c r="BS4" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="BT4" s="91" t="s">
+      <c r="BT4" s="109" t="s">
         <v>244</v>
       </c>
-      <c r="BU4" s="90"/>
-      <c r="BV4" s="93" t="s">
+      <c r="BU4" s="101"/>
+      <c r="BV4" s="112" t="s">
         <v>245</v>
       </c>
-      <c r="BW4" s="90"/>
-      <c r="BX4" s="89" t="s">
+      <c r="BW4" s="101"/>
+      <c r="BX4" s="111" t="s">
         <v>246</v>
       </c>
-      <c r="BY4" s="90"/>
+      <c r="BY4" s="101"/>
       <c r="BZ4" s="32" t="s">
         <v>247</v>
       </c>
@@ -4325,26 +4337,26 @@
       <c r="CB4" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="CC4" s="91" t="s">
+      <c r="CC4" s="109" t="s">
         <v>250</v>
       </c>
-      <c r="CD4" s="90"/>
-      <c r="CE4" s="90"/>
+      <c r="CD4" s="101"/>
+      <c r="CE4" s="101"/>
       <c r="CF4" s="29" t="s">
         <v>251</v>
       </c>
       <c r="CG4" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="CH4" s="92" t="s">
+      <c r="CH4" s="108" t="s">
         <v>253</v>
       </c>
-      <c r="CI4" s="90"/>
-      <c r="CJ4" s="91" t="s">
+      <c r="CI4" s="101"/>
+      <c r="CJ4" s="109" t="s">
         <v>254</v>
       </c>
-      <c r="CK4" s="90"/>
-      <c r="CL4" s="90"/>
+      <c r="CK4" s="101"/>
+      <c r="CL4" s="101"/>
     </row>
     <row r="5" spans="1:94" s="25" customFormat="1" ht="111.75" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -4632,6 +4644,42 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="BX4:BY4"/>
+    <mergeCell ref="CC4:CE4"/>
+    <mergeCell ref="CH4:CI4"/>
+    <mergeCell ref="CJ4:CL4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="BL4:BM4"/>
+    <mergeCell ref="BN4:BO4"/>
+    <mergeCell ref="BP4:BR4"/>
+    <mergeCell ref="BT4:BU4"/>
+    <mergeCell ref="BV4:BW4"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CH3:CI3"/>
+    <mergeCell ref="CJ3:CL3"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AX4:AY4"/>
+    <mergeCell ref="BB4:BC4"/>
+    <mergeCell ref="BL3:BM3"/>
+    <mergeCell ref="BN3:BO3"/>
+    <mergeCell ref="BP3:BR3"/>
+    <mergeCell ref="BT3:BU3"/>
+    <mergeCell ref="BV3:BW3"/>
+    <mergeCell ref="BX3:BY3"/>
+    <mergeCell ref="AX3:AY3"/>
+    <mergeCell ref="BB3:BC3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="BG2:BK2"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AR3:AS3"/>
     <mergeCell ref="AC1:AV1"/>
     <mergeCell ref="AW1:BK1"/>
     <mergeCell ref="BL1:CB1"/>
@@ -4648,42 +4696,6 @@
     <mergeCell ref="BP2:BS2"/>
     <mergeCell ref="BT2:BW2"/>
     <mergeCell ref="BX2:CB2"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="AX3:AY3"/>
-    <mergeCell ref="BB3:BC3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="BG2:BK2"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CH3:CI3"/>
-    <mergeCell ref="CJ3:CL3"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AX4:AY4"/>
-    <mergeCell ref="BB4:BC4"/>
-    <mergeCell ref="BL3:BM3"/>
-    <mergeCell ref="BN3:BO3"/>
-    <mergeCell ref="BP3:BR3"/>
-    <mergeCell ref="BT3:BU3"/>
-    <mergeCell ref="BV3:BW3"/>
-    <mergeCell ref="BX3:BY3"/>
-    <mergeCell ref="BX4:BY4"/>
-    <mergeCell ref="CC4:CE4"/>
-    <mergeCell ref="CH4:CI4"/>
-    <mergeCell ref="CJ4:CL4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="BL4:BM4"/>
-    <mergeCell ref="BN4:BO4"/>
-    <mergeCell ref="BP4:BR4"/>
-    <mergeCell ref="BT4:BU4"/>
-    <mergeCell ref="BV4:BW4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4708,71 +4720,71 @@
       </c>
       <c r="AA1" s="11"/>
       <c r="AB1" s="11"/>
-      <c r="AC1" s="114">
+      <c r="AC1" s="113">
         <v>1</v>
       </c>
-      <c r="AD1" s="107"/>
-      <c r="AE1" s="107"/>
-      <c r="AF1" s="107"/>
-      <c r="AG1" s="107"/>
-      <c r="AH1" s="107"/>
-      <c r="AI1" s="107"/>
-      <c r="AJ1" s="107"/>
-      <c r="AK1" s="107"/>
-      <c r="AL1" s="107"/>
-      <c r="AM1" s="107"/>
-      <c r="AN1" s="107"/>
-      <c r="AO1" s="107"/>
-      <c r="AP1" s="107"/>
-      <c r="AQ1" s="107"/>
-      <c r="AR1" s="107"/>
-      <c r="AS1" s="107"/>
-      <c r="AT1" s="107"/>
-      <c r="AU1" s="107"/>
-      <c r="AV1" s="107"/>
-      <c r="AW1" s="107"/>
-      <c r="AX1" s="107"/>
-      <c r="AY1" s="107"/>
+      <c r="AD1" s="114"/>
+      <c r="AE1" s="114"/>
+      <c r="AF1" s="114"/>
+      <c r="AG1" s="114"/>
+      <c r="AH1" s="114"/>
+      <c r="AI1" s="114"/>
+      <c r="AJ1" s="114"/>
+      <c r="AK1" s="114"/>
+      <c r="AL1" s="114"/>
+      <c r="AM1" s="114"/>
+      <c r="AN1" s="114"/>
+      <c r="AO1" s="114"/>
+      <c r="AP1" s="114"/>
+      <c r="AQ1" s="114"/>
+      <c r="AR1" s="114"/>
+      <c r="AS1" s="114"/>
+      <c r="AT1" s="114"/>
+      <c r="AU1" s="114"/>
+      <c r="AV1" s="114"/>
+      <c r="AW1" s="114"/>
+      <c r="AX1" s="114"/>
+      <c r="AY1" s="114"/>
       <c r="AZ1" s="115">
         <v>2</v>
       </c>
-      <c r="BA1" s="107"/>
-      <c r="BB1" s="107"/>
-      <c r="BC1" s="107"/>
-      <c r="BD1" s="107"/>
-      <c r="BE1" s="107"/>
-      <c r="BF1" s="107"/>
-      <c r="BG1" s="107"/>
-      <c r="BH1" s="107"/>
-      <c r="BI1" s="107"/>
-      <c r="BJ1" s="107"/>
+      <c r="BA1" s="114"/>
+      <c r="BB1" s="114"/>
+      <c r="BC1" s="114"/>
+      <c r="BD1" s="114"/>
+      <c r="BE1" s="114"/>
+      <c r="BF1" s="114"/>
+      <c r="BG1" s="114"/>
+      <c r="BH1" s="114"/>
+      <c r="BI1" s="114"/>
+      <c r="BJ1" s="114"/>
       <c r="BK1" s="116">
         <v>3</v>
       </c>
-      <c r="BL1" s="107"/>
-      <c r="BM1" s="107"/>
-      <c r="BN1" s="107"/>
-      <c r="BO1" s="107"/>
-      <c r="BP1" s="107"/>
-      <c r="BQ1" s="107"/>
-      <c r="BR1" s="107"/>
-      <c r="BS1" s="107"/>
-      <c r="BT1" s="107"/>
-      <c r="BU1" s="107"/>
-      <c r="BV1" s="107"/>
-      <c r="BW1" s="107"/>
-      <c r="BX1" s="107"/>
-      <c r="BY1" s="107"/>
-      <c r="BZ1" s="107"/>
-      <c r="CA1" s="107"/>
+      <c r="BL1" s="114"/>
+      <c r="BM1" s="114"/>
+      <c r="BN1" s="114"/>
+      <c r="BO1" s="114"/>
+      <c r="BP1" s="114"/>
+      <c r="BQ1" s="114"/>
+      <c r="BR1" s="114"/>
+      <c r="BS1" s="114"/>
+      <c r="BT1" s="114"/>
+      <c r="BU1" s="114"/>
+      <c r="BV1" s="114"/>
+      <c r="BW1" s="114"/>
+      <c r="BX1" s="114"/>
+      <c r="BY1" s="114"/>
+      <c r="BZ1" s="114"/>
+      <c r="CA1" s="114"/>
       <c r="CB1" s="117" t="s">
         <v>206</v>
       </c>
-      <c r="CC1" s="107"/>
-      <c r="CD1" s="107"/>
-      <c r="CE1" s="107"/>
-      <c r="CF1" s="107"/>
-      <c r="CG1" s="107"/>
+      <c r="CC1" s="114"/>
+      <c r="CD1" s="114"/>
+      <c r="CE1" s="114"/>
+      <c r="CF1" s="114"/>
+      <c r="CG1" s="114"/>
     </row>
     <row r="2" spans="1:89" ht="16.5">
       <c r="Y2" s="5" t="s">
@@ -4786,214 +4798,214 @@
       <c r="AC2" s="118">
         <v>1</v>
       </c>
-      <c r="AD2" s="107"/>
-      <c r="AE2" s="107"/>
-      <c r="AF2" s="112">
+      <c r="AD2" s="114"/>
+      <c r="AE2" s="114"/>
+      <c r="AF2" s="119">
         <v>2</v>
       </c>
-      <c r="AG2" s="107"/>
-      <c r="AH2" s="107"/>
-      <c r="AI2" s="111">
+      <c r="AG2" s="114"/>
+      <c r="AH2" s="114"/>
+      <c r="AI2" s="120">
         <v>3</v>
       </c>
-      <c r="AJ2" s="107"/>
-      <c r="AK2" s="107"/>
-      <c r="AL2" s="107"/>
-      <c r="AM2" s="112">
+      <c r="AJ2" s="114"/>
+      <c r="AK2" s="114"/>
+      <c r="AL2" s="114"/>
+      <c r="AM2" s="119">
         <v>4</v>
       </c>
-      <c r="AN2" s="107"/>
-      <c r="AO2" s="107"/>
-      <c r="AP2" s="107"/>
-      <c r="AQ2" s="107"/>
-      <c r="AR2" s="111">
+      <c r="AN2" s="114"/>
+      <c r="AO2" s="114"/>
+      <c r="AP2" s="114"/>
+      <c r="AQ2" s="114"/>
+      <c r="AR2" s="120">
         <v>5</v>
       </c>
-      <c r="AS2" s="107"/>
-      <c r="AT2" s="107"/>
-      <c r="AU2" s="107"/>
-      <c r="AV2" s="112">
+      <c r="AS2" s="114"/>
+      <c r="AT2" s="114"/>
+      <c r="AU2" s="114"/>
+      <c r="AV2" s="119">
         <v>6</v>
       </c>
-      <c r="AW2" s="107"/>
-      <c r="AX2" s="107"/>
-      <c r="AY2" s="107"/>
-      <c r="AZ2" s="111">
+      <c r="AW2" s="114"/>
+      <c r="AX2" s="114"/>
+      <c r="AY2" s="114"/>
+      <c r="AZ2" s="120">
         <v>1</v>
       </c>
-      <c r="BA2" s="107"/>
-      <c r="BB2" s="107"/>
-      <c r="BC2" s="107"/>
-      <c r="BD2" s="107"/>
-      <c r="BE2" s="112">
+      <c r="BA2" s="114"/>
+      <c r="BB2" s="114"/>
+      <c r="BC2" s="114"/>
+      <c r="BD2" s="114"/>
+      <c r="BE2" s="119">
         <v>2</v>
       </c>
-      <c r="BF2" s="107"/>
-      <c r="BG2" s="107"/>
-      <c r="BH2" s="111">
+      <c r="BF2" s="114"/>
+      <c r="BG2" s="114"/>
+      <c r="BH2" s="120">
         <v>3</v>
       </c>
-      <c r="BI2" s="107"/>
-      <c r="BJ2" s="107"/>
-      <c r="BK2" s="112">
+      <c r="BI2" s="114"/>
+      <c r="BJ2" s="114"/>
+      <c r="BK2" s="119">
         <v>1</v>
       </c>
-      <c r="BL2" s="107"/>
-      <c r="BM2" s="107"/>
-      <c r="BN2" s="107"/>
-      <c r="BO2" s="111">
+      <c r="BL2" s="114"/>
+      <c r="BM2" s="114"/>
+      <c r="BN2" s="114"/>
+      <c r="BO2" s="120">
         <v>2</v>
       </c>
-      <c r="BP2" s="107"/>
-      <c r="BQ2" s="107"/>
-      <c r="BR2" s="107"/>
-      <c r="BS2" s="112">
+      <c r="BP2" s="114"/>
+      <c r="BQ2" s="114"/>
+      <c r="BR2" s="114"/>
+      <c r="BS2" s="119">
         <v>3</v>
       </c>
-      <c r="BT2" s="107"/>
-      <c r="BU2" s="107"/>
-      <c r="BV2" s="107"/>
-      <c r="BW2" s="107"/>
-      <c r="BX2" s="111">
+      <c r="BT2" s="114"/>
+      <c r="BU2" s="114"/>
+      <c r="BV2" s="114"/>
+      <c r="BW2" s="114"/>
+      <c r="BX2" s="120">
         <v>4</v>
       </c>
-      <c r="BY2" s="107"/>
-      <c r="BZ2" s="107"/>
-      <c r="CA2" s="107"/>
-      <c r="CB2" s="112">
+      <c r="BY2" s="114"/>
+      <c r="BZ2" s="114"/>
+      <c r="CA2" s="114"/>
+      <c r="CB2" s="119">
         <v>1</v>
       </c>
-      <c r="CC2" s="107"/>
-      <c r="CD2" s="107"/>
-      <c r="CE2" s="111">
+      <c r="CC2" s="114"/>
+      <c r="CD2" s="114"/>
+      <c r="CE2" s="120">
         <v>2</v>
       </c>
-      <c r="CF2" s="107"/>
-      <c r="CG2" s="107"/>
+      <c r="CF2" s="114"/>
+      <c r="CG2" s="114"/>
     </row>
     <row r="3" spans="1:89" ht="26.25" customHeight="1">
       <c r="Y3" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="Z3" s="77">
+      <c r="Z3" s="79">
         <v>0</v>
       </c>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="113">
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="121">
         <v>1</v>
       </c>
-      <c r="AD3" s="107"/>
+      <c r="AD3" s="114"/>
       <c r="AE3" s="40">
         <v>2</v>
       </c>
-      <c r="AF3" s="108">
+      <c r="AF3" s="122">
         <v>3</v>
       </c>
-      <c r="AG3" s="107"/>
+      <c r="AG3" s="114"/>
       <c r="AH3" s="41">
         <v>4</v>
       </c>
-      <c r="AI3" s="105">
+      <c r="AI3" s="123">
         <v>5</v>
       </c>
-      <c r="AJ3" s="107"/>
-      <c r="AK3" s="107"/>
+      <c r="AJ3" s="114"/>
+      <c r="AK3" s="114"/>
       <c r="AL3" s="40">
         <v>6</v>
       </c>
-      <c r="AM3" s="110">
+      <c r="AM3" s="124">
         <v>7</v>
       </c>
-      <c r="AN3" s="107"/>
-      <c r="AO3" s="107"/>
-      <c r="AP3" s="110">
+      <c r="AN3" s="114"/>
+      <c r="AO3" s="114"/>
+      <c r="AP3" s="124">
         <v>8</v>
       </c>
-      <c r="AQ3" s="107"/>
-      <c r="AR3" s="105">
+      <c r="AQ3" s="114"/>
+      <c r="AR3" s="123">
         <v>9</v>
       </c>
-      <c r="AS3" s="107"/>
-      <c r="AT3" s="105">
+      <c r="AS3" s="114"/>
+      <c r="AT3" s="123">
         <v>10</v>
       </c>
-      <c r="AU3" s="107"/>
-      <c r="AV3" s="108">
+      <c r="AU3" s="114"/>
+      <c r="AV3" s="122">
         <v>11</v>
       </c>
-      <c r="AW3" s="107"/>
-      <c r="AX3" s="107"/>
+      <c r="AW3" s="114"/>
+      <c r="AX3" s="114"/>
       <c r="AY3" s="41">
         <v>12</v>
       </c>
-      <c r="AZ3" s="106">
+      <c r="AZ3" s="125">
         <v>13</v>
       </c>
-      <c r="BA3" s="107"/>
-      <c r="BB3" s="106">
+      <c r="BA3" s="114"/>
+      <c r="BB3" s="125">
         <v>14</v>
       </c>
-      <c r="BC3" s="107"/>
-      <c r="BD3" s="107"/>
-      <c r="BE3" s="108">
+      <c r="BC3" s="114"/>
+      <c r="BD3" s="114"/>
+      <c r="BE3" s="122">
         <v>15</v>
       </c>
-      <c r="BF3" s="107"/>
+      <c r="BF3" s="114"/>
       <c r="BG3" s="41">
         <v>16</v>
       </c>
-      <c r="BH3" s="106">
+      <c r="BH3" s="125">
         <v>17</v>
       </c>
-      <c r="BI3" s="107"/>
+      <c r="BI3" s="114"/>
       <c r="BJ3" s="40">
         <v>18</v>
       </c>
-      <c r="BK3" s="108">
+      <c r="BK3" s="122">
         <v>19</v>
       </c>
-      <c r="BL3" s="107"/>
-      <c r="BM3" s="107"/>
+      <c r="BL3" s="114"/>
+      <c r="BM3" s="114"/>
       <c r="BN3" s="41">
         <v>20</v>
       </c>
-      <c r="BO3" s="106">
+      <c r="BO3" s="125">
         <v>21</v>
       </c>
-      <c r="BP3" s="107"/>
-      <c r="BQ3" s="106">
+      <c r="BP3" s="114"/>
+      <c r="BQ3" s="125">
         <v>22</v>
       </c>
-      <c r="BR3" s="107"/>
-      <c r="BS3" s="108">
+      <c r="BR3" s="114"/>
+      <c r="BS3" s="122">
         <v>23</v>
       </c>
-      <c r="BT3" s="107"/>
-      <c r="BU3" s="107"/>
-      <c r="BV3" s="108">
+      <c r="BT3" s="114"/>
+      <c r="BU3" s="114"/>
+      <c r="BV3" s="122">
         <v>24</v>
       </c>
-      <c r="BW3" s="107"/>
-      <c r="BX3" s="106">
+      <c r="BW3" s="114"/>
+      <c r="BX3" s="125">
         <v>25</v>
       </c>
-      <c r="BY3" s="107"/>
-      <c r="BZ3" s="106">
+      <c r="BY3" s="114"/>
+      <c r="BZ3" s="125">
         <v>26</v>
       </c>
-      <c r="CA3" s="107"/>
-      <c r="CB3" s="108">
+      <c r="CA3" s="114"/>
+      <c r="CB3" s="122">
         <v>27</v>
       </c>
-      <c r="CC3" s="107"/>
+      <c r="CC3" s="114"/>
       <c r="CD3" s="41">
         <v>28</v>
       </c>
-      <c r="CE3" s="106">
+      <c r="CE3" s="125">
         <v>29</v>
       </c>
-      <c r="CF3" s="107"/>
+      <c r="CF3" s="114"/>
       <c r="CG3" s="42">
         <v>30</v>
       </c>
@@ -5002,125 +5014,125 @@
       <c r="Y4" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="Z4" s="65" t="s">
+      <c r="Z4" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="109" t="s">
+      <c r="AA4" s="91"/>
+      <c r="AB4" s="91"/>
+      <c r="AC4" s="128" t="s">
         <v>295</v>
       </c>
-      <c r="AD4" s="103"/>
+      <c r="AD4" s="127"/>
       <c r="AE4" s="43" t="s">
         <v>296</v>
       </c>
-      <c r="AF4" s="104" t="s">
+      <c r="AF4" s="129" t="s">
         <v>297</v>
       </c>
-      <c r="AG4" s="103"/>
+      <c r="AG4" s="127"/>
       <c r="AH4" s="44" t="s">
         <v>298</v>
       </c>
-      <c r="AI4" s="105" t="s">
+      <c r="AI4" s="123" t="s">
         <v>299</v>
       </c>
-      <c r="AJ4" s="103"/>
-      <c r="AK4" s="103"/>
+      <c r="AJ4" s="127"/>
+      <c r="AK4" s="127"/>
       <c r="AL4" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="AM4" s="110" t="s">
+      <c r="AM4" s="124" t="s">
         <v>301</v>
       </c>
-      <c r="AN4" s="103"/>
-      <c r="AO4" s="103"/>
-      <c r="AP4" s="110" t="s">
+      <c r="AN4" s="127"/>
+      <c r="AO4" s="127"/>
+      <c r="AP4" s="124" t="s">
         <v>302</v>
       </c>
-      <c r="AQ4" s="103"/>
-      <c r="AR4" s="105" t="s">
+      <c r="AQ4" s="127"/>
+      <c r="AR4" s="123" t="s">
         <v>303</v>
       </c>
-      <c r="AS4" s="103"/>
-      <c r="AT4" s="105" t="s">
+      <c r="AS4" s="127"/>
+      <c r="AT4" s="123" t="s">
         <v>304</v>
       </c>
-      <c r="AU4" s="103"/>
-      <c r="AV4" s="104" t="s">
+      <c r="AU4" s="127"/>
+      <c r="AV4" s="129" t="s">
         <v>305</v>
       </c>
-      <c r="AW4" s="103"/>
-      <c r="AX4" s="103"/>
+      <c r="AW4" s="127"/>
+      <c r="AX4" s="127"/>
       <c r="AY4" s="44" t="s">
         <v>306</v>
       </c>
-      <c r="AZ4" s="102" t="s">
+      <c r="AZ4" s="126" t="s">
         <v>307</v>
       </c>
-      <c r="BA4" s="103"/>
-      <c r="BB4" s="102" t="s">
+      <c r="BA4" s="127"/>
+      <c r="BB4" s="126" t="s">
         <v>308</v>
       </c>
-      <c r="BC4" s="103"/>
-      <c r="BD4" s="103"/>
-      <c r="BE4" s="104" t="s">
+      <c r="BC4" s="127"/>
+      <c r="BD4" s="127"/>
+      <c r="BE4" s="129" t="s">
         <v>309</v>
       </c>
-      <c r="BF4" s="103"/>
+      <c r="BF4" s="127"/>
       <c r="BG4" s="44" t="s">
         <v>310</v>
       </c>
-      <c r="BH4" s="102" t="s">
+      <c r="BH4" s="126" t="s">
         <v>311</v>
       </c>
-      <c r="BI4" s="103"/>
+      <c r="BI4" s="127"/>
       <c r="BJ4" s="45" t="s">
         <v>312</v>
       </c>
-      <c r="BK4" s="104" t="s">
+      <c r="BK4" s="129" t="s">
         <v>313</v>
       </c>
-      <c r="BL4" s="103"/>
-      <c r="BM4" s="103"/>
+      <c r="BL4" s="127"/>
+      <c r="BM4" s="127"/>
       <c r="BN4" s="44" t="s">
         <v>314</v>
       </c>
-      <c r="BO4" s="102" t="s">
+      <c r="BO4" s="126" t="s">
         <v>315</v>
       </c>
-      <c r="BP4" s="103"/>
-      <c r="BQ4" s="102" t="s">
+      <c r="BP4" s="127"/>
+      <c r="BQ4" s="126" t="s">
         <v>316</v>
       </c>
-      <c r="BR4" s="103"/>
-      <c r="BS4" s="104" t="s">
+      <c r="BR4" s="127"/>
+      <c r="BS4" s="129" t="s">
         <v>317</v>
       </c>
-      <c r="BT4" s="103"/>
-      <c r="BU4" s="103"/>
-      <c r="BV4" s="104" t="s">
+      <c r="BT4" s="127"/>
+      <c r="BU4" s="127"/>
+      <c r="BV4" s="129" t="s">
         <v>318</v>
       </c>
-      <c r="BW4" s="103"/>
-      <c r="BX4" s="102" t="s">
+      <c r="BW4" s="127"/>
+      <c r="BX4" s="126" t="s">
         <v>319</v>
       </c>
-      <c r="BY4" s="103"/>
-      <c r="BZ4" s="102" t="s">
+      <c r="BY4" s="127"/>
+      <c r="BZ4" s="126" t="s">
         <v>320</v>
       </c>
-      <c r="CA4" s="103"/>
-      <c r="CB4" s="104" t="s">
+      <c r="CA4" s="127"/>
+      <c r="CB4" s="129" t="s">
         <v>321</v>
       </c>
-      <c r="CC4" s="103"/>
+      <c r="CC4" s="127"/>
       <c r="CD4" s="44" t="s">
         <v>322</v>
       </c>
-      <c r="CE4" s="102" t="s">
+      <c r="CE4" s="126" t="s">
         <v>323</v>
       </c>
-      <c r="CF4" s="103"/>
+      <c r="CF4" s="127"/>
       <c r="CG4" s="45" t="s">
         <v>324</v>
       </c>
@@ -5396,6 +5408,53 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="BZ4:CA4"/>
+    <mergeCell ref="CB4:CC4"/>
+    <mergeCell ref="CE4:CF4"/>
+    <mergeCell ref="BK4:BM4"/>
+    <mergeCell ref="BO4:BP4"/>
+    <mergeCell ref="BQ4:BR4"/>
+    <mergeCell ref="BS4:BU4"/>
+    <mergeCell ref="BV4:BW4"/>
+    <mergeCell ref="BX4:BY4"/>
+    <mergeCell ref="AT4:AU4"/>
+    <mergeCell ref="AV4:AX4"/>
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="BB4:BD4"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BH4:BI4"/>
+    <mergeCell ref="BZ3:CA3"/>
+    <mergeCell ref="CB3:CC3"/>
+    <mergeCell ref="CE3:CF3"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="AM4:AO4"/>
+    <mergeCell ref="AP4:AQ4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BO3:BP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BS3:BU3"/>
+    <mergeCell ref="BV3:BW3"/>
+    <mergeCell ref="BX3:BY3"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AZ3:BA3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BH3:BI3"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="AZ2:BD2"/>
+    <mergeCell ref="BE2:BG2"/>
+    <mergeCell ref="BH2:BJ2"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AM3:AO3"/>
     <mergeCell ref="AC1:AY1"/>
     <mergeCell ref="AZ1:BJ1"/>
     <mergeCell ref="BK1:CA1"/>
@@ -5412,53 +5471,6 @@
     <mergeCell ref="BK2:BN2"/>
     <mergeCell ref="BO2:BR2"/>
     <mergeCell ref="BS2:BW2"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AI3:AK3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="AZ2:BD2"/>
-    <mergeCell ref="BE2:BG2"/>
-    <mergeCell ref="BH2:BJ2"/>
-    <mergeCell ref="BX3:BY3"/>
-    <mergeCell ref="AT3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AZ3:BA3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BH3:BI3"/>
-    <mergeCell ref="BH4:BI4"/>
-    <mergeCell ref="BZ3:CA3"/>
-    <mergeCell ref="CB3:CC3"/>
-    <mergeCell ref="CE3:CF3"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="AM4:AO4"/>
-    <mergeCell ref="AP4:AQ4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BO3:BP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BS3:BU3"/>
-    <mergeCell ref="BV3:BW3"/>
-    <mergeCell ref="AT4:AU4"/>
-    <mergeCell ref="AV4:AX4"/>
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="BB4:BD4"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BZ4:CA4"/>
-    <mergeCell ref="CB4:CC4"/>
-    <mergeCell ref="CE4:CF4"/>
-    <mergeCell ref="BK4:BM4"/>
-    <mergeCell ref="BO4:BP4"/>
-    <mergeCell ref="BQ4:BR4"/>
-    <mergeCell ref="BS4:BU4"/>
-    <mergeCell ref="BV4:BW4"/>
-    <mergeCell ref="BX4:BY4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5475,202 +5487,202 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:45" ht="16.5" customHeight="1">
-      <c r="Y1" s="166" t="s">
+      <c r="Y1" s="59" t="s">
         <v>369</v>
       </c>
-      <c r="Z1" s="181" t="s">
+      <c r="Z1" s="135" t="s">
         <v>370</v>
       </c>
-      <c r="AA1" s="181"/>
-      <c r="AB1" s="181"/>
-      <c r="AC1" s="181"/>
-      <c r="AD1" s="182"/>
-      <c r="AE1" s="167" t="s">
+      <c r="AA1" s="135"/>
+      <c r="AB1" s="135"/>
+      <c r="AC1" s="135"/>
+      <c r="AD1" s="136"/>
+      <c r="AE1" s="130" t="s">
         <v>371</v>
       </c>
-      <c r="AF1" s="167"/>
-      <c r="AG1" s="168" t="s">
+      <c r="AF1" s="130"/>
+      <c r="AG1" s="131" t="s">
         <v>372</v>
       </c>
-      <c r="AH1" s="168"/>
-      <c r="AI1" s="169"/>
-      <c r="AJ1" s="170" t="s">
+      <c r="AH1" s="131"/>
+      <c r="AI1" s="132"/>
+      <c r="AJ1" s="133" t="s">
         <v>373</v>
       </c>
-      <c r="AK1" s="170"/>
-      <c r="AL1" s="171"/>
-      <c r="AM1" s="171"/>
-      <c r="AN1" s="171"/>
-      <c r="AO1" s="165"/>
-      <c r="AP1" s="165"/>
-      <c r="AQ1" s="165"/>
-      <c r="AR1" s="165"/>
-      <c r="AS1" s="165"/>
+      <c r="AK1" s="133"/>
+      <c r="AL1" s="134"/>
+      <c r="AM1" s="134"/>
+      <c r="AN1" s="134"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="58"/>
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="58"/>
     </row>
     <row r="2" spans="1:45" ht="16.5" customHeight="1">
-      <c r="Y2" s="166" t="s">
+      <c r="Y2" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="Z2" s="172" t="s">
+      <c r="Z2" s="60" t="s">
         <v>374</v>
       </c>
-      <c r="AA2" s="172" t="s">
+      <c r="AA2" s="60" t="s">
         <v>374</v>
       </c>
-      <c r="AB2" s="172" t="s">
+      <c r="AB2" s="60" t="s">
         <v>375</v>
       </c>
-      <c r="AC2" s="172" t="s">
+      <c r="AC2" s="60" t="s">
         <v>376</v>
       </c>
-      <c r="AD2" s="172" t="s">
+      <c r="AD2" s="60" t="s">
         <v>377</v>
       </c>
-      <c r="AE2" s="173" t="s">
+      <c r="AE2" s="61" t="s">
         <v>378</v>
       </c>
-      <c r="AF2" s="173" t="s">
+      <c r="AF2" s="61" t="s">
         <v>379</v>
       </c>
-      <c r="AG2" s="174" t="s">
+      <c r="AG2" s="62" t="s">
         <v>380</v>
       </c>
-      <c r="AH2" s="174" t="s">
+      <c r="AH2" s="62" t="s">
         <v>381</v>
       </c>
-      <c r="AI2" s="174" t="s">
+      <c r="AI2" s="62" t="s">
         <v>382</v>
       </c>
-      <c r="AJ2" s="175" t="s">
+      <c r="AJ2" s="63" t="s">
         <v>383</v>
       </c>
-      <c r="AK2" s="175" t="s">
+      <c r="AK2" s="63" t="s">
         <v>384</v>
       </c>
-      <c r="AL2" s="175" t="s">
+      <c r="AL2" s="63" t="s">
         <v>385</v>
       </c>
-      <c r="AM2" s="175" t="s">
+      <c r="AM2" s="63" t="s">
         <v>386</v>
       </c>
-      <c r="AN2" s="175" t="s">
+      <c r="AN2" s="63" t="s">
         <v>387</v>
       </c>
-      <c r="AO2" s="165"/>
-      <c r="AP2" s="165"/>
-      <c r="AQ2" s="165"/>
-      <c r="AR2" s="165"/>
-      <c r="AS2" s="165"/>
+      <c r="AO2" s="58"/>
+      <c r="AP2" s="58"/>
+      <c r="AQ2" s="58"/>
+      <c r="AR2" s="58"/>
+      <c r="AS2" s="58"/>
     </row>
     <row r="3" spans="1:45" ht="26.25" customHeight="1">
-      <c r="Y3" s="166" t="s">
+      <c r="Y3" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="Z3" s="176" t="s">
+      <c r="Z3" s="64" t="s">
         <v>388</v>
       </c>
-      <c r="AA3" s="176" t="s">
+      <c r="AA3" s="64" t="s">
         <v>388</v>
       </c>
-      <c r="AB3" s="176" t="s">
+      <c r="AB3" s="64" t="s">
         <v>389</v>
       </c>
-      <c r="AC3" s="176" t="s">
+      <c r="AC3" s="64" t="s">
         <v>390</v>
       </c>
-      <c r="AD3" s="176" t="s">
+      <c r="AD3" s="64" t="s">
         <v>391</v>
       </c>
-      <c r="AE3" s="176" t="s">
+      <c r="AE3" s="64" t="s">
         <v>392</v>
       </c>
-      <c r="AF3" s="176" t="s">
+      <c r="AF3" s="64" t="s">
         <v>393</v>
       </c>
-      <c r="AG3" s="176" t="s">
+      <c r="AG3" s="64" t="s">
         <v>394</v>
       </c>
-      <c r="AH3" s="176" t="s">
+      <c r="AH3" s="64" t="s">
         <v>395</v>
       </c>
-      <c r="AI3" s="176" t="s">
+      <c r="AI3" s="64" t="s">
         <v>396</v>
       </c>
-      <c r="AJ3" s="176" t="s">
+      <c r="AJ3" s="64" t="s">
         <v>397</v>
       </c>
-      <c r="AK3" s="176" t="s">
+      <c r="AK3" s="64" t="s">
         <v>398</v>
       </c>
-      <c r="AL3" s="176" t="s">
+      <c r="AL3" s="64" t="s">
         <v>399</v>
       </c>
-      <c r="AM3" s="176" t="s">
+      <c r="AM3" s="64" t="s">
         <v>400</v>
       </c>
-      <c r="AN3" s="176" t="s">
+      <c r="AN3" s="64" t="s">
         <v>401</v>
       </c>
-      <c r="AO3" s="165"/>
-      <c r="AP3" s="165"/>
-      <c r="AQ3" s="165"/>
-      <c r="AR3" s="165"/>
-      <c r="AS3" s="165"/>
+      <c r="AO3" s="58"/>
+      <c r="AP3" s="58"/>
+      <c r="AQ3" s="58"/>
+      <c r="AR3" s="58"/>
+      <c r="AS3" s="58"/>
     </row>
     <row r="4" spans="1:45" ht="72" customHeight="1">
-      <c r="Y4" s="166" t="s">
+      <c r="Y4" s="59" t="s">
         <v>402</v>
       </c>
-      <c r="Z4" s="176" t="s">
+      <c r="Z4" s="64" t="s">
         <v>403</v>
       </c>
-      <c r="AA4" s="176" t="s">
+      <c r="AA4" s="64" t="s">
         <v>403</v>
       </c>
-      <c r="AB4" s="176" t="s">
+      <c r="AB4" s="64" t="s">
         <v>403</v>
       </c>
-      <c r="AC4" s="176" t="s">
+      <c r="AC4" s="64" t="s">
         <v>403</v>
       </c>
-      <c r="AD4" s="176" t="s">
+      <c r="AD4" s="64" t="s">
         <v>403</v>
       </c>
-      <c r="AE4" s="176" t="s">
+      <c r="AE4" s="64" t="s">
         <v>403</v>
       </c>
-      <c r="AF4" s="176" t="s">
+      <c r="AF4" s="64" t="s">
         <v>403</v>
       </c>
-      <c r="AG4" s="176" t="s">
+      <c r="AG4" s="64" t="s">
         <v>403</v>
       </c>
-      <c r="AH4" s="176" t="s">
+      <c r="AH4" s="64" t="s">
         <v>403</v>
       </c>
-      <c r="AI4" s="176" t="s">
+      <c r="AI4" s="64" t="s">
         <v>403</v>
       </c>
-      <c r="AJ4" s="176" t="s">
+      <c r="AJ4" s="64" t="s">
         <v>403</v>
       </c>
-      <c r="AK4" s="176" t="s">
+      <c r="AK4" s="64" t="s">
         <v>403</v>
       </c>
-      <c r="AL4" s="176" t="s">
+      <c r="AL4" s="64" t="s">
         <v>403</v>
       </c>
-      <c r="AM4" s="176" t="s">
+      <c r="AM4" s="64" t="s">
         <v>404</v>
       </c>
-      <c r="AN4" s="176" t="s">
+      <c r="AN4" s="64" t="s">
         <v>403</v>
       </c>
-      <c r="AO4" s="165"/>
-      <c r="AP4" s="165"/>
-      <c r="AQ4" s="165"/>
-      <c r="AR4" s="165"/>
-      <c r="AS4" s="165"/>
+      <c r="AO4" s="58"/>
+      <c r="AP4" s="58"/>
+      <c r="AQ4" s="58"/>
+      <c r="AR4" s="58"/>
+      <c r="AS4" s="58"/>
     </row>
     <row r="5" spans="1:45" s="25" customFormat="1" ht="103.5" customHeight="1">
       <c r="A5" s="35" t="s">
@@ -5745,67 +5757,67 @@
       <c r="X5" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Y5" s="178" t="s">
+      <c r="Y5" s="66" t="s">
         <v>24</v>
       </c>
       <c r="Z5" s="55" t="s">
         <v>353</v>
       </c>
-      <c r="AA5" s="179" t="s">
+      <c r="AA5" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="AB5" s="179" t="s">
+      <c r="AB5" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="AC5" s="179" t="s">
+      <c r="AC5" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="AD5" s="179" t="s">
+      <c r="AD5" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="AE5" s="179" t="s">
+      <c r="AE5" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="AF5" s="179" t="s">
+      <c r="AF5" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="AG5" s="179" t="s">
+      <c r="AG5" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="AH5" s="179" t="s">
+      <c r="AH5" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="AI5" s="179" t="s">
+      <c r="AI5" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="AJ5" s="179" t="s">
+      <c r="AJ5" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="AK5" s="179" t="s">
+      <c r="AK5" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="AL5" s="179" t="s">
+      <c r="AL5" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="AM5" s="179" t="s">
+      <c r="AM5" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="AN5" s="179" t="s">
+      <c r="AN5" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="AO5" s="180" t="s">
+      <c r="AO5" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="AP5" s="180" t="s">
+      <c r="AP5" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="AQ5" s="180" t="s">
+      <c r="AQ5" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="AR5" s="179" t="s">
+      <c r="AR5" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="AS5" s="177" t="s">
+      <c r="AS5" s="65" t="s">
         <v>405</v>
       </c>
     </row>
@@ -5831,84 +5843,84 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:673" ht="18">
-      <c r="Y1" s="119" t="s">
+      <c r="Y1" s="137" t="s">
         <v>336</v>
       </c>
-      <c r="Z1" s="121" t="s">
+      <c r="Z1" s="150" t="s">
         <v>337</v>
       </c>
-      <c r="AA1" s="122"/>
-      <c r="AB1" s="122"/>
-      <c r="AC1" s="123" t="s">
+      <c r="AA1" s="151"/>
+      <c r="AB1" s="151"/>
+      <c r="AC1" s="152" t="s">
         <v>338</v>
       </c>
-      <c r="AD1" s="124"/>
-      <c r="AE1" s="124"/>
-      <c r="AF1" s="124"/>
-      <c r="AG1" s="124"/>
-      <c r="AH1" s="124"/>
-      <c r="AI1" s="124"/>
-      <c r="AJ1" s="124"/>
-      <c r="AK1" s="124"/>
+      <c r="AD1" s="153"/>
+      <c r="AE1" s="153"/>
+      <c r="AF1" s="153"/>
+      <c r="AG1" s="153"/>
+      <c r="AH1" s="153"/>
+      <c r="AI1" s="153"/>
+      <c r="AJ1" s="153"/>
+      <c r="AK1" s="153"/>
     </row>
     <row r="2" spans="1:673" ht="18">
-      <c r="Y2" s="120"/>
-      <c r="Z2" s="125" t="s">
+      <c r="Y2" s="138"/>
+      <c r="Z2" s="154" t="s">
         <v>339</v>
       </c>
-      <c r="AA2" s="126"/>
-      <c r="AB2" s="126"/>
-      <c r="AC2" s="127" t="s">
+      <c r="AA2" s="155"/>
+      <c r="AB2" s="155"/>
+      <c r="AC2" s="156" t="s">
         <v>339</v>
       </c>
-      <c r="AD2" s="128"/>
-      <c r="AE2" s="128"/>
-      <c r="AF2" s="128"/>
-      <c r="AG2" s="128"/>
-      <c r="AH2" s="128"/>
-      <c r="AI2" s="128"/>
-      <c r="AJ2" s="128"/>
-      <c r="AK2" s="128"/>
+      <c r="AD2" s="157"/>
+      <c r="AE2" s="157"/>
+      <c r="AF2" s="157"/>
+      <c r="AG2" s="157"/>
+      <c r="AH2" s="157"/>
+      <c r="AI2" s="157"/>
+      <c r="AJ2" s="157"/>
+      <c r="AK2" s="157"/>
     </row>
     <row r="3" spans="1:673" ht="18">
-      <c r="Y3" s="119" t="s">
+      <c r="Y3" s="137" t="s">
         <v>112</v>
       </c>
-      <c r="Z3" s="129" t="s">
+      <c r="Z3" s="139" t="s">
         <v>340</v>
       </c>
-      <c r="AA3" s="130"/>
-      <c r="AB3" s="130"/>
-      <c r="AC3" s="131" t="s">
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="140"/>
+      <c r="AC3" s="141" t="s">
         <v>341</v>
       </c>
-      <c r="AD3" s="132"/>
-      <c r="AE3" s="132"/>
-      <c r="AF3" s="132"/>
-      <c r="AG3" s="135" t="s">
+      <c r="AD3" s="142"/>
+      <c r="AE3" s="142"/>
+      <c r="AF3" s="142"/>
+      <c r="AG3" s="145" t="s">
         <v>342</v>
       </c>
-      <c r="AH3" s="136"/>
-      <c r="AI3" s="136"/>
-      <c r="AJ3" s="136"/>
-      <c r="AK3" s="136"/>
+      <c r="AH3" s="146"/>
+      <c r="AI3" s="146"/>
+      <c r="AJ3" s="146"/>
+      <c r="AK3" s="146"/>
     </row>
     <row r="4" spans="1:673" ht="18">
-      <c r="Y4" s="120"/>
-      <c r="Z4" s="139" t="s">
+      <c r="Y4" s="138"/>
+      <c r="Z4" s="149" t="s">
         <v>343</v>
       </c>
-      <c r="AA4" s="134"/>
-      <c r="AB4" s="134"/>
-      <c r="AC4" s="133"/>
-      <c r="AD4" s="134"/>
-      <c r="AE4" s="134"/>
-      <c r="AF4" s="134"/>
-      <c r="AG4" s="137"/>
-      <c r="AH4" s="138"/>
-      <c r="AI4" s="138"/>
-      <c r="AJ4" s="138"/>
-      <c r="AK4" s="138"/>
+      <c r="AA4" s="144"/>
+      <c r="AB4" s="144"/>
+      <c r="AC4" s="143"/>
+      <c r="AD4" s="144"/>
+      <c r="AE4" s="144"/>
+      <c r="AF4" s="144"/>
+      <c r="AG4" s="147"/>
+      <c r="AH4" s="148"/>
+      <c r="AI4" s="148"/>
+      <c r="AJ4" s="148"/>
+      <c r="AK4" s="148"/>
     </row>
     <row r="5" spans="1:673" s="51" customFormat="1" ht="105.75" customHeight="1">
       <c r="A5" s="35" t="s">
@@ -6661,16 +6673,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AK1"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AK2"/>
     <mergeCell ref="Y3:Y4"/>
     <mergeCell ref="Z3:AB3"/>
     <mergeCell ref="AC3:AF4"/>
     <mergeCell ref="AG3:AK4"/>
     <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AK1"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AK2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6678,115 +6690,139 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT5"/>
+  <dimension ref="A1:AX5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AS5" sqref="AS5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="42" max="42" width="13.28515625" customWidth="1"/>
+    <col min="43" max="43" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.42578125" customWidth="1"/>
+    <col min="45" max="45" width="13.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="53" customFormat="1" ht="18" customHeight="1">
+    <row r="1" spans="1:50" s="53" customFormat="1" ht="18" customHeight="1">
       <c r="A1" s="52" t="s">
         <v>344</v>
       </c>
       <c r="B1" s="52"/>
-      <c r="Y1" s="140" t="s">
+      <c r="Y1" s="158" t="s">
         <v>347</v>
       </c>
-      <c r="Z1" s="143" t="s">
+      <c r="Z1" s="161" t="s">
         <v>348</v>
       </c>
-      <c r="AA1" s="143"/>
-      <c r="AB1" s="143"/>
-      <c r="AC1" s="143"/>
-      <c r="AD1" s="144" t="s">
+      <c r="AA1" s="161"/>
+      <c r="AB1" s="161"/>
+      <c r="AC1" s="161"/>
+      <c r="AD1" s="162" t="s">
         <v>349</v>
       </c>
-      <c r="AE1" s="145"/>
-      <c r="AF1" s="145"/>
-      <c r="AG1" s="146"/>
-      <c r="AH1" s="153" t="s">
+      <c r="AE1" s="163"/>
+      <c r="AF1" s="163"/>
+      <c r="AG1" s="164"/>
+      <c r="AH1" s="171" t="s">
         <v>350</v>
       </c>
-      <c r="AI1" s="154"/>
-      <c r="AJ1" s="154"/>
-      <c r="AK1" s="155"/>
-      <c r="AL1" s="159" t="s">
+      <c r="AI1" s="172"/>
+      <c r="AJ1" s="172"/>
+      <c r="AK1" s="173"/>
+      <c r="AL1" s="177" t="s">
         <v>351</v>
       </c>
-      <c r="AM1" s="160"/>
-      <c r="AN1" s="161"/>
-      <c r="AO1" s="142" t="s">
+      <c r="AM1" s="178"/>
+      <c r="AN1" s="179"/>
+      <c r="AO1" s="160" t="s">
         <v>352</v>
       </c>
+      <c r="AP1" s="160" t="s">
+        <v>339</v>
+      </c>
+      <c r="AQ1" s="160"/>
+      <c r="AR1" s="160"/>
+      <c r="AS1" s="160"/>
     </row>
-    <row r="2" spans="1:46" s="53" customFormat="1" ht="21" customHeight="1">
+    <row r="2" spans="1:50" s="53" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="52" t="s">
         <v>345</v>
       </c>
       <c r="B2" s="52"/>
-      <c r="Y2" s="140"/>
-      <c r="Z2" s="143"/>
-      <c r="AA2" s="143"/>
-      <c r="AB2" s="143"/>
-      <c r="AC2" s="143"/>
-      <c r="AD2" s="147"/>
-      <c r="AE2" s="148"/>
-      <c r="AF2" s="148"/>
-      <c r="AG2" s="149"/>
-      <c r="AH2" s="156"/>
-      <c r="AI2" s="157"/>
-      <c r="AJ2" s="157"/>
-      <c r="AK2" s="158"/>
-      <c r="AL2" s="162"/>
-      <c r="AM2" s="163"/>
-      <c r="AN2" s="164"/>
-      <c r="AO2" s="142"/>
+      <c r="Y2" s="158"/>
+      <c r="Z2" s="161"/>
+      <c r="AA2" s="161"/>
+      <c r="AB2" s="161"/>
+      <c r="AC2" s="161"/>
+      <c r="AD2" s="165"/>
+      <c r="AE2" s="166"/>
+      <c r="AF2" s="166"/>
+      <c r="AG2" s="167"/>
+      <c r="AH2" s="174"/>
+      <c r="AI2" s="175"/>
+      <c r="AJ2" s="175"/>
+      <c r="AK2" s="176"/>
+      <c r="AL2" s="180"/>
+      <c r="AM2" s="181"/>
+      <c r="AN2" s="182"/>
+      <c r="AO2" s="160"/>
+      <c r="AP2" s="160"/>
+      <c r="AQ2" s="160"/>
+      <c r="AR2" s="160"/>
+      <c r="AS2" s="160"/>
     </row>
-    <row r="3" spans="1:46" s="53" customFormat="1" ht="15.75" customHeight="1">
-      <c r="Y3" s="140"/>
-      <c r="Z3" s="143"/>
-      <c r="AA3" s="143"/>
-      <c r="AB3" s="143"/>
-      <c r="AC3" s="143"/>
-      <c r="AD3" s="147"/>
-      <c r="AE3" s="148"/>
-      <c r="AF3" s="148"/>
-      <c r="AG3" s="149"/>
-      <c r="AH3" s="156"/>
-      <c r="AI3" s="157"/>
-      <c r="AJ3" s="157"/>
-      <c r="AK3" s="158"/>
-      <c r="AL3" s="162"/>
-      <c r="AM3" s="163"/>
-      <c r="AN3" s="164"/>
-      <c r="AO3" s="142"/>
+    <row r="3" spans="1:50" s="53" customFormat="1" ht="15.75" customHeight="1">
+      <c r="Y3" s="158"/>
+      <c r="Z3" s="161"/>
+      <c r="AA3" s="161"/>
+      <c r="AB3" s="161"/>
+      <c r="AC3" s="161"/>
+      <c r="AD3" s="165"/>
+      <c r="AE3" s="166"/>
+      <c r="AF3" s="166"/>
+      <c r="AG3" s="167"/>
+      <c r="AH3" s="174"/>
+      <c r="AI3" s="175"/>
+      <c r="AJ3" s="175"/>
+      <c r="AK3" s="176"/>
+      <c r="AL3" s="180"/>
+      <c r="AM3" s="181"/>
+      <c r="AN3" s="182"/>
+      <c r="AO3" s="160"/>
+      <c r="AP3" s="160"/>
+      <c r="AQ3" s="160"/>
+      <c r="AR3" s="160"/>
+      <c r="AS3" s="160"/>
     </row>
-    <row r="4" spans="1:46" s="53" customFormat="1" ht="36.950000000000003" customHeight="1">
+    <row r="4" spans="1:50" s="53" customFormat="1" ht="36.950000000000003" customHeight="1">
       <c r="A4" s="52" t="s">
         <v>346</v>
       </c>
       <c r="B4" s="52"/>
-      <c r="Y4" s="141"/>
-      <c r="Z4" s="143"/>
-      <c r="AA4" s="143"/>
-      <c r="AB4" s="143"/>
-      <c r="AC4" s="143"/>
-      <c r="AD4" s="150"/>
-      <c r="AE4" s="151"/>
-      <c r="AF4" s="151"/>
-      <c r="AG4" s="152"/>
-      <c r="AH4" s="156"/>
-      <c r="AI4" s="157"/>
-      <c r="AJ4" s="157"/>
-      <c r="AK4" s="158"/>
-      <c r="AL4" s="162"/>
-      <c r="AM4" s="163"/>
-      <c r="AN4" s="164"/>
-      <c r="AO4" s="142"/>
+      <c r="Y4" s="159"/>
+      <c r="Z4" s="161"/>
+      <c r="AA4" s="161"/>
+      <c r="AB4" s="161"/>
+      <c r="AC4" s="161"/>
+      <c r="AD4" s="168"/>
+      <c r="AE4" s="169"/>
+      <c r="AF4" s="169"/>
+      <c r="AG4" s="170"/>
+      <c r="AH4" s="174"/>
+      <c r="AI4" s="175"/>
+      <c r="AJ4" s="175"/>
+      <c r="AK4" s="176"/>
+      <c r="AL4" s="180"/>
+      <c r="AM4" s="181"/>
+      <c r="AN4" s="182"/>
+      <c r="AO4" s="160"/>
+      <c r="AP4" s="160"/>
+      <c r="AQ4" s="160"/>
+      <c r="AR4" s="160"/>
+      <c r="AS4" s="160"/>
     </row>
-    <row r="5" spans="1:46" s="57" customFormat="1" ht="122.25" customHeight="1">
+    <row r="5" spans="1:50" s="57" customFormat="1" ht="122.25" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -6910,24 +6946,37 @@
       <c r="AO5" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="AP5" s="56" t="s">
+      <c r="AP5" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="AQ5" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="AR5" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="AS5" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="AT5" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="AQ5" s="56" t="s">
+      <c r="AU5" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="AR5" s="56" t="s">
+      <c r="AV5" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="AS5" s="2" t="s">
+      <c r="AW5" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AT5" s="55" t="s">
+      <c r="AX5" s="55" t="s">
         <v>361</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="AP1:AS4"/>
     <mergeCell ref="Y1:Y4"/>
     <mergeCell ref="AO1:AO4"/>
     <mergeCell ref="Z1:AC4"/>
